--- a/project-A/風水評価の説明/風水関連.xlsx
+++ b/project-A/風水評価の説明/風水関連.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="334">
   <si>
     <t>五行</t>
     <rPh sb="0" eb="2">
@@ -130,30 +130,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>強めの陽</t>
-    <rPh sb="0" eb="1">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>陰</t>
-    <rPh sb="0" eb="1">
-      <t>イン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>陽</t>
-    <rPh sb="0" eb="1">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>北西</t>
     <rPh sb="0" eb="2">
       <t>ホクセイ</t>
@@ -202,16 +178,6 @@
     <t>特性</t>
     <rPh sb="0" eb="2">
       <t>トクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>家具候補</t>
-    <rPh sb="0" eb="2">
-      <t>カグ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>コウホ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -282,132 +248,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ベット</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>机</t>
-    <rPh sb="0" eb="1">
-      <t>ツクエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>テーブル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ソファー</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>観葉植物</t>
-    <rPh sb="0" eb="2">
-      <t>カンヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ショクブツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>造花</t>
-    <rPh sb="0" eb="2">
-      <t>ゾウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>水槽</t>
-    <rPh sb="0" eb="2">
-      <t>スイソウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カーペット(ラグマット)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カーテン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>家電</t>
-    <rPh sb="0" eb="2">
-      <t>カデン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>鏡</t>
-    <rPh sb="0" eb="1">
-      <t>カガミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>照明</t>
-    <rPh sb="0" eb="2">
-      <t>ショウメイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>椅子</t>
-    <rPh sb="0" eb="2">
-      <t>イス</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>額縁</t>
-    <rPh sb="0" eb="2">
-      <t>ガクブチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ぬいぐるみ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>窓</t>
-    <rPh sb="0" eb="1">
-      <t>マド</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ドア</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>タンス(クローゼット)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>壁紙</t>
-    <rPh sb="0" eb="2">
-      <t>カベガミ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>その他</t>
-    <rPh sb="2" eb="3">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>種類</t>
-    <rPh sb="0" eb="2">
-      <t>シュルイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1385,116 +1225,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>相生する気&lt;=相生される気の場合，相生する気は全部減り，相生される気は相生する気だけ増える</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソウショウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>フ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>相生する気&gt;相生される気の場合，相生する気は相生される気だけ減り，相生される気は2倍になる</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ソウショウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソウショウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>バイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>相克効果・・・</t>
     <rPh sb="0" eb="2">
       <t>ソウコク</t>
@@ -1505,98 +1235,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>相克する気&gt;相克される気の場合，相克する気は相克される気の半分だけ減り，相克される気は全部減る</t>
-    <rPh sb="0" eb="2">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ハンブン</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>ゼンブ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>ヘ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>相克する気&lt;=相克される気の場合，相克する気は半分になり，相克される気は相克する気だけ減る</t>
-    <rPh sb="0" eb="2">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ハンブン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ヘ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>追加される陰陽</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
@@ -1607,67 +1245,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>水</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>土</t>
-    <rPh sb="0" eb="1">
-      <t>ツチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>木</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>火</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>金</t>
-    <rPh sb="0" eb="1">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>追加される気</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
     </rPh>
     <rPh sb="5" eb="6">
       <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>土40</t>
-    <rPh sb="0" eb="1">
-      <t>ツチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>火50, 水50, 金10</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1690,13 +1273,6 @@
   </si>
   <si>
     <t>リビング</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>水60</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1866,19 +1442,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>5タイプ運に分けた場合</t>
-    <rPh sb="4" eb="5">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>性質</t>
     <rPh sb="0" eb="2">
       <t>セイシツ</t>
@@ -1901,19 +1464,6 @@
     </rPh>
     <rPh sb="10" eb="11">
       <t>ツメ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>倍化される気</t>
-    <rPh sb="0" eb="1">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2076,20 +1626,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>金運
-恋愛運</t>
-    <rPh sb="0" eb="2">
-      <t>キンウン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>人気運
 健康運</t>
     <rPh sb="0" eb="2">
@@ -2132,10 +1668,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>なし</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>特性</t>
     <rPh sb="0" eb="2">
       <t>トクセイ</t>
@@ -2161,30 +1693,6 @@
     </rPh>
     <rPh sb="11" eb="12">
       <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>健康運
-恋愛運
-に影響を与える</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>アタ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2202,32 +1710,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>高級家具で運勢アップ</t>
-    <rPh sb="0" eb="2">
-      <t>コウキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カグ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ウンセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>陰陽(家具に関係する)</t>
-    <rPh sb="0" eb="2">
-      <t>インヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カグ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カンケイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ピンクで恋愛運アップ</t>
     <rPh sb="4" eb="6">
       <t>レンアイ</t>
@@ -2238,58 +1720,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>気を中和する</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>チュウワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全体運が陰陽バランスで変化
-背の高い家具で運勢アップ</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>インヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>セ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>カグ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ウンセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風連想で運勢アップ</t>
-    <rPh sb="0" eb="1">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>レンソウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ウンセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>陰陽がマイナスのとき0にする</t>
     <rPh sb="0" eb="2">
       <t>インヨウ</t>
@@ -2310,186 +1740,26 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>背の低い家具で運勢アップ</t>
-    <rPh sb="0" eb="1">
-      <t>セ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヒク</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カグ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ウンセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>西洋風家具で運勢アップ</t>
-    <rPh sb="0" eb="2">
-      <t>セイヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>フウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カグ</t>
+    <t>強いと上がる運気</t>
+    <rPh sb="0" eb="1">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
     </rPh>
     <rPh sb="6" eb="8">
-      <t>ウンセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>極めて強い陰気</t>
-    <rPh sb="0" eb="1">
-      <t>キワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>インキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>木の気</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(基本の)気の属性</t>
-    <rPh sb="1" eb="3">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ゾクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>水の気(魚次第で金の気アップ)</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>サカナ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シダイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>強い陰気</t>
-    <rPh sb="0" eb="1">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>インキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>強い陽気</t>
-    <rPh sb="0" eb="1">
-      <t>ツヨ</t>
+      <t>ウンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰と陽は互いに中和する(中和しきれない陰，または陽があると何かしらの悪影響(一定以上で))．陰陽がマイナスのとき陰，プラスのとき陽（ある程度の陽気は大丈夫）</t>
+    <rPh sb="0" eb="1">
+      <t>イン</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>ヨウ</t>
     </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>強いと上がる運気</t>
-    <rPh sb="0" eb="1">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ウンキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>中性</t>
-    <rPh sb="0" eb="2">
-      <t>チュウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>強めの陰</t>
-    <rPh sb="0" eb="1">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>オレンジで運勢アップ
-風連想(音，香りで運勢アップ)
-悪臭で運勢ダウン</t>
-    <rPh sb="5" eb="7">
-      <t>ウンセイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>レンソウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オト</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ウンセイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>アクシュウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ウンセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>陰と陽は互いに中和する(中和しきれない陰，または陽があると何かしらの悪影響(一定以上で))．陰陽がマイナスのとき陰，プラスのとき陽（ある程度の陽気は大丈夫）</t>
-    <rPh sb="0" eb="1">
-      <t>イン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヨウ</t>
-    </rPh>
     <rPh sb="4" eb="5">
       <t>タガ</t>
     </rPh>
@@ -2540,22 +1810,6 @@
   <si>
     <t>イライラ
 ダウン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>陰陽(五行補正は考慮しない)</t>
-    <rPh sb="0" eb="2">
-      <t>インヨウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ゴギョウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ホセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウリョ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2576,29 +1830,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>超過で下がる運気</t>
-    <rPh sb="0" eb="2">
-      <t>チョウカ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ウンキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>恋愛運ダウン</t>
-    <rPh sb="0" eb="2">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>北東の寝室は金運アップ</t>
     <rPh sb="0" eb="2">
       <t>ホクトウ</t>
@@ -2611,79 +1842,6 @@
     </rPh>
     <rPh sb="7" eb="8">
       <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>健康運1
-金運1
-仕事運1
-恋愛運1
-人気運1</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キンウン</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>金運5</t>
-    <rPh sb="0" eb="2">
-      <t>キンウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事運4
-健康運1</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>健康運2</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>金運2</t>
-    <rPh sb="0" eb="2">
-      <t>キンウン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2702,76 +1860,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>陽気が強すぎると良い運気を取り込めない
-(健康運下がる)</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ウンキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事運1
-恋愛運1</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>人気運3
-健康運1
-仕事運1</t>
-    <rPh sb="0" eb="2">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>シゴトウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>オーバーワーク
 (仕事運低下?)</t>
     <rPh sb="9" eb="12">
@@ -2779,13 +1867,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>テイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事運1</t>
-    <rPh sb="0" eb="3">
-      <t>シゴトウン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2829,36 +1910,8 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>恋愛運4
-仕事運1</t>
-    <rPh sb="0" eb="2">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>シゴトウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>背が高く細長い
 木，風を連想</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>健康運1
-金運1</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キンウン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -3186,6 +2239,3532 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相克する気&lt;=相克される気の場合，相克する気は1/4へり，相克される気は相克するの1/2だけ減る</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相生する気&gt;相生される気の場合，相生する気は相生される気の1/4へり，相生される気は1/2ふえる</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウショウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウショウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相克する気&gt;相克される気の場合，相克する気は相克される気の1/4だけ減り，相克される気は1/2減る</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ハンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相生する気&lt;=相生される気の場合，相生する気は1/4へり，相生される気は相生する気の1/2だけ増える</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソウショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ここからの情報は家具に気の強さを設定するための参考用</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>サンコウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>家具について(基本方針)</t>
+    <rPh sb="0" eb="2">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰気が20より高い場合,
+陰気の強さ-20だけ上記の運気が減少</t>
+    <rPh sb="0" eb="2">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽気が200より高い場合，
+陽気の強さ-200だけ上記の運気が減少</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ゲンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土 + 40</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火 + 50,
+水 + 50 
+金 + 10</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水 + 60</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰気 + 40</t>
+    <rPh sb="0" eb="2">
+      <t>インキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰気 + 50</t>
+    <rPh sb="0" eb="2">
+      <t>インキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水 + 100</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土 + 100</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木 + 100</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火 + 100</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金 + 100</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実際に変化する運気</t>
+    <rPh sb="0" eb="2">
+      <t>ジッサイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ウンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相生相克は全て現在の全体の気の強さに対して行われ，各気が0未満になった場合は0に変換される</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ミマン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰陽の補正</t>
+    <rPh sb="0" eb="2">
+      <t>インヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>補正なし</t>
+    <rPh sb="0" eb="2">
+      <t>ホセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+陽気 += 火の気
+</t>
+    <rPh sb="1" eb="3">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰気 += 土の気/2</t>
+    <rPh sb="0" eb="2">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽気 += 金の気/2</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰気 += 水の気/2</t>
+    <rPh sb="0" eb="1">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全ての運</t>
+    <rPh sb="0" eb="1">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>変化量</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">金運 ，恋愛運 </t>
+    <rPh sb="0" eb="2">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">陽気が200以下, 陰気が20以上のとき
+(全ての気+土の気(max200))/20増加
+それ以外の場合
+(全ての気+土の気max200)/40減少
+</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(全ての気 + 水の気(max200))/10増加</t>
+    <rPh sb="1" eb="2">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(全ての気 + 木の気(max200))/5増加</t>
+    <rPh sb="1" eb="2">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(全ての気 + 火の気(max200))/10増加</t>
+    <rPh sb="1" eb="2">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(全ての気 + 土の気(max200))/10増加</t>
+    <rPh sb="1" eb="2">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(全ての気 + 金の気(max200))/10増加</t>
+    <rPh sb="1" eb="2">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運 += 木の気の4/5
+健康運 += 木の気の1/5</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人気運 += 火の気の3/5
+健康運 += 火の気の1/5
+仕事運 += 火の気の1/5</t>
+    <rPh sb="0" eb="2">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>健康運 += 土の気の1/5
+金運 += 土の気の1/5
+仕事運 += 土の気の1/5
+恋愛運 += 土の気の1/5
+人気運 += 土の気の1/5</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金運 += 金の気</t>
+    <rPh sb="0" eb="2">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>恋愛運 += 水の気の4/5
+仕事運 += 水の気の1/5</t>
+    <rPh sb="0" eb="2">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>200以上で下がる運気</t>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ウンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運 -= (木の気-200)×2</t>
+    <rPh sb="0" eb="3">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運 -= 火の気-200
+恋愛運 -= 火の気-200</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>健康運 -= (土の気-200)×2</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金運 -= (金の気-200)×2</t>
+    <rPh sb="0" eb="2">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>健康運 -= 水の気-200
+金運 -= 水の気-200</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベッド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ソファー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>机</t>
+    <rPh sb="0" eb="1">
+      <t>ツクエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テーブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カーペット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鏡</t>
+    <rPh sb="0" eb="1">
+      <t>カガミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テレビ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>観葉植物</t>
+    <rPh sb="0" eb="2">
+      <t>カンヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショクブツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>五行の方針</t>
+    <rPh sb="0" eb="2">
+      <t>ゴギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰陽の方針</t>
+    <rPh sb="0" eb="2">
+      <t>インヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特性</t>
+    <rPh sb="0" eb="2">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>五行その他</t>
+    <rPh sb="0" eb="2">
+      <t>ゴギョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰陽その他</t>
+    <rPh sb="0" eb="2">
+      <t>インヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本は木の気</t>
+  </si>
+  <si>
+    <t>植物の種類にもよる
+花瓶にもよる</t>
+    <rPh sb="0" eb="2">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カビン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本は中性</t>
+    <rPh sb="3" eb="5">
+      <t>チュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>植物の種類による
+花瓶にもよる</t>
+    <rPh sb="0" eb="2">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カビン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>西,  北西方向で金運アップ
+金運 += 20</t>
+    <rPh sb="0" eb="1">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キンウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>西，西南は食べ物が傷みやすい
+健康運 -= 20</t>
+    <rPh sb="0" eb="1">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイナン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東,南東は風に関連があり相性よし
+健康運 += 20(東の場合)
+健康運 += 30(南東の場合)</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナントウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アイショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">寝室の吉方位は北，東，南西
+健康運，恋愛運 += 10
+それ以外 += 5 </t>
+    <rPh sb="0" eb="2">
+      <t>シンシツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キチ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ナンセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イガイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東，南東，北西は明るく風通しが良い
+健康運 += 20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>丸い鏡は運気吸収
+全ての運気1.2倍
+(運勢ラスト)</t>
+    <rPh sb="0" eb="1">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カガミ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ウンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角い鏡は運気反射
+全ての運気0.8倍
+(運勢ラスト)</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カガミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンシャ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ウンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰陽の中和(陰陽を1/2にする)
+(陰陽ラスト)</t>
+    <rPh sb="0" eb="2">
+      <t>インヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>チュウワ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>インヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合わせ鏡(非常に悪い置き方)
+金運以外の運勢 -= 40
+金運 -= 60;</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カガミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ウンセイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>キンウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>運気の入り口
+全ての運が1.5倍
+(運勢ラスト)</t>
+    <rPh sb="0" eb="2">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>グチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ウンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鬼門(北東，南西)は注意が必要
+全ての運-=40 (陰気が20より↑)</t>
+    <rPh sb="0" eb="2">
+      <t>キモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホクトウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>インキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>家具の数</t>
+    <rPh sb="0" eb="2">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>多すぎる</t>
+    <rPh sb="0" eb="1">
+      <t>オオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>少なすぎる</t>
+    <rPh sb="0" eb="1">
+      <t>スク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10より多い場合, 家具1個増加につき
+全ての運-=30</t>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>3個以下の場合
+全ての運-=30</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元々，健康運に悪影響
+健康運 -= 50</t>
+    <rPh sb="0" eb="2">
+      <t>モトモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>アクエイキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>温かみのある色の家具で健康運アップ
+健康運 += 10 (一個につき)</t>
+    <rPh sb="0" eb="1">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>イッコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背の高い家具で運勢アップ</t>
+  </si>
+  <si>
+    <t>風，音で運勢アップ
+全ての運 += 5 (一個につき)</t>
+    <rPh sb="2" eb="3">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イッコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背の低い家具で運勢アップ
+全ての運 += 5 (1個につき)</t>
+    <rPh sb="0" eb="1">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ウンセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>enumの方針</t>
+    <rPh sb="5" eb="7">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>布団だと,特性「低い」</t>
+    <rPh sb="0" eb="2">
+      <t>フトン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カーテン</t>
+  </si>
+  <si>
+    <t>レースだと特性「風連想」</t>
+  </si>
+  <si>
+    <t>西枕2番目に良くない
+健康運 -10</t>
+    <rPh sb="0" eb="1">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マクラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>寝室に机は健康運と仕事運ダウン
+健康運-20
+仕事運-20</t>
+    <rPh sb="0" eb="2">
+      <t>シンシツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツクエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>シゴトウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北枕が良い
+健康運+30
+仕事運+10</t>
+    <rPh sb="0" eb="2">
+      <t>キタマクラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>シゴトウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東枕2番目に良い
+健康運+20
+仕事運+10</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マクラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>バンメ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>シゴトウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>南枕一番よくない
+健康運-20
+仕事運-10</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マクラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>シゴトウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北に水の気が高い家具を置くと恋愛↑
+恋愛運 += 5(1個につき)</t>
+    <rPh sb="0" eb="1">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ぬいぐるみ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドライフラワー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰気が非常に強い</t>
+    <rPh sb="0" eb="2">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰気が強い</t>
+    <rPh sb="0" eb="2">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>家具の数が10より多い場合 
+健康運，人気運，恋愛運-50</t>
+    <rPh sb="0" eb="2">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部屋の南に鏡で人気運，健康運上がる
+人気運+10
+恋愛運+5
+健康運+5</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カガミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽気が強すぎると良い運気を取り込めない
+(健康運中心下がる)
+健康運 -50
+その他 -10</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>テイカ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テレビ画面がベッドを向く
+健康運-10
+その他-5</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天然素材，木製1個につき健康運アップ
+健康運 +5</t>
+    <rPh sb="0" eb="2">
+      <t>テンネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すべての観葉植物は木製</t>
+    <rPh sb="4" eb="6">
+      <t>カンヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジで運勢アップ
+恋愛運 + 10 (1個につき)</t>
+    <rPh sb="11" eb="13">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アロマ(マイナー)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>におい
+においの種類あり</t>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>柑橘系のにおいは恋愛運上げる
+恋愛運 + 20(部屋の南東)
+恋愛運 + 10(その他の方角)</t>
+    <rPh sb="0" eb="3">
+      <t>カンキツケイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ナントウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ナンナントウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ホウガク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>気が強い(でかいので)</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>気が強い(でかい)</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>家具ごとの特性について</t>
+    <rPh sb="0" eb="2">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>色特性(すべての部屋，方角対応)</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホウガク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>白</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黒</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>灰</t>
+    <rPh sb="0" eb="1">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピンク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>青</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黄色</t>
+    <rPh sb="0" eb="2">
+      <t>キイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>緑</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベージュ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリーム色</t>
+    <rPh sb="4" eb="5">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>茶色</t>
+    <rPh sb="0" eb="2">
+      <t>チャイロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銀</t>
+    <rPh sb="0" eb="1">
+      <t>ギン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <rPh sb="0" eb="1">
+      <t>ムラサキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>温かみのある色</t>
+    <rPh sb="0" eb="1">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰陽の方向性</t>
+    <rPh sb="0" eb="2">
+      <t>インヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ホウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>固有特性</t>
+  </si>
+  <si>
+    <t>固有特性</t>
+    <rPh sb="0" eb="2">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽気が極めて強い</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火の気が極めて強い</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水は陰の気</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>窓のない部屋陰気ためやすい</t>
+    <rPh sb="0" eb="1">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>インキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>寝室にベッドなし
+全ての運-30</t>
+    <rPh sb="0" eb="2">
+      <t>シンシツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>寝室以外にベッド
+全ての運-10</t>
+    <rPh sb="0" eb="2">
+      <t>シンシツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天然素材のベッド
+健康運+10</t>
+    <rPh sb="0" eb="2">
+      <t>テンネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>枕を窓に向けると上司の庇護を受けれない
+仕事運-20</t>
+    <rPh sb="0" eb="1">
+      <t>マクラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マド</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジョウシ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒゴ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>シゴトウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明かり0で陰気がかなり強まる</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベッドに鏡映す
+健康運-20
+恋愛運-20
+その他-5</t>
+    <rPh sb="4" eb="5">
+      <t>カガミ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水の気が強い</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>五行の方向性(あくまで基本方針)</t>
+    <rPh sb="0" eb="2">
+      <t>ゴギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ホウコウセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他特性の兼ね合い</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>強い色は冷たい家具になりやすい</t>
+    <rPh sb="0" eb="1">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツメ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>寝室は運気を吸収する場所
+全ての運気1,2倍(運勢ラスト)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>青で健康運上がる(安眠)
+健康運 +10</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>アンミン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>色の司る運気(コメント参考用)</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツカサド</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>サンコウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コメント参考用</t>
+    <rPh sb="4" eb="7">
+      <t>サンコウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金運
+人間関係運
+気持ちのリセット
+運気の浄化</t>
+    <rPh sb="0" eb="2">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キモ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジョウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>格調高さ
+静謐
+秘密
+信頼</t>
+    <rPh sb="0" eb="2">
+      <t>カクチョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒミツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シンライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運
+人気運
+美容運
+決断力</t>
+    <rPh sb="0" eb="3">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ビヨウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ケツダンリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>恋愛運
+結婚運
+人間関係運
+金運</t>
+    <rPh sb="0" eb="2">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッコン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キンウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運
+冷静
+安らかな眠り</t>
+    <rPh sb="0" eb="3">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>レイセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヤス</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ネム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人間関係運
+恋愛運
+家庭運
+コミュニケーション力</t>
+    <rPh sb="0" eb="2">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運
+発展運
+生長運
+健康運
+人間関係運</t>
+    <rPh sb="0" eb="3">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハッテン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>セイチョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>家庭運
+安定
+落ち着き
+集中
+誠実</t>
+    <rPh sb="0" eb="2">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セイジツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金運
+才能
+社会運
+ステータス運</t>
+    <rPh sb="0" eb="2">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サイノウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>改革
+金運
+才能
+社会運
+ステータス運</t>
+    <rPh sb="0" eb="2">
+      <t>カイカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>サイノウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シャカイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体運
+ステータス運
+情熱的な恋愛
+気品
+神秘的な魅力</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>ジョウネツテキ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キヒン</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>シンピテキ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ミリョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一つでもあれば
+仕事運 + 20
+人気運 + 20
+美容運 + 20</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ビヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジが一つ以上ある場合
+ピンクの家具一つ以上で
+恋愛運　+ 30</t>
+    <rPh sb="5" eb="6">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジが一つ以上ある場合
+青の家具一つ以上で
+健康運　+ 30</t>
+    <rPh sb="5" eb="6">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽気がかなり強い</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>濃い色は陰気が強め</t>
+    <rPh sb="0" eb="1">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火の気あり</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木の気が強い</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>緑一つにつき
+陰陽9/10倍
+(五行陰陽ラスト)</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>インヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゴギョウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>インヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金の気が極めて強い</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中性</t>
+    <rPh sb="0" eb="2">
+      <t>チュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金一つにつき
+金運1.2倍
+その他1.1倍
+(運勢ラスト)</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ウンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>若干陰気より</t>
+    <rPh sb="0" eb="2">
+      <t>ジャッカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>インキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光沢あり
+高級になりやすい</t>
+    <rPh sb="0" eb="2">
+      <t>コウタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高級になるかもしれない</t>
+    <rPh sb="0" eb="2">
+      <t>コウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高級家具で金運アップ
+金運 + 5</t>
+    <rPh sb="0" eb="2">
+      <t>コウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キンウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>西洋風家具で金運アップ
+金運 + 5</t>
+    <rPh sb="12" eb="14">
+      <t>キンウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高級家具で仕事運，金運アップ
+(1個につき)
+仕事運 + 10
+金運 + 5</t>
+    <rPh sb="5" eb="8">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キンウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銀色で仕事運アップ
+(1個につき)
+仕事運 + 10</t>
+    <rPh sb="0" eb="2">
+      <t>ギンイロ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>シゴトウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金の気を持つ</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>若干の陽気</t>
+    <rPh sb="0" eb="2">
+      <t>ジャッカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>白一つにつき
+マイナスの運勢0.9倍</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ウンセイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰陽が0.5倍
+(五行陰陽ラスト)</t>
+    <rPh sb="0" eb="2">
+      <t>インヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ゴギョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>インヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水の気</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>極めて強い陰気</t>
+    <rPh sb="0" eb="1">
+      <t>キワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>インキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1つにつき色による加算(減算)補正を
+1.2倍にする</t>
+    <rPh sb="5" eb="6">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ゲンザン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弱めの金の気をもつ</t>
+    <rPh sb="0" eb="1">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>僅かに陰の気</t>
+    <rPh sb="0" eb="1">
+      <t>ワズ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>灰色で仕事運アップ
+(1個につき)
+仕事運 + 5</t>
+    <rPh sb="0" eb="2">
+      <t>ハイイロ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>シゴトウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火の気と金の気が強め</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽気が強め</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一つでもあれば
+仕事運 + 30</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シゴトウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一つでもあれば
+恋愛運 + 50</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>薄いのは温かみのある色</t>
+    <rPh sb="0" eb="1">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高級になりやすい
+温かみのある色</t>
+    <rPh sb="0" eb="2">
+      <t>コウキュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金，土の気が強め</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽気あり</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一つにつき
+仕事運 + 10
+恋愛運 + 10</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金，水の気が強め</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金運
+家庭運
+安定
+変化？</t>
+    <rPh sb="0" eb="2">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土の気</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土の気が強い</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>茶色一つでもあれば
+プラスの運気1.1倍
+(黄との兼ね合い不可)</t>
+    <rPh sb="0" eb="2">
+      <t>チャイロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黄色一つでもあれば
+プラスの運気1.1倍
+(茶との兼ね合い不可)</t>
+    <rPh sb="0" eb="2">
+      <t>キイロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背が低い特性の家具が茶の場合
+家具1個につき
+プラスの運気1.1倍</t>
+    <rPh sb="0" eb="1">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>チャ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>バイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3194,7 +5773,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3290,8 +5869,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3364,8 +5951,140 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33FF33"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDCB9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1D31F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -3373,170 +6092,392 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3545,6 +6486,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCC99FF"/>
+      <color rgb="FFFFCCCC"/>
+      <color rgb="FFBDC7C7"/>
+      <color rgb="FFF1D31F"/>
+      <color rgb="FFF2B51E"/>
+      <color rgb="FFFFDCB9"/>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFCC99"/>
+      <color rgb="FFFFCC66"/>
+      <color rgb="FFFFCCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3819,943 +6774,1728 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:Q163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="G106" workbookViewId="0">
+      <selection activeCell="L125" sqref="L125"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" thickTop="1" thickBottom="1"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" customWidth="1"/>
-    <col min="2" max="2" width="23" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" customWidth="1"/>
-    <col min="7" max="7" width="27.6640625" customWidth="1"/>
-    <col min="8" max="8" width="28.33203125" customWidth="1"/>
-    <col min="9" max="9" width="36.109375" customWidth="1"/>
-    <col min="10" max="10" width="26.44140625" customWidth="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1"/>
-    <col min="12" max="12" width="19.88671875" customWidth="1"/>
-    <col min="13" max="13" width="21.6640625" customWidth="1"/>
-    <col min="14" max="14" width="24.21875" customWidth="1"/>
-    <col min="15" max="15" width="27.5546875" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" customWidth="1"/>
-    <col min="18" max="18" width="15" customWidth="1"/>
-    <col min="20" max="20" width="18" customWidth="1"/>
+    <col min="1" max="1" width="29.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="33.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.77734375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="33.77734375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="37" style="1" customWidth="1"/>
+    <col min="10" max="10" width="33.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="29.44140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="32.33203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="36.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.21875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="27.5546875" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="15" style="1" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="1"/>
+    <col min="20" max="20" width="18" style="1" customWidth="1"/>
+    <col min="21" max="21" width="34" style="1" customWidth="1"/>
+    <col min="22" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
-      <c r="A3" t="s">
+    <row r="3" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A3" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" thickTop="1" thickBot="1">
+      <c r="B4" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" thickTop="1" thickBot="1">
+      <c r="B5" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" thickTop="1" thickBot="1">
+      <c r="B6" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" thickTop="1" thickBot="1">
+      <c r="B7" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" thickTop="1" thickBot="1">
+      <c r="B8" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" thickTop="1" thickBot="1">
+      <c r="B11" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" thickTop="1" thickBot="1">
+      <c r="B12" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" thickTop="1" thickBot="1">
+      <c r="B13" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" thickTop="1" thickBot="1">
+      <c r="B14" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" thickTop="1" thickBot="1">
+      <c r="C27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" thickTop="1" thickBot="1">
+      <c r="B28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" thickTop="1" thickBot="1">
+      <c r="B29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="12" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A30" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="12" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A31" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:8" s="18" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:7" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B33" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="67.2" thickTop="1" thickBot="1">
+      <c r="B34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>164</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>165</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>166</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B35" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="18" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" s="27" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C37" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="29"/>
+    </row>
+    <row r="38" spans="1:7" ht="80.400000000000006" thickTop="1" thickBot="1">
+      <c r="B38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="69" thickTop="1" thickBot="1">
+      <c r="B39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="20.399999999999999" thickTop="1" thickBot="1">
+      <c r="B40" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="F40" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" s="45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A42" s="46"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="46"/>
+      <c r="F42" s="46"/>
+      <c r="G42" s="46"/>
+    </row>
+    <row r="43" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A43" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="46"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="46"/>
+      <c r="F43" s="46"/>
+      <c r="G43" s="46"/>
+    </row>
+    <row r="44" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A44" s="46"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="47" t="s">
+        <v>55</v>
+      </c>
+      <c r="D44" s="48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E44" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="F44" s="46"/>
+      <c r="G44" s="46"/>
+    </row>
+    <row r="45" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A45" s="46" t="s">
+        <v>278</v>
+      </c>
+      <c r="B45" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E45" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F45" s="46"/>
+      <c r="G45" s="46"/>
+    </row>
+    <row r="46" spans="1:7" s="18" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+    </row>
+    <row r="47" spans="1:7" ht="30" thickTop="1" thickBot="1">
+      <c r="A47" s="46"/>
+      <c r="B47" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="C47" s="51" t="s">
+        <v>110</v>
+      </c>
+      <c r="D47" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E47" s="53"/>
+      <c r="F47" s="46"/>
+      <c r="G47" s="46"/>
+    </row>
+    <row r="48" spans="1:7" ht="20.399999999999999" thickTop="1" thickBot="1">
+      <c r="A48" s="46"/>
+      <c r="B48" s="46"/>
+      <c r="C48" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E48" s="53"/>
+      <c r="F48" s="46"/>
+      <c r="G48" s="46"/>
+    </row>
+    <row r="49" spans="1:13" s="18" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+    </row>
+    <row r="50" spans="1:13" s="27" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A50" s="46"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" s="57"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="46"/>
+      <c r="G50" s="46"/>
+    </row>
+    <row r="51" spans="1:13" ht="60.6" thickTop="1" thickBot="1">
+      <c r="A51" s="46"/>
+      <c r="B51" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="E51" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="F51" s="46"/>
+      <c r="G51" s="46"/>
+    </row>
+    <row r="52" spans="1:13" ht="49.2" thickTop="1" thickBot="1">
+      <c r="A52" s="46"/>
+      <c r="B52" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="E52" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" s="46"/>
+      <c r="G52" s="46"/>
+    </row>
+    <row r="54" spans="1:13" s="18" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="56" spans="1:13" thickTop="1" thickBot="1">
+      <c r="A56" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" s="61" customFormat="1" thickTop="1" thickBot="1">
+      <c r="B57" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="E57" s="61" t="s">
+        <v>177</v>
+      </c>
+      <c r="F57" s="61" t="s">
+        <v>178</v>
+      </c>
+      <c r="G57" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="H57" s="61" t="s">
+        <v>180</v>
+      </c>
+      <c r="I57" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="J57" s="61" t="s">
+        <v>223</v>
+      </c>
+      <c r="K57" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="L57" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="M57" s="61" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" s="62" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A58" s="62" t="s">
+        <v>182</v>
+      </c>
+      <c r="B58" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="F58" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="I58" s="62" t="s">
+        <v>187</v>
+      </c>
+      <c r="L58" s="62" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" s="2" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I59" s="63" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" s="64" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A60" s="64" t="s">
+        <v>183</v>
+      </c>
+      <c r="I60" s="65" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
-      <c r="B4" t="s">
+      <c r="J60" s="64" t="s">
+        <v>224</v>
+      </c>
+      <c r="K60" s="64" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" s="66" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A61" s="66" t="s">
+        <v>186</v>
+      </c>
+      <c r="I61" s="67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" s="68" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A62" s="68" t="s">
+        <v>212</v>
+      </c>
+      <c r="B62" s="68" t="s">
+        <v>213</v>
+      </c>
+      <c r="I62" s="69" t="s">
+        <v>231</v>
+      </c>
+      <c r="L62" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="M62" s="69" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" s="70" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="A63" s="70" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
-      <c r="B5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
-      <c r="B6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
-      <c r="B7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
-      <c r="B8" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
-      <c r="A10" t="s">
-        <v>190</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B63" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="D63" s="71" t="s">
+        <v>217</v>
+      </c>
+      <c r="G63" s="71" t="s">
+        <v>196</v>
+      </c>
+      <c r="H63" s="71" t="s">
+        <v>229</v>
+      </c>
+      <c r="I63" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="M63" s="71" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" s="70" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A64" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="71" t="s">
+        <v>219</v>
+      </c>
+      <c r="G64" s="71" t="s">
+        <v>227</v>
+      </c>
+      <c r="I64" s="71"/>
+    </row>
+    <row r="65" spans="1:11" s="70" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A65" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" s="71" t="s">
+        <v>216</v>
+      </c>
+      <c r="G65" s="71" t="s">
+        <v>270</v>
+      </c>
+      <c r="I65" s="71"/>
+    </row>
+    <row r="66" spans="1:11" s="70" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="A66" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" s="71" t="s">
+        <v>220</v>
+      </c>
+      <c r="G66" s="71"/>
+      <c r="I66" s="71"/>
+    </row>
+    <row r="67" spans="1:11" s="70" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="A67" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" s="71" t="s">
+        <v>265</v>
+      </c>
+      <c r="G67" s="71" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" s="70" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="A68" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" s="71" t="s">
+        <v>266</v>
+      </c>
+      <c r="G68" s="71" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" s="70" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A69" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B69" s="71" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" s="70" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A70" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" s="71" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" s="70" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A71" s="70" t="s">
+        <v>184</v>
+      </c>
+      <c r="B71" s="71"/>
+    </row>
+    <row r="72" spans="1:11" s="70" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A72" s="70" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" s="70" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A73" s="70" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" s="70" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A74" s="70" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="27" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A76" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" thickTop="1" thickBot="1">
+      <c r="B77" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B78" s="72" t="s">
+        <v>205</v>
+      </c>
+      <c r="C78" s="72" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" thickTop="1" thickBot="1">
+      <c r="A80" s="73"/>
+      <c r="B80" s="73"/>
+      <c r="C80" s="73"/>
+      <c r="D80" s="73"/>
+      <c r="E80" s="73"/>
+      <c r="F80" s="73"/>
+      <c r="G80" s="73"/>
+      <c r="H80" s="73"/>
+      <c r="I80" s="73"/>
+      <c r="J80" s="73"/>
+      <c r="K80" s="73"/>
+    </row>
+    <row r="81" spans="1:10" thickTop="1" thickBot="1">
+      <c r="A81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B81" s="74"/>
+      <c r="C81" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="D81" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="75" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G81" s="75" t="s">
+        <v>11</v>
+      </c>
+      <c r="H81" s="74" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="J81" s="74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" thickTop="1" thickBot="1">
+      <c r="B82" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" s="75" t="s">
+        <v>141</v>
+      </c>
+      <c r="D82" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="E82" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="F82" s="75" t="s">
+        <v>143</v>
+      </c>
+      <c r="G82" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="H82" s="75" t="s">
+        <v>142</v>
+      </c>
+      <c r="I82" s="75" t="s">
+        <v>145</v>
+      </c>
+      <c r="J82" s="75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" s="54" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="84" spans="1:10" ht="80.400000000000006" thickTop="1" thickBot="1">
+      <c r="B84" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C84" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="D84" s="77" t="s">
+        <v>85</v>
+      </c>
+      <c r="E84" s="77" t="s">
+        <v>86</v>
+      </c>
+      <c r="F84" s="77" t="s">
+        <v>87</v>
+      </c>
+      <c r="G84" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="H84" s="77" t="s">
+        <v>89</v>
+      </c>
+      <c r="I84" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="J84" s="77" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="54" thickTop="1" thickBot="1">
+      <c r="B85" s="78" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" s="79" t="s">
+        <v>75</v>
+      </c>
+      <c r="D85" s="79" t="s">
+        <v>76</v>
+      </c>
+      <c r="E85" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="F85" s="79" t="s">
+        <v>78</v>
+      </c>
+      <c r="G85" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="H85" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="I85" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="J85" s="79" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" s="18" customFormat="1" thickTop="1" thickBot="1">
+      <c r="B86" s="80"/>
+      <c r="C86" s="81"/>
+      <c r="D86" s="81"/>
+      <c r="E86" s="81"/>
+      <c r="F86" s="81"/>
+      <c r="G86" s="81"/>
+      <c r="H86" s="81"/>
+      <c r="I86" s="81"/>
+      <c r="J86" s="81"/>
+    </row>
+    <row r="87" spans="1:10" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B87" s="74" t="s">
+        <v>146</v>
+      </c>
+      <c r="C87" s="82" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" s="74" t="s">
+        <v>154</v>
+      </c>
+      <c r="E87" s="82" t="s">
+        <v>104</v>
+      </c>
+      <c r="F87" s="82" t="s">
+        <v>105</v>
+      </c>
+      <c r="G87" s="82" t="s">
+        <v>92</v>
+      </c>
+      <c r="H87" s="82" t="s">
+        <v>93</v>
+      </c>
+      <c r="I87" s="82" t="s">
+        <v>81</v>
+      </c>
+      <c r="J87" s="82" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="80.400000000000006" thickTop="1" thickBot="1">
+      <c r="B88" s="74" t="s">
+        <v>155</v>
+      </c>
+      <c r="C88" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="D88" s="82" t="s">
+        <v>157</v>
+      </c>
+      <c r="E88" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="F88" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="G88" s="83" t="s">
+        <v>160</v>
+      </c>
+      <c r="H88" s="83" t="s">
+        <v>161</v>
+      </c>
+      <c r="I88" s="83" t="s">
+        <v>162</v>
+      </c>
+      <c r="J88" s="83" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="18" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C89" s="84"/>
+      <c r="D89" s="21"/>
+      <c r="E89" s="84"/>
+      <c r="F89" s="84"/>
+      <c r="G89" s="84"/>
+      <c r="H89" s="84"/>
+      <c r="I89" s="84"/>
+      <c r="J89" s="84"/>
+    </row>
+    <row r="90" spans="1:10" ht="54" thickTop="1" thickBot="1">
+      <c r="B90" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="C90" s="82" t="s">
+        <v>207</v>
+      </c>
+      <c r="D90" s="74" t="s">
+        <v>209</v>
+      </c>
+      <c r="E90" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="F90" s="82" t="s">
+        <v>210</v>
+      </c>
+      <c r="G90" s="82"/>
+      <c r="H90" s="82" t="s">
+        <v>211</v>
+      </c>
+      <c r="I90" s="82" t="s">
+        <v>305</v>
+      </c>
+      <c r="J90" s="82" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B91" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="C91" s="82" t="s">
+        <v>208</v>
+      </c>
+      <c r="D91" s="74"/>
+      <c r="E91" s="82"/>
+      <c r="F91" s="82" t="s">
+        <v>233</v>
+      </c>
+      <c r="G91" s="82"/>
+      <c r="H91" s="82"/>
+      <c r="I91" s="82" t="s">
+        <v>304</v>
+      </c>
+      <c r="J91" s="82" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B92" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="C92" s="82"/>
+      <c r="D92" s="74"/>
+      <c r="E92" s="82"/>
+      <c r="F92" s="82"/>
+      <c r="G92" s="82"/>
+      <c r="H92" s="82"/>
+      <c r="I92" s="82"/>
+      <c r="J92" s="82" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B93" s="74" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="D93" s="82"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="82" t="s">
+        <v>232</v>
+      </c>
+      <c r="G93" s="82" t="s">
+        <v>99</v>
+      </c>
+      <c r="H93" s="82"/>
+      <c r="I93" s="82"/>
+      <c r="J93" s="74"/>
+    </row>
+    <row r="94" spans="1:10" thickTop="1" thickBot="1">
+      <c r="B94" s="74"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="82"/>
+      <c r="G94" s="82"/>
+      <c r="H94" s="82"/>
+      <c r="I94" s="82"/>
+      <c r="J94" s="74"/>
+    </row>
+    <row r="95" spans="1:10" thickTop="1" thickBot="1">
+      <c r="B95" s="74"/>
+      <c r="C95" s="85"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="82"/>
+      <c r="G95" s="82"/>
+      <c r="H95" s="82"/>
+      <c r="I95" s="82"/>
+      <c r="J95" s="74"/>
+    </row>
+    <row r="96" spans="1:10" thickTop="1" thickBot="1">
+      <c r="B96" s="74"/>
+      <c r="C96" s="85"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="82"/>
+      <c r="H96" s="82"/>
+      <c r="I96" s="82"/>
+      <c r="J96" s="74"/>
+    </row>
+    <row r="101" spans="1:9" s="18" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="102" spans="1:9" thickTop="1" thickBot="1">
+      <c r="C102" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="88" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A103" s="88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C103" s="88" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E103" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="F103" s="88" t="s">
+        <v>24</v>
+      </c>
+      <c r="G103" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="H103" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="I103" s="88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="88" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B104" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="E104" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="F104" s="89" t="s">
+        <v>137</v>
+      </c>
+      <c r="H104" s="89" t="s">
+        <v>138</v>
+      </c>
+      <c r="I104" s="89" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="88" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B105" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="C105" s="89" t="s">
+        <v>200</v>
+      </c>
+      <c r="F105" s="89"/>
+      <c r="H105" s="89" t="s">
+        <v>139</v>
+      </c>
+      <c r="I105" s="89" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="88" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B106" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="89" t="s">
+        <v>201</v>
+      </c>
+      <c r="D106" s="89" t="s">
+        <v>194</v>
+      </c>
+      <c r="E106" s="89" t="s">
+        <v>191</v>
+      </c>
+      <c r="F106" s="89" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
-      <c r="B11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
-      <c r="B12" t="s">
+      <c r="G106" s="88" t="s">
+        <v>97</v>
+      </c>
+      <c r="H106" s="89" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
-      <c r="B13" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="B14" t="s">
+    <row r="107" spans="1:9" s="88" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B107" s="88" t="s">
+        <v>95</v>
+      </c>
+      <c r="D107" s="89" t="s">
+        <v>106</v>
+      </c>
+      <c r="F107" s="89" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" t="s">
-        <v>35</v>
-      </c>
-      <c r="G16" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-      <c r="I16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J16" t="s">
-        <v>39</v>
-      </c>
-      <c r="K16" t="s">
-        <v>40</v>
-      </c>
-      <c r="L16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>46</v>
-      </c>
-      <c r="R16" t="s">
-        <v>47</v>
-      </c>
-      <c r="S16" t="s">
-        <v>48</v>
-      </c>
-      <c r="T16" t="s">
-        <v>49</v>
-      </c>
-      <c r="U16" t="s">
-        <v>50</v>
-      </c>
-      <c r="V16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="2:17">
-      <c r="B17" t="s">
-        <v>152</v>
-      </c>
-      <c r="H17" t="s">
-        <v>151</v>
-      </c>
-      <c r="I17" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="18" spans="2:17">
-      <c r="B18" t="s">
-        <v>162</v>
-      </c>
-      <c r="H18" t="s">
-        <v>150</v>
-      </c>
-      <c r="L18" t="s">
-        <v>155</v>
-      </c>
-      <c r="N18" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17">
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="20" spans="2:17">
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-      <c r="H59" s="1"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="1"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-      <c r="H60" s="1"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="1"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-      <c r="H61" s="1"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="1"/>
-      <c r="B62" s="1" t="s">
+    <row r="108" spans="1:9" s="88" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="B108" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D108" s="89" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="88" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B109" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="D109" s="89" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="88" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B110" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="D110" s="89" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="88" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B111" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="D111" s="89" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="88" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B112" s="88" t="s">
+        <v>184</v>
+      </c>
+      <c r="D112" s="89" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" s="88" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="D113" s="89" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" thickTop="1" thickBot="1">
+      <c r="D114" s="72"/>
+    </row>
+    <row r="116" spans="1:17" s="18" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="117" spans="1:17" thickTop="1" thickBot="1">
+      <c r="A117" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" s="92" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A118" s="27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B118" s="93" t="s">
+        <v>241</v>
+      </c>
+      <c r="C118" s="47" t="s">
+        <v>242</v>
+      </c>
+      <c r="D118" s="104" t="s">
+        <v>243</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F118" s="95" t="s">
+        <v>245</v>
+      </c>
+      <c r="G118" s="96" t="s">
+        <v>246</v>
+      </c>
+      <c r="H118" s="94" t="s">
+        <v>259</v>
+      </c>
+      <c r="I118" s="90" t="s">
+        <v>247</v>
+      </c>
+      <c r="J118" s="98" t="s">
+        <v>248</v>
+      </c>
+      <c r="K118" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="L118" s="100" t="s">
+        <v>250</v>
+      </c>
+      <c r="M118" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="N118" s="103" t="s">
+        <v>252</v>
+      </c>
+      <c r="O118" s="86" t="s">
+        <v>253</v>
+      </c>
+      <c r="P118" s="107" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q118" s="106" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" s="18" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C119" s="47"/>
+      <c r="D119" s="47"/>
+      <c r="E119" s="47"/>
+      <c r="G119" s="47"/>
+      <c r="J119" s="47"/>
+      <c r="K119" s="54"/>
+      <c r="M119" s="47"/>
+    </row>
+    <row r="120" spans="1:17" s="92" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
+      <c r="A120" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="B120" s="108" t="s">
+        <v>279</v>
+      </c>
+      <c r="C120" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="D120" s="104"/>
+      <c r="E120" s="109" t="s">
+        <v>281</v>
+      </c>
+      <c r="F120" s="110" t="s">
+        <v>282</v>
+      </c>
+      <c r="G120" s="111" t="s">
+        <v>283</v>
+      </c>
+      <c r="H120" s="112" t="s">
+        <v>284</v>
+      </c>
+      <c r="I120" s="113" t="s">
+        <v>328</v>
+      </c>
+      <c r="J120" s="114" t="s">
+        <v>285</v>
+      </c>
+      <c r="K120" s="101"/>
+      <c r="L120" s="100"/>
+      <c r="M120" s="115" t="s">
+        <v>286</v>
+      </c>
+      <c r="N120" s="116" t="s">
+        <v>287</v>
+      </c>
+      <c r="O120" s="87" t="s">
+        <v>288</v>
+      </c>
+      <c r="P120" s="117" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q120" s="106"/>
+    </row>
+    <row r="121" spans="1:17" s="18" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C121" s="47"/>
+      <c r="D121" s="47"/>
+      <c r="E121" s="47"/>
+      <c r="G121" s="47"/>
+      <c r="J121" s="47"/>
+      <c r="K121" s="54"/>
+      <c r="M121" s="47"/>
+    </row>
+    <row r="122" spans="1:17" s="91" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A122" s="27" t="s">
+        <v>272</v>
+      </c>
+      <c r="B122" s="93" t="s">
+        <v>308</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="D122" s="105" t="s">
+        <v>315</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="F122" s="95" t="s">
+        <v>318</v>
+      </c>
+      <c r="G122" s="97" t="s">
+        <v>271</v>
+      </c>
+      <c r="H122" s="94" t="s">
+        <v>295</v>
+      </c>
+      <c r="I122" s="90" t="s">
+        <v>329</v>
+      </c>
+      <c r="J122" s="99" t="s">
+        <v>296</v>
+      </c>
+      <c r="K122" s="102" t="s">
+        <v>324</v>
+      </c>
+      <c r="L122" s="100" t="s">
+        <v>327</v>
+      </c>
+      <c r="M122" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="N122" s="103" t="s">
+        <v>298</v>
+      </c>
+      <c r="O122" s="86"/>
+      <c r="P122" s="107"/>
+      <c r="Q122" s="106"/>
+    </row>
+    <row r="123" spans="1:17" s="91" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A123" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B123" s="93" t="s">
+        <v>309</v>
+      </c>
+      <c r="C123" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="D123" s="105" t="s">
+        <v>316</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="F123" s="95" t="s">
+        <v>319</v>
+      </c>
+      <c r="G123" s="97" t="s">
+        <v>294</v>
+      </c>
+      <c r="H123" s="94" t="s">
+        <v>293</v>
+      </c>
+      <c r="I123" s="90" t="s">
+        <v>293</v>
+      </c>
+      <c r="J123" s="99" t="s">
+        <v>299</v>
+      </c>
+      <c r="K123" s="102" t="s">
+        <v>325</v>
+      </c>
+      <c r="L123" s="100" t="s">
+        <v>325</v>
+      </c>
+      <c r="M123" s="10"/>
+      <c r="N123" s="103" t="s">
+        <v>260</v>
+      </c>
+      <c r="O123" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="P123" s="107"/>
+      <c r="Q123" s="106"/>
+    </row>
+    <row r="124" spans="1:17" s="91" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A124" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="B124" s="93"/>
+      <c r="C124" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="D124" s="105"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="95" t="s">
+        <v>255</v>
+      </c>
+      <c r="G124" s="97" t="s">
+        <v>274</v>
+      </c>
+      <c r="H124" s="94" t="s">
+        <v>322</v>
+      </c>
+      <c r="I124" s="90" t="s">
+        <v>322</v>
+      </c>
+      <c r="J124" s="99"/>
+      <c r="K124" s="120" t="s">
+        <v>323</v>
+      </c>
+      <c r="L124" s="121" t="s">
+        <v>323</v>
+      </c>
+      <c r="M124" s="10"/>
+      <c r="N124" s="116" t="s">
+        <v>302</v>
+      </c>
+      <c r="O124" s="87" t="s">
+        <v>302</v>
+      </c>
+      <c r="P124" s="107"/>
+      <c r="Q124" s="106"/>
+    </row>
+    <row r="125" spans="1:17" s="91" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A125" s="27" t="s">
+        <v>258</v>
+      </c>
+      <c r="B125" s="108" t="s">
+        <v>311</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="D125" s="105"/>
+      <c r="E125" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="F125" s="110" t="s">
+        <v>321</v>
+      </c>
+      <c r="G125" s="118" t="s">
+        <v>320</v>
+      </c>
+      <c r="H125" s="112" t="s">
+        <v>291</v>
+      </c>
+      <c r="I125" s="113" t="s">
+        <v>332</v>
+      </c>
+      <c r="J125" s="119" t="s">
+        <v>297</v>
+      </c>
+      <c r="K125" s="120" t="s">
+        <v>326</v>
+      </c>
+      <c r="L125" s="100"/>
+      <c r="M125" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="N125" s="116" t="s">
+        <v>300</v>
+      </c>
+      <c r="O125" s="86"/>
+      <c r="P125" s="107"/>
+      <c r="Q125" s="106"/>
+    </row>
+    <row r="126" spans="1:17" s="91" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="A126" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B126" s="108" t="s">
+        <v>310</v>
+      </c>
+      <c r="C126" s="20"/>
+      <c r="D126" s="105"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="95"/>
+      <c r="G126" s="118"/>
+      <c r="H126" s="112" t="s">
+        <v>292</v>
+      </c>
+      <c r="I126" s="90"/>
+      <c r="J126" s="99"/>
+      <c r="K126" s="102"/>
+      <c r="L126" s="100"/>
+      <c r="M126" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="N126" s="103"/>
+      <c r="O126" s="86"/>
+      <c r="P126" s="107"/>
+      <c r="Q126" s="106"/>
+    </row>
+    <row r="128" spans="1:17" s="18" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="136" spans="1:7" s="18" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="138" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A138" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" thickTop="1" thickBot="1">
+      <c r="B139" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="G139" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-      <c r="H62" s="1"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-      <c r="H63" s="1"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-      <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-      <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-      <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="C68" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="B69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="B70" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G70" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="B71" t="s">
-        <v>141</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G71" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="79.2">
-      <c r="B72" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="E72" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F72" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="G72" s="23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="67.8">
-      <c r="B73" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="E73" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="F73" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="G73" s="24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="19.2">
-      <c r="B74" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="E74" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F74" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="G74" s="32" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="26.4">
-      <c r="B75" t="s">
-        <v>69</v>
-      </c>
-      <c r="C75" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="D75" s="3"/>
-      <c r="E75" s="52" t="s">
-        <v>173</v>
-      </c>
-      <c r="F75" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="26.4">
-      <c r="B76" t="s">
-        <v>70</v>
-      </c>
-      <c r="C76" s="28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D76" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="E76" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F76" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="G76" s="10"/>
-    </row>
-    <row r="77" spans="1:8" ht="66">
-      <c r="B77" t="s">
-        <v>156</v>
-      </c>
-      <c r="C77" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="D77" s="30" t="s">
-        <v>176</v>
-      </c>
-      <c r="E77" s="41" t="s">
-        <v>168</v>
-      </c>
-      <c r="F77" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="G77" s="42" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="26.4">
-      <c r="B78" t="s">
-        <v>165</v>
-      </c>
-      <c r="C78" s="28" t="s">
-        <v>178</v>
-      </c>
-      <c r="D78" s="30" t="s">
-        <v>175</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F78" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="G78" s="42" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="12"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12"/>
-      <c r="D80" s="12"/>
-      <c r="E80" s="12"/>
-      <c r="F80" s="12"/>
-      <c r="G80" s="12"/>
-    </row>
-    <row r="81" spans="1:11">
-      <c r="A81" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C81" s="12"/>
-      <c r="D81" s="12"/>
-      <c r="E81" s="12"/>
-      <c r="F81" s="12"/>
-      <c r="G81" s="12"/>
-    </row>
-    <row r="82" spans="1:11">
-      <c r="A82" s="12"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D82" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E82" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="F82" s="12"/>
-      <c r="G82" s="12"/>
-    </row>
-    <row r="83" spans="1:11">
-      <c r="A83" s="12"/>
-      <c r="B83" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="C83" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="E83" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F83" s="12"/>
-      <c r="G83" s="12"/>
-    </row>
-    <row r="84" spans="1:11" ht="59.4">
-      <c r="A84" s="12"/>
-      <c r="B84" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C84" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D84" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="E84" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F84" s="12"/>
-      <c r="G84" s="12"/>
-    </row>
-    <row r="85" spans="1:11" ht="48">
-      <c r="A85" s="12"/>
-      <c r="B85" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" s="38" t="s">
-        <v>88</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="E85" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="F85" s="12"/>
-      <c r="G85" s="12"/>
-    </row>
-    <row r="86" spans="1:11" ht="28.8">
-      <c r="A86" s="12"/>
-      <c r="B86" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="C86" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="E86" s="39"/>
-      <c r="F86" s="12"/>
-      <c r="G86" s="12"/>
-    </row>
-    <row r="88" spans="1:11">
-      <c r="A88" s="40"/>
-      <c r="B88" s="40"/>
-      <c r="C88" s="40"/>
-      <c r="D88" s="40"/>
-      <c r="E88" s="40"/>
-      <c r="F88" s="40"/>
-      <c r="G88" s="40"/>
-      <c r="H88" s="40"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="40"/>
-    </row>
-    <row r="89" spans="1:11">
-      <c r="A89" t="s">
-        <v>10</v>
-      </c>
-      <c r="B89" s="44"/>
-      <c r="C89" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D89" s="47" t="s">
-        <v>17</v>
-      </c>
-      <c r="E89" s="47" t="s">
-        <v>18</v>
-      </c>
-      <c r="F89" s="47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G89" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="H89" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I89" s="44" t="s">
-        <v>21</v>
-      </c>
-      <c r="J89" s="44" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11">
-      <c r="B90" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C90" s="47" t="s">
-        <v>99</v>
-      </c>
-      <c r="D90" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="E90" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="F90" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="G90" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="H90" s="47" t="s">
-        <v>100</v>
-      </c>
-      <c r="I90" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="J90" s="47" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="79.2">
-      <c r="B91" s="48" t="s">
-        <v>121</v>
-      </c>
-      <c r="C91" s="49" t="s">
-        <v>122</v>
-      </c>
-      <c r="D91" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="E91" s="49" t="s">
-        <v>125</v>
-      </c>
-      <c r="F91" s="49" t="s">
-        <v>126</v>
-      </c>
-      <c r="G91" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="H91" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="I91" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="J91" s="49" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="52.8">
-      <c r="B92" s="50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C92" s="51" t="s">
-        <v>112</v>
-      </c>
-      <c r="D92" s="51" t="s">
-        <v>113</v>
-      </c>
-      <c r="E92" s="51" t="s">
-        <v>114</v>
-      </c>
-      <c r="F92" s="51" t="s">
-        <v>115</v>
-      </c>
-      <c r="G92" s="51" t="s">
-        <v>116</v>
-      </c>
-      <c r="H92" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="I92" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="J92" s="51" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="26.4">
-      <c r="B93" s="44" t="s">
-        <v>120</v>
-      </c>
-      <c r="C93" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="D93" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="E93" s="45" t="s">
-        <v>163</v>
-      </c>
-      <c r="F93" s="45" t="s">
-        <v>164</v>
-      </c>
-      <c r="G93" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="H93" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="I93" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="J93" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="39.6">
-      <c r="B94" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C94" s="46" t="s">
-        <v>142</v>
-      </c>
-      <c r="D94" s="45" t="s">
-        <v>144</v>
-      </c>
-      <c r="E94" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="F94" s="45" t="s">
-        <v>159</v>
-      </c>
-      <c r="G94" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="H94" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="I94" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="J94" s="44" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" s="43" customFormat="1"/>
-    <row r="100" spans="1:9">
-      <c r="C100" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
-      <c r="A101" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" t="s">
-        <v>26</v>
-      </c>
-      <c r="D101" t="s">
-        <v>27</v>
-      </c>
-      <c r="E101" t="s">
-        <v>109</v>
-      </c>
-      <c r="F101" t="s">
-        <v>28</v>
-      </c>
-      <c r="G101" t="s">
-        <v>108</v>
-      </c>
-      <c r="H101" t="s">
-        <v>107</v>
-      </c>
-      <c r="I101" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
-      <c r="B102" t="s">
-        <v>104</v>
-      </c>
-      <c r="E102" t="s">
-        <v>105</v>
-      </c>
-      <c r="F102" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H102" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="I102" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
-      <c r="B103" t="s">
-        <v>98</v>
-      </c>
-      <c r="F103" s="11"/>
-      <c r="H103" s="11">
-        <v>-40</v>
-      </c>
-      <c r="I103" s="11">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="39.6">
-      <c r="B104" t="s">
-        <v>23</v>
-      </c>
-      <c r="D104" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="G104" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
-      <c r="B105" t="s">
-        <v>136</v>
-      </c>
-      <c r="D105" s="11" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" ht="39.6">
-      <c r="B106" t="s">
-        <v>23</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
-      <c r="D107" s="11"/>
-    </row>
-    <row r="109" spans="1:9" s="43" customFormat="1"/>
-    <row r="111" spans="1:9">
-      <c r="A111" t="s">
-        <v>2</v>
-      </c>
-      <c r="C111" t="s">
-        <v>53</v>
-      </c>
-      <c r="D111" t="s">
-        <v>54</v>
-      </c>
-      <c r="E111" t="s">
-        <v>31</v>
-      </c>
-      <c r="F111" t="s">
-        <v>55</v>
-      </c>
-      <c r="G111" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
-      <c r="B112" t="s">
-        <v>136</v>
-      </c>
-      <c r="G112" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="116" s="43" customFormat="1"/>
+    </row>
+    <row r="141" spans="1:7" s="18" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="142" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A142" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A143" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A144" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1"/>
+    <row r="147" spans="1:1"/>
+    <row r="148" spans="1:1" ht="13.2"/>
+    <row r="149" spans="1:1" ht="13.2"/>
+    <row r="150" spans="1:1" ht="13.2"/>
+    <row r="151" spans="1:1" ht="13.2"/>
+    <row r="152" spans="1:1" ht="13.2"/>
+    <row r="153" spans="1:1" ht="13.2"/>
+    <row r="155" spans="1:1"/>
+    <row r="157" spans="1:1"/>
+    <row r="158" spans="1:1"/>
+    <row r="162"/>
+    <row r="163" ht="13.2"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project-A/風水評価の説明/風水関連.xlsx
+++ b/project-A/風水評価の説明/風水関連.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="389">
   <si>
     <t>五行</t>
     <rPh sb="0" eb="2">
@@ -36,13 +36,6 @@
     <t>陰陽</t>
     <rPh sb="0" eb="2">
       <t>インヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>運勢リスト</t>
-    <rPh sb="0" eb="2">
-      <t>ウンセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1626,86 +1619,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>人気運
-健康運</t>
-    <rPh sb="0" eb="2">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>健康運
-仕事運</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>シゴトウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事運
-金運</t>
-    <rPh sb="0" eb="3">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キンウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>特性</t>
     <rPh sb="0" eb="2">
       <t>トクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>良い花，香り，光で恋愛運アップ</t>
-    <rPh sb="0" eb="1">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒカリ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事運に影響を与える</t>
-    <rPh sb="0" eb="3">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>エイキョウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>アタ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1810,23 +1726,6 @@
   <si>
     <t>イライラ
 ダウン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事運2</t>
-    <rPh sb="0" eb="3">
-      <t>シゴトウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>恋愛運2</t>
-    <rPh sb="0" eb="2">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2546,20 +2445,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>陰気 + 40</t>
-    <rPh sb="0" eb="2">
-      <t>インキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>陰気 + 50</t>
-    <rPh sb="0" eb="2">
-      <t>インキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>水 + 100</t>
     <rPh sb="0" eb="1">
       <t>ミズ</t>
@@ -2591,19 +2476,6 @@
     <t>金 + 100</t>
     <rPh sb="0" eb="1">
       <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>実際に変化する運気</t>
-    <rPh sb="0" eb="2">
-      <t>ジッサイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ウンキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2734,175 +2606,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>全ての運</t>
-    <rPh sb="0" eb="1">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>変化量</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンカ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">金運 ，恋愛運 </t>
-    <rPh sb="0" eb="2">
-      <t>キンウン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">陽気が200以下, 陰気が20以上のとき
-(全ての気+土の気(max200))/20増加
-それ以外の場合
-(全ての気+土の気max200)/40減少
-</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>インキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ゾウカ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(全ての気 + 水の気(max200))/10増加</t>
-    <rPh sb="1" eb="2">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゾウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(全ての気 + 木の気(max200))/5増加</t>
-    <rPh sb="1" eb="2">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ゾウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(全ての気 + 火の気(max200))/10増加</t>
-    <rPh sb="1" eb="2">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゾウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(全ての気 + 土の気(max200))/10増加</t>
-    <rPh sb="1" eb="2">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゾウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>(全ての気 + 金の気(max200))/10増加</t>
-    <rPh sb="1" eb="2">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>カネ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ゾウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>仕事運 += 木の気の4/5
 健康運 += 木の気の1/5</t>
     <rPh sb="0" eb="2">
@@ -2932,107 +2635,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>人気運 += 火の気の3/5
-健康運 += 火の気の1/5
-仕事運 += 火の気の1/5</t>
-    <rPh sb="0" eb="2">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>健康運 += 土の気の1/5
-金運 += 土の気の1/5
-仕事運 += 土の気の1/5
-恋愛運 += 土の気の1/5
-人気運 += 土の気の1/5</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キンウン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>金運 += 金の気</t>
     <rPh sb="0" eb="2">
       <t>キンウン</t>
@@ -3041,32 +2643,6 @@
       <t>キン</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>恋愛運 += 水の気の4/5
-仕事運 += 水の気の1/5</t>
-    <rPh sb="0" eb="2">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
       <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -3093,35 +2669,6 @@
       <t>キ</t>
     </rPh>
     <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事運 -= 火の気-200
-恋愛運 -= 火の気-200</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
       <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -3907,30 +3454,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>南枕一番よくない
-健康運-20
-仕事運-10</t>
-    <rPh sb="0" eb="1">
-      <t>ミナミ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>マクラ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>イチバン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="16" eb="19">
-      <t>シゴトウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>北に水の気が高い家具を置くと恋愛↑
 恋愛運 += 5(1個につき)</t>
     <rPh sb="0" eb="1">
@@ -4027,55 +3550,6 @@
       <t>レンアイ</t>
     </rPh>
     <rPh sb="25" eb="26">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>部屋の南に鏡で人気運，健康運上がる
-人気運+10
-恋愛運+5
-健康運+5</t>
-    <rPh sb="0" eb="2">
-      <t>ヘヤ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ミナミ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カガミ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
       <t>ウン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -4195,20 +3669,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>オレンジで運勢アップ
-恋愛運 + 10 (1個につき)</t>
-    <rPh sb="11" eb="13">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>コ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4682,11 +4142,6 @@
     <rPh sb="7" eb="9">
       <t>カグ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>寝室は運気を吸収する場所
-全ての運気1,2倍(運勢ラスト)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -5765,6 +5220,1236 @@
     </rPh>
     <rPh sb="32" eb="33">
       <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>実際に変化する運気
+変化量</t>
+    <rPh sb="10" eb="12">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金運 ，恋愛運 
+(全ての気 + 水の気(max200))/10増加</t>
+    <rPh sb="10" eb="11">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">全ての運
+陽気が200以下, 陰気が20以上のとき
+(全ての気+土の気(max200))/20増加
+それ以外の場合
+(全ての気+土の気max200)/40減少
+</t>
+    <rPh sb="5" eb="7">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運2
+(全ての気 + 木の気(max200))/5増加</t>
+    <rPh sb="6" eb="7">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>恋愛運2
+(全ての気 + 木の気(max200))/5増加</t>
+    <rPh sb="6" eb="7">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金運
+恋愛運
+(全ての気 + 金の気(max200))/10増加</t>
+    <rPh sb="8" eb="9">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運
+金運
+(全ての気 + 金の気(max200))/10増加</t>
+    <rPh sb="8" eb="9">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>家具の特性による共通事項</t>
+    <rPh sb="0" eb="2">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キョウツウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特性</t>
+    <rPh sb="0" eb="2">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>花に関連一つにつき恋愛運アップ(他の運気も?)
+恋愛運 + 10</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>良い香り一つにつき恋愛運アップ(他の運気も?)
+恋愛運 + 10</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光一つにつき恋愛運アップ(他の運気も?)
+恋愛運 + 10</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北西の仕事部屋は仕事運アップ
+仕事運 + 30</t>
+    <rPh sb="0" eb="2">
+      <t>ホクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ベヤ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>シゴトウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高級家具0個で仕事運, 金運ダウン
+仕事運 -40
+金運 -20</t>
+    <rPh sb="5" eb="6">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キンウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>恋愛運 += 水の気の4/5
+仕事運 += 水の気の1/5
+(金運アップ？、不確か, 未実装)</t>
+    <rPh sb="0" eb="2">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>フタシ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リビングに家庭写真で家族運アップ(仕事運，人気運，健康運?)</t>
+    <rPh sb="5" eb="7">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シャシン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>健康運 += 土の気の1/5
+金運 += 土の気の1/5
+仕事運 += 土の気の1/5
+恋愛運 += 土の気の1/5
+人気運 += 土の気の1/5
+本来なら家庭運アップ</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>健康運
+仕事運
+(全ての気 + 土の気(max200))/10増加
+(家族運)</t>
+    <rPh sb="9" eb="10">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カゾク</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>家庭運に関連あり
+健康運
+人気運
+仕事運が1.1倍</t>
+    <rPh sb="0" eb="2">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運に関係あり
+仕事運が1.3倍</t>
+    <rPh sb="0" eb="3">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰気強い
+陰気 + 50</t>
+    <rPh sb="0" eb="2">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>インキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰気強い
+陰気 + 40</t>
+    <rPh sb="0" eb="2">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>インキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部屋の中の家具について</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>寝室は運気を吸収する場所
+健康運1.3倍
+その他の運気1,2倍(運勢ラスト)</t>
+    <rPh sb="13" eb="15">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人気運 += 火の気の3/5
+健康運 += 火の気の1/5
+仕事運 += 火の気の1/5
+(人気運のほか，美容運・・・？)</t>
+    <rPh sb="0" eb="2">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ビヨウ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人気運
+健康運
+美容運も?
+(全ての気 + 火の気(max200))/10増加</t>
+    <rPh sb="9" eb="11">
+      <t>ビヨウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>部屋の南に鏡で人気運，健康運, 恋愛運上がる
+人気運+10
+恋愛運+5
+健康運+5</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カガミ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運 -= (火の気-200)
+恋愛運 -= (火の気-200)
+イライラ？</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>南枕一番よくない
+健康運-20
+仕事運-10
+イライラ？</t>
+    <rPh sb="0" eb="1">
+      <t>ミナミ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>マクラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>シゴトウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジで運勢アップ
+恋愛運 + 10 (1個につき)
+人気運 + 5</t>
+    <rPh sb="11" eb="13">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風，音で運勢アップ
+恋愛運 + 5 (一個につき)
+人気運 + 5</t>
+    <rPh sb="2" eb="3">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>家具ごとの特性(材質)</t>
+    <rPh sb="0" eb="2">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ザイシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>家具の特性(模様)</t>
+    <rPh sb="0" eb="2">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>家具の特性(形状)</t>
+    <rPh sb="0" eb="2">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイジョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>家具の特性(その他)</t>
+    <rPh sb="0" eb="2">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木製</t>
+    <rPh sb="0" eb="2">
+      <t>モクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天然素材</t>
+    <rPh sb="0" eb="2">
+      <t>テンネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>化学素材</t>
+    <rPh sb="0" eb="2">
+      <t>カガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プラスチック素材</t>
+    <rPh sb="6" eb="8">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陶磁器</t>
+    <rPh sb="0" eb="3">
+      <t>トウジキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大理石</t>
+    <rPh sb="0" eb="3">
+      <t>ダイリセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金属</t>
+    <rPh sb="0" eb="2">
+      <t>キンゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鉱物</t>
+    <rPh sb="0" eb="2">
+      <t>コウブツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガラス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>その他</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>五行の方向性</t>
+    <rPh sb="0" eb="2">
+      <t>ゴギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ホウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰陽の方向性</t>
+    <rPh sb="0" eb="2">
+      <t>インヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ホウコウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>他特性との兼ね合い</t>
+    <rPh sb="0" eb="1">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>固有特性</t>
+    <rPh sb="0" eb="2">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ストライプ柄</t>
+    <rPh sb="5" eb="6">
+      <t>ガラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リーフパターン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>花柄</t>
+    <rPh sb="0" eb="2">
+      <t>ハナガラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>星柄</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダイヤ柄</t>
+    <rPh sb="3" eb="4">
+      <t>ガラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アニマル柄</t>
+    <rPh sb="4" eb="5">
+      <t>ガラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジグザグ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボーダー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェック(市松)</t>
+    <rPh sb="5" eb="7">
+      <t>イチマツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ドット（水玉）</t>
+    <rPh sb="4" eb="6">
+      <t>ミズタマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アーチ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フルーツ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>光沢</t>
+    <rPh sb="0" eb="2">
+      <t>コウタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウェーブストライプ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>不規則パターン</t>
+    <rPh sb="0" eb="3">
+      <t>フキソク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>雲柄</t>
+    <rPh sb="0" eb="1">
+      <t>クモ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ガラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背が高い</t>
+    <rPh sb="0" eb="1">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背が低い</t>
+    <rPh sb="0" eb="1">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>縦長</t>
+    <rPh sb="0" eb="2">
+      <t>タテナガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>横長</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコナガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>正方形</t>
+    <rPh sb="0" eb="3">
+      <t>セイホウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>長方形</t>
+    <rPh sb="0" eb="3">
+      <t>チョウホウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円形</t>
+    <rPh sb="0" eb="2">
+      <t>エンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>楕円形</t>
+    <rPh sb="0" eb="3">
+      <t>ダエンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>尖っている</t>
+    <rPh sb="0" eb="1">
+      <t>トガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高級そう</t>
+    <rPh sb="0" eb="2">
+      <t>コウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>音が出る</t>
+    <rPh sb="0" eb="1">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>いい匂い</t>
+    <rPh sb="2" eb="3">
+      <t>ニオ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>発光</t>
+    <rPh sb="0" eb="2">
+      <t>ハッコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>やわらかい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>温かみ</t>
+    <rPh sb="0" eb="1">
+      <t>アタタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冷たさ</t>
+    <rPh sb="0" eb="1">
+      <t>ツメ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>花関連</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>カンレン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6113,7 +6798,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6479,6 +7164,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6774,10 +7465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q163"/>
+  <dimension ref="A1:R197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G106" workbookViewId="0">
-      <selection activeCell="L125" sqref="L125"/>
+    <sheetView tabSelected="1" topLeftCell="D127" workbookViewId="0">
+      <selection activeCell="G157" sqref="G157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" thickTop="1" thickBottom="1"/>
@@ -6788,7 +7479,7 @@
     <col min="4" max="4" width="37.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="32.109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="33.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="36.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="51.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="33.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="37" style="1" customWidth="1"/>
     <col min="10" max="10" width="33.88671875" style="1" customWidth="1"/>
@@ -6807,65 +7498,65 @@
   <sheetData>
     <row r="1" spans="1:8" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:8" thickTop="1" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8" thickTop="1" thickBot="1">
       <c r="B4" s="1" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:8" thickTop="1" thickBot="1">
       <c r="B5" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:8" thickTop="1" thickBot="1">
       <c r="B6" s="1" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:8" thickTop="1" thickBot="1">
       <c r="B7" s="1" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:8" thickTop="1" thickBot="1">
       <c r="B8" s="1" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:8" thickTop="1" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:8" thickTop="1" thickBot="1">
       <c r="B11" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:8" thickTop="1" thickBot="1">
       <c r="B12" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:8" thickTop="1" thickBot="1">
       <c r="B13" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:8" thickTop="1" thickBot="1">
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:8" thickTop="1" thickBot="1">
@@ -6873,10 +7564,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -6888,7 +7579,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -6909,10 +7600,10 @@
     <row r="19" spans="1:8" thickTop="1" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -6924,7 +7615,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -6945,7 +7636,7 @@
     <row r="22" spans="1:8" thickTop="1" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -6967,10 +7658,10 @@
     <row r="24" spans="1:8" thickTop="1" thickBot="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -6991,10 +7682,10 @@
     <row r="26" spans="1:8" thickTop="1" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -7004,100 +7695,100 @@
     </row>
     <row r="27" spans="1:8" thickTop="1" thickBot="1">
       <c r="C27" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8" thickTop="1" thickBot="1">
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>9</v>
-      </c>
       <c r="F28" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:8" thickTop="1" thickBot="1">
       <c r="B29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G29" s="11" t="s">
         <v>7</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:8" s="12" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="A30" s="12" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="F30" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="12" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="A31" s="12" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G31" s="14"/>
     </row>
@@ -7110,62 +7801,62 @@
     </row>
     <row r="33" spans="1:7" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="B33" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="93.6" thickTop="1" thickBot="1">
+      <c r="B34" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="54" thickTop="1" thickBot="1">
+      <c r="B35" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="F35" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="G35" s="26" t="s">
         <v>149</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="67.2" thickTop="1" thickBot="1">
-      <c r="B34" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>164</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>165</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>166</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B35" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="18" customFormat="1" thickTop="1" thickBot="1">
@@ -7177,7 +7868,7 @@
     </row>
     <row r="37" spans="1:7" s="27" customFormat="1" thickTop="1" thickBot="1">
       <c r="C37" s="28" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D37" s="29"/>
       <c r="E37" s="30"/>
@@ -7186,62 +7877,62 @@
     </row>
     <row r="38" spans="1:7" ht="80.400000000000006" thickTop="1" thickBot="1">
       <c r="B38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C38" s="32" t="s">
+      <c r="G38" s="35" t="s">
         <v>39</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="25" t="s">
-        <v>32</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="69" thickTop="1" thickBot="1">
       <c r="B39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C39" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="36" t="s">
+      <c r="D39" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E39" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>35</v>
-      </c>
       <c r="G39" s="40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20.399999999999999" thickTop="1" thickBot="1">
       <c r="B40" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D40" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="F40" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="F40" s="44" t="s">
+      <c r="G40" s="45" t="s">
         <v>48</v>
-      </c>
-      <c r="G40" s="45" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="42" spans="1:7" thickTop="1" thickBot="1">
@@ -7258,7 +7949,7 @@
         <v>1</v>
       </c>
       <c r="B43" s="46" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C43" s="46"/>
       <c r="D43" s="46"/>
@@ -7270,32 +7961,32 @@
       <c r="A44" s="46"/>
       <c r="B44" s="46"/>
       <c r="C44" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="D44" s="48" t="s">
-        <v>56</v>
-      </c>
       <c r="E44" s="49" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F44" s="46"/>
       <c r="G44" s="46"/>
     </row>
     <row r="45" spans="1:7" thickTop="1" thickBot="1">
       <c r="A45" s="46" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="B45" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D45" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="C45" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>58</v>
-      </c>
       <c r="E45" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F45" s="46"/>
       <c r="G45" s="46"/>
@@ -7312,13 +8003,13 @@
     <row r="47" spans="1:7" ht="30" thickTop="1" thickBot="1">
       <c r="A47" s="46"/>
       <c r="B47" s="46" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C47" s="51" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D47" s="52" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="E47" s="53"/>
       <c r="F47" s="46"/>
@@ -7328,10 +8019,10 @@
       <c r="A48" s="46"/>
       <c r="B48" s="46"/>
       <c r="C48" s="51" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E48" s="53"/>
       <c r="F48" s="46"/>
@@ -7350,7 +8041,7 @@
       <c r="A50" s="46"/>
       <c r="B50" s="46"/>
       <c r="C50" s="28" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D50" s="57"/>
       <c r="E50" s="58"/>
@@ -7360,16 +8051,16 @@
     <row r="51" spans="1:13" ht="60.6" thickTop="1" thickBot="1">
       <c r="A51" s="46"/>
       <c r="B51" s="46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C51" s="59" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D51" s="60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E51" s="49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F51" s="46"/>
       <c r="G51" s="46"/>
@@ -7377,16 +8068,16 @@
     <row r="52" spans="1:13" ht="49.2" thickTop="1" thickBot="1">
       <c r="A52" s="46"/>
       <c r="B52" s="46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C52" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="E52" s="53" t="s">
         <v>64</v>
-      </c>
-      <c r="E52" s="53" t="s">
-        <v>65</v>
       </c>
       <c r="F52" s="46"/>
       <c r="G52" s="46"/>
@@ -7394,246 +8085,246 @@
     <row r="54" spans="1:13" s="18" customFormat="1" thickTop="1" thickBot="1"/>
     <row r="56" spans="1:13" thickTop="1" thickBot="1">
       <c r="A56" s="1" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="57" spans="1:13" s="61" customFormat="1" thickTop="1" thickBot="1">
       <c r="B57" s="61" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C57" s="61" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D57" s="61" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="E57" s="61" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="F57" s="61" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G57" s="61" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="H57" s="61" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="I57" s="61" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="J57" s="61" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="K57" s="61" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="L57" s="61" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="M57" s="61" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:13" s="62" customFormat="1" thickTop="1" thickBot="1">
       <c r="A58" s="62" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="F58" s="62" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="I58" s="62" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="L58" s="62" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
     </row>
     <row r="59" spans="1:13" s="2" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="A59" s="2" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="I59" s="63" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:13" s="64" customFormat="1" thickTop="1" thickBot="1">
       <c r="A60" s="64" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="I60" s="65" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="J60" s="64" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="K60" s="64" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
     </row>
     <row r="61" spans="1:13" s="66" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="A61" s="66" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="I61" s="67" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:13" s="68" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="A62" s="68" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="B62" s="68" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="I62" s="69" t="s">
-        <v>231</v>
+        <v>205</v>
       </c>
       <c r="L62" s="68" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="M62" s="69" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
     </row>
     <row r="63" spans="1:13" s="70" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="A63" s="70" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B63" s="71" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="D63" s="71" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="G63" s="71" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="H63" s="71" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
       <c r="I63" s="71" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="M63" s="71" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
     </row>
     <row r="64" spans="1:13" s="70" customFormat="1" ht="54" thickTop="1" thickBot="1">
       <c r="A64" s="70" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B64" s="71" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="G64" s="71" t="s">
-        <v>227</v>
+        <v>332</v>
       </c>
       <c r="I64" s="71"/>
     </row>
     <row r="65" spans="1:11" s="70" customFormat="1" ht="54" thickTop="1" thickBot="1">
       <c r="A65" s="70" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B65" s="71" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="G65" s="71" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="I65" s="71"/>
     </row>
-    <row r="66" spans="1:11" s="70" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+    <row r="66" spans="1:11" s="70" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
       <c r="A66" s="70" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B66" s="71" t="s">
-        <v>220</v>
+        <v>334</v>
       </c>
       <c r="G66" s="71"/>
       <c r="I66" s="71"/>
     </row>
     <row r="67" spans="1:11" s="70" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="A67" s="70" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="G67" s="71" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
     </row>
     <row r="68" spans="1:11" s="70" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="A68" s="70" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B68" s="71" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="G68" s="71" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="69" spans="1:11" s="70" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="A69" s="70" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B69" s="71" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="1:11" s="70" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="A70" s="70" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B70" s="71" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
     </row>
     <row r="71" spans="1:11" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A71" s="70" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="B71" s="71"/>
     </row>
     <row r="72" spans="1:11" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A72" s="70" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:11" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A73" s="70" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:11" s="70" customFormat="1" thickTop="1" thickBot="1">
       <c r="A74" s="70" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="27" customFormat="1" thickTop="1" thickBot="1">
       <c r="A76" s="27" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:11" thickTop="1" thickBot="1">
       <c r="B77" s="1" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="27.6" thickTop="1" thickBot="1">
       <c r="B78" s="72" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C78" s="72" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="80" spans="1:11" thickTop="1" thickBot="1">
@@ -7651,120 +8342,120 @@
     </row>
     <row r="81" spans="1:10" thickTop="1" thickBot="1">
       <c r="A81" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B81" s="74"/>
       <c r="C81" s="75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D81" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="75" t="s">
+      <c r="F81" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F81" s="75" t="s">
+      <c r="G81" s="75" t="s">
+        <v>10</v>
+      </c>
+      <c r="H81" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="G81" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="H81" s="74" t="s">
+      <c r="I81" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="I81" s="74" t="s">
-        <v>18</v>
-      </c>
       <c r="J81" s="74" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:10" thickTop="1" thickBot="1">
       <c r="B82" s="74" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C82" s="75" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D82" s="75" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E82" s="75" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="F82" s="75" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G82" s="75" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H82" s="75" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="I82" s="75" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="J82" s="75" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="83" spans="1:10" s="54" customFormat="1" thickTop="1" thickBot="1"/>
     <row r="84" spans="1:10" ht="80.400000000000006" thickTop="1" thickBot="1">
       <c r="B84" s="76" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="C84" s="77" t="s">
+      <c r="D84" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="D84" s="77" t="s">
+      <c r="E84" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="E84" s="77" t="s">
+      <c r="F84" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="F84" s="77" t="s">
+      <c r="G84" s="77" t="s">
         <v>87</v>
       </c>
-      <c r="G84" s="77" t="s">
+      <c r="H84" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="H84" s="77" t="s">
+      <c r="I84" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="I84" s="77" t="s">
+      <c r="J84" s="77" t="s">
         <v>90</v>
-      </c>
-      <c r="J84" s="77" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="54" thickTop="1" thickBot="1">
       <c r="B85" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="C85" s="79" t="s">
+      <c r="D85" s="79" t="s">
         <v>75</v>
       </c>
-      <c r="D85" s="79" t="s">
+      <c r="E85" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="E85" s="79" t="s">
+      <c r="F85" s="79" t="s">
         <v>77</v>
       </c>
-      <c r="F85" s="79" t="s">
+      <c r="G85" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="G85" s="79" t="s">
+      <c r="H85" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="H85" s="79" t="s">
+      <c r="I85" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="I85" s="79" t="s">
+      <c r="J85" s="79" t="s">
         <v>81</v>
-      </c>
-      <c r="J85" s="79" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="18" customFormat="1" thickTop="1" thickBot="1">
@@ -7778,125 +8469,111 @@
       <c r="I86" s="81"/>
       <c r="J86" s="81"/>
     </row>
-    <row r="87" spans="1:10" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B87" s="74" t="s">
-        <v>146</v>
-      </c>
-      <c r="C87" s="82" t="s">
-        <v>156</v>
-      </c>
-      <c r="D87" s="74" t="s">
-        <v>154</v>
-      </c>
-      <c r="E87" s="82" t="s">
-        <v>104</v>
-      </c>
-      <c r="F87" s="82" t="s">
-        <v>105</v>
-      </c>
-      <c r="G87" s="82" t="s">
-        <v>92</v>
-      </c>
-      <c r="H87" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="I87" s="82" t="s">
-        <v>81</v>
-      </c>
-      <c r="J87" s="82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" ht="80.400000000000006" thickTop="1" thickBot="1">
-      <c r="B88" s="74" t="s">
-        <v>155</v>
-      </c>
-      <c r="C88" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="D88" s="82" t="s">
-        <v>157</v>
-      </c>
-      <c r="E88" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="F88" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="G88" s="83" t="s">
+    <row r="87" spans="1:10" ht="93.6" thickTop="1" thickBot="1">
+      <c r="B87" s="82" t="s">
+        <v>306</v>
+      </c>
+      <c r="C87" s="83" t="s">
+        <v>307</v>
+      </c>
+      <c r="D87" s="82" t="s">
+        <v>308</v>
+      </c>
+      <c r="E87" s="83" t="s">
+        <v>309</v>
+      </c>
+      <c r="F87" s="83" t="s">
+        <v>310</v>
+      </c>
+      <c r="G87" s="83" t="s">
+        <v>331</v>
+      </c>
+      <c r="H87" s="83" t="s">
+        <v>323</v>
+      </c>
+      <c r="I87" s="83" t="s">
+        <v>311</v>
+      </c>
+      <c r="J87" s="83" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" s="18" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C88" s="84"/>
+      <c r="D88" s="21"/>
+      <c r="E88" s="84"/>
+      <c r="F88" s="84"/>
+      <c r="G88" s="84"/>
+      <c r="H88" s="84"/>
+      <c r="I88" s="84"/>
+      <c r="J88" s="84"/>
+    </row>
+    <row r="89" spans="1:10" ht="54" thickTop="1" thickBot="1">
+      <c r="B89" s="74" t="s">
         <v>160</v>
       </c>
-      <c r="H88" s="83" t="s">
-        <v>161</v>
-      </c>
-      <c r="I88" s="83" t="s">
-        <v>162</v>
-      </c>
-      <c r="J88" s="83" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" s="18" customFormat="1" thickTop="1" thickBot="1">
-      <c r="C89" s="84"/>
-      <c r="D89" s="21"/>
-      <c r="E89" s="84"/>
-      <c r="F89" s="84"/>
-      <c r="G89" s="84"/>
-      <c r="H89" s="84"/>
-      <c r="I89" s="84"/>
-      <c r="J89" s="84"/>
-    </row>
-    <row r="90" spans="1:10" ht="54" thickTop="1" thickBot="1">
+      <c r="C89" s="82" t="s">
+        <v>183</v>
+      </c>
+      <c r="D89" s="74" t="s">
+        <v>185</v>
+      </c>
+      <c r="E89" s="82" t="s">
+        <v>186</v>
+      </c>
+      <c r="F89" s="82" t="s">
+        <v>336</v>
+      </c>
+      <c r="G89" s="82"/>
+      <c r="H89" s="82" t="s">
+        <v>187</v>
+      </c>
+      <c r="I89" s="82" t="s">
+        <v>277</v>
+      </c>
+      <c r="J89" s="82" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="B90" s="74" t="s">
-        <v>184</v>
-      </c>
-      <c r="C90" s="82" t="s">
-        <v>207</v>
-      </c>
-      <c r="D90" s="74" t="s">
-        <v>209</v>
-      </c>
-      <c r="E90" s="82" t="s">
-        <v>210</v>
-      </c>
-      <c r="F90" s="82" t="s">
-        <v>210</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="C90" s="82"/>
+      <c r="D90" s="74"/>
+      <c r="E90" s="82"/>
+      <c r="F90" s="82"/>
       <c r="G90" s="82"/>
-      <c r="H90" s="82" t="s">
-        <v>211</v>
-      </c>
-      <c r="I90" s="82" t="s">
-        <v>305</v>
-      </c>
+      <c r="H90" s="82"/>
+      <c r="I90" s="82"/>
       <c r="J90" s="82" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="B91" s="74" t="s">
+        <v>160</v>
+      </c>
+      <c r="C91" s="82" t="s">
         <v>184</v>
-      </c>
-      <c r="C91" s="82" t="s">
-        <v>208</v>
       </c>
       <c r="D91" s="74"/>
       <c r="E91" s="82"/>
       <c r="F91" s="82" t="s">
-        <v>233</v>
+        <v>335</v>
       </c>
       <c r="G91" s="82"/>
       <c r="H91" s="82"/>
       <c r="I91" s="82" t="s">
-        <v>304</v>
+        <v>276</v>
       </c>
       <c r="J91" s="82" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="B92" s="74" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C92" s="82"/>
       <c r="D92" s="74"/>
@@ -7906,23 +8583,23 @@
       <c r="H92" s="82"/>
       <c r="I92" s="82"/>
       <c r="J92" s="82" t="s">
-        <v>317</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="27.6" thickTop="1" thickBot="1">
       <c r="B93" s="74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C93" s="85" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D93" s="82"/>
       <c r="E93" s="74"/>
       <c r="F93" s="82" t="s">
-        <v>232</v>
+        <v>206</v>
       </c>
       <c r="G93" s="82" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H93" s="82"/>
       <c r="I93" s="82"/>
@@ -7964,144 +8641,150 @@
     <row r="101" spans="1:9" s="18" customFormat="1" thickTop="1" thickBot="1"/>
     <row r="102" spans="1:9" thickTop="1" thickBot="1">
       <c r="C102" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="88" customFormat="1" thickTop="1" thickBot="1">
       <c r="A103" s="88" t="s">
+        <v>20</v>
+      </c>
+      <c r="C103" s="88" t="s">
         <v>21</v>
       </c>
-      <c r="C103" s="88" t="s">
+      <c r="D103" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="D103" s="88" t="s">
+      <c r="E103" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="F103" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="E103" s="88" t="s">
-        <v>73</v>
-      </c>
-      <c r="F103" s="88" t="s">
+      <c r="G103" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="H103" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="I103" s="88" t="s">
         <v>24</v>
-      </c>
-      <c r="G103" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="H103" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="I103" s="88" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="88" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="B104" s="88" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E104" s="88" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F104" s="89" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="H104" s="89" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="I104" s="89" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="88" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="B105" s="88" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C105" s="89" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="F105" s="89"/>
       <c r="H105" s="89" t="s">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="I105" s="89" t="s">
-        <v>140</v>
+        <v>326</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="88" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="B106" s="88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C106" s="89" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D106" s="89" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E106" s="89" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="F106" s="89" t="s">
-        <v>192</v>
-      </c>
-      <c r="G106" s="88" t="s">
-        <v>97</v>
+        <v>168</v>
+      </c>
+      <c r="G106" s="89" t="s">
+        <v>318</v>
       </c>
       <c r="H106" s="89" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="88" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="88" customFormat="1" ht="54" thickTop="1" thickBot="1">
       <c r="B107" s="88" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D107" s="89" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="E107" s="89" t="s">
+        <v>324</v>
       </c>
       <c r="F107" s="89" t="s">
-        <v>195</v>
+        <v>171</v>
+      </c>
+      <c r="G107" s="89" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="88" customFormat="1" ht="54" thickTop="1" thickBot="1">
       <c r="B108" s="88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D108" s="89" t="s">
-        <v>228</v>
+        <v>202</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="88" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="B109" s="88" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D109" s="89" t="s">
-        <v>221</v>
+        <v>196</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="88" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="B110" s="88" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D110" s="89" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="88" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="B111" s="88" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D111" s="89" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="88" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="B112" s="88" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D112" s="89" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" s="88" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" s="88" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="D113" s="89" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
     </row>
     <row r="114" spans="1:17" thickTop="1" thickBot="1">
@@ -8110,60 +8793,60 @@
     <row r="116" spans="1:17" s="18" customFormat="1" thickTop="1" thickBot="1"/>
     <row r="117" spans="1:17" thickTop="1" thickBot="1">
       <c r="A117" s="1" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="92" customFormat="1" thickTop="1" thickBot="1">
       <c r="A118" s="27" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="B118" s="93" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="C118" s="47" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="D118" s="104" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="F118" s="95" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="G118" s="96" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="H118" s="94" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="I118" s="90" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="J118" s="98" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="K118" s="101" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="L118" s="100" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="M118" s="5" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="N118" s="103" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="O118" s="86" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="P118" s="107" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="Q118" s="106" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
     </row>
     <row r="119" spans="1:17" s="18" customFormat="1" thickTop="1" thickBot="1">
@@ -8177,46 +8860,46 @@
     </row>
     <row r="120" spans="1:17" s="92" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
       <c r="A120" s="27" t="s">
-        <v>277</v>
+        <v>249</v>
       </c>
       <c r="B120" s="108" t="s">
-        <v>279</v>
+        <v>251</v>
       </c>
       <c r="C120" s="50" t="s">
-        <v>280</v>
+        <v>252</v>
       </c>
       <c r="D120" s="104"/>
       <c r="E120" s="109" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="F120" s="110" t="s">
-        <v>282</v>
+        <v>254</v>
       </c>
       <c r="G120" s="111" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="H120" s="112" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="I120" s="113" t="s">
-        <v>328</v>
+        <v>300</v>
       </c>
       <c r="J120" s="114" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="K120" s="101"/>
       <c r="L120" s="100"/>
       <c r="M120" s="115" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="N120" s="116" t="s">
-        <v>287</v>
+        <v>259</v>
       </c>
       <c r="O120" s="87" t="s">
-        <v>288</v>
+        <v>260</v>
       </c>
       <c r="P120" s="117" t="s">
-        <v>289</v>
+        <v>261</v>
       </c>
       <c r="Q120" s="106"/>
     </row>
@@ -8231,46 +8914,46 @@
     </row>
     <row r="122" spans="1:17" s="91" customFormat="1" thickTop="1" thickBot="1">
       <c r="A122" s="27" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="B122" s="93" t="s">
-        <v>308</v>
+        <v>280</v>
       </c>
       <c r="C122" s="20" t="s">
-        <v>312</v>
+        <v>284</v>
       </c>
       <c r="D122" s="105" t="s">
-        <v>315</v>
+        <v>287</v>
       </c>
       <c r="E122" s="9" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="F122" s="95" t="s">
-        <v>318</v>
+        <v>290</v>
       </c>
       <c r="G122" s="97" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="H122" s="94" t="s">
-        <v>295</v>
+        <v>267</v>
       </c>
       <c r="I122" s="90" t="s">
-        <v>329</v>
+        <v>301</v>
       </c>
       <c r="J122" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="K122" s="102" t="s">
         <v>296</v>
       </c>
-      <c r="K122" s="102" t="s">
-        <v>324</v>
-      </c>
       <c r="L122" s="100" t="s">
-        <v>327</v>
+        <v>299</v>
       </c>
       <c r="M122" s="10" t="s">
-        <v>330</v>
+        <v>302</v>
       </c>
       <c r="N122" s="103" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="O122" s="86"/>
       <c r="P122" s="107"/>
@@ -8278,128 +8961,128 @@
     </row>
     <row r="123" spans="1:17" s="91" customFormat="1" thickTop="1" thickBot="1">
       <c r="A123" s="27" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="B123" s="93" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="C123" s="20" t="s">
-        <v>313</v>
+        <v>285</v>
       </c>
       <c r="D123" s="105" t="s">
-        <v>316</v>
+        <v>288</v>
       </c>
       <c r="E123" s="9" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="F123" s="95" t="s">
-        <v>319</v>
+        <v>291</v>
       </c>
       <c r="G123" s="97" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="H123" s="94" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="I123" s="90" t="s">
-        <v>293</v>
+        <v>265</v>
       </c>
       <c r="J123" s="99" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="K123" s="102" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="L123" s="100" t="s">
-        <v>325</v>
+        <v>297</v>
       </c>
       <c r="M123" s="10"/>
       <c r="N123" s="103" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="O123" s="86" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="P123" s="107"/>
       <c r="Q123" s="106"/>
     </row>
     <row r="124" spans="1:17" s="91" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="A124" s="27" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="B124" s="93"/>
       <c r="C124" s="20" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="D124" s="105"/>
       <c r="E124" s="9"/>
       <c r="F124" s="95" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="G124" s="97" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="H124" s="94" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="I124" s="90" t="s">
-        <v>322</v>
+        <v>294</v>
       </c>
       <c r="J124" s="99"/>
       <c r="K124" s="120" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="L124" s="121" t="s">
-        <v>323</v>
+        <v>295</v>
       </c>
       <c r="M124" s="10"/>
       <c r="N124" s="116" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="O124" s="87" t="s">
-        <v>302</v>
+        <v>274</v>
       </c>
       <c r="P124" s="107"/>
       <c r="Q124" s="106"/>
     </row>
     <row r="125" spans="1:17" s="91" customFormat="1" ht="54" thickTop="1" thickBot="1">
       <c r="A125" s="27" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="B125" s="108" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="C125" s="19" t="s">
-        <v>314</v>
+        <v>286</v>
       </c>
       <c r="D125" s="105"/>
       <c r="E125" s="22" t="s">
-        <v>290</v>
+        <v>262</v>
       </c>
       <c r="F125" s="110" t="s">
-        <v>321</v>
+        <v>293</v>
       </c>
       <c r="G125" s="118" t="s">
-        <v>320</v>
+        <v>292</v>
       </c>
       <c r="H125" s="112" t="s">
-        <v>291</v>
+        <v>263</v>
       </c>
       <c r="I125" s="113" t="s">
-        <v>332</v>
+        <v>304</v>
       </c>
       <c r="J125" s="119" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="K125" s="120" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="L125" s="100"/>
       <c r="M125" s="24" t="s">
-        <v>331</v>
+        <v>303</v>
       </c>
       <c r="N125" s="116" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="O125" s="86"/>
       <c r="P125" s="107"/>
@@ -8407,10 +9090,10 @@
     </row>
     <row r="126" spans="1:17" s="91" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="A126" s="27" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="B126" s="108" t="s">
-        <v>310</v>
+        <v>282</v>
       </c>
       <c r="C126" s="20"/>
       <c r="D126" s="105"/>
@@ -8418,14 +9101,14 @@
       <c r="F126" s="95"/>
       <c r="G126" s="118"/>
       <c r="H126" s="112" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="I126" s="90"/>
       <c r="J126" s="99"/>
       <c r="K126" s="102"/>
       <c r="L126" s="100"/>
       <c r="M126" s="24" t="s">
-        <v>333</v>
+        <v>305</v>
       </c>
       <c r="N126" s="103"/>
       <c r="O126" s="86"/>
@@ -8433,69 +9116,376 @@
       <c r="Q126" s="106"/>
     </row>
     <row r="128" spans="1:17" s="18" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="136" spans="1:7" s="18" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="138" spans="1:7" thickTop="1" thickBot="1">
+    <row r="130" spans="1:18" thickTop="1" thickBot="1">
+      <c r="A130" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="G130" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="H130" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="I130" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="K130" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="L130" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18" thickTop="1" thickBot="1">
+      <c r="A131" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18" thickTop="1" thickBot="1">
+      <c r="A132" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18" thickTop="1" thickBot="1">
+      <c r="A133" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" thickTop="1" thickBot="1">
+      <c r="A134" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" s="18" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="138" spans="1:18" thickTop="1" thickBot="1">
       <c r="A138" s="1" t="s">
-        <v>2</v>
+        <v>338</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>356</v>
       </c>
       <c r="C138" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="H138" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I138" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="K138" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="L138" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="M138" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="N138" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="O138" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="P138" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q138" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="R138" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" thickTop="1" thickBot="1">
+      <c r="A139" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18" thickTop="1" thickBot="1">
+      <c r="A140" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="141" spans="1:18" thickTop="1" thickBot="1">
+      <c r="A141" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" thickTop="1" thickBot="1">
+      <c r="A142" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" s="18" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="146" spans="1:11" thickTop="1" thickBot="1">
+      <c r="A146" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="I146" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" thickTop="1" thickBot="1">
+      <c r="A147" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" thickTop="1" thickBot="1">
+      <c r="A148" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" thickTop="1" thickBot="1">
+      <c r="A149" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" thickTop="1" thickBot="1">
+      <c r="A150" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" s="18" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="154" spans="1:11" thickTop="1" thickBot="1">
+      <c r="A154" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="F154" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="H154" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="I154" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" thickTop="1" thickBot="1">
+      <c r="A155" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" thickTop="1" thickBot="1">
+      <c r="A156" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" thickTop="1" thickBot="1">
+      <c r="A157" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" thickTop="1" thickBot="1">
+      <c r="A158" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" s="18" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="163" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A163" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" thickTop="1" thickBot="1">
+      <c r="B164" s="86"/>
+      <c r="C164" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="E164" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F164" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G138" s="1" t="s">
+      <c r="G164" s="96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B165" s="86" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" thickTop="1" thickBot="1">
-      <c r="B139" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" s="18" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="142" spans="1:7" thickTop="1" thickBot="1">
-      <c r="A142" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" thickTop="1" thickBot="1">
-      <c r="A143" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" thickTop="1" thickBot="1">
-      <c r="A144" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
-      <c r="A145" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1"/>
-    <row r="147" spans="1:1"/>
-    <row r="148" spans="1:1" ht="13.2"/>
-    <row r="149" spans="1:1" ht="13.2"/>
-    <row r="150" spans="1:1" ht="13.2"/>
-    <row r="151" spans="1:1" ht="13.2"/>
-    <row r="152" spans="1:1" ht="13.2"/>
-    <row r="153" spans="1:1" ht="13.2"/>
-    <row r="155" spans="1:1"/>
-    <row r="157" spans="1:1"/>
-    <row r="158" spans="1:1"/>
-    <row r="162"/>
-    <row r="163" ht="13.2"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="123"/>
+      <c r="G165" s="118" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B166" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="C166" s="8"/>
+      <c r="D166" s="9"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="123"/>
+      <c r="G166" s="118" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B167" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="C167" s="8"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="123"/>
+      <c r="G167" s="118" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" thickTop="1" thickBot="1">
+      <c r="B168" s="86" t="s">
+        <v>314</v>
+      </c>
+      <c r="C168" s="8"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="123"/>
+      <c r="G168" s="97"/>
+    </row>
+    <row r="169" spans="1:7" thickTop="1" thickBot="1">
+      <c r="B169" s="86"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="123"/>
+      <c r="G169" s="97"/>
+    </row>
+    <row r="171" spans="1:7" s="18" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="172" spans="1:7" s="27" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A172" s="27" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" s="93" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A173" s="27"/>
+    </row>
+    <row r="174" spans="1:7" s="18" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="175" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A175" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A176" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" thickTop="1" thickBot="1">
+      <c r="A177" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="13.2">
+      <c r="A178" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" ht="13.2">
+      <c r="A179" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" ht="13.2"/>
+    <row r="181" spans="1:1" ht="13.2"/>
+    <row r="182" spans="1:1" ht="13.2"/>
+    <row r="183" spans="1:1" ht="13.2"/>
+    <row r="184" spans="1:1" ht="13.2"/>
+    <row r="185" spans="1:1" ht="13.2"/>
+    <row r="186" spans="1:1" ht="13.2"/>
+    <row r="188" spans="1:1" ht="13.2"/>
+    <row r="190" spans="1:1" ht="13.2"/>
+    <row r="191" spans="1:1" ht="13.2"/>
+    <row r="195" ht="13.2"/>
+    <row r="196" ht="13.2"/>
+    <row r="197"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project-A/風水評価の説明/風水関連.xlsx
+++ b/project-A/風水評価の説明/風水関連.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="446">
   <si>
     <t>五行</t>
     <rPh sb="0" eb="2">
@@ -158,16 +158,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>恋愛運</t>
-    <rPh sb="0" eb="2">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>特性</t>
     <rPh sb="0" eb="2">
       <t>トクセイ</t>
@@ -231,40 +221,6 @@
     </rPh>
     <rPh sb="33" eb="34">
       <t>ワル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>健康運</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事運</t>
-    <rPh sb="0" eb="3">
-      <t>シゴトウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>人気運</t>
-    <rPh sb="0" eb="2">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>金運</t>
-    <rPh sb="0" eb="2">
-      <t>キンウン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -916,39 +872,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ショウシツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>金運Down
-リセット(良い運気の消失)</t>
-    <rPh sb="0" eb="2">
-      <t>キンウン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ウンキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ショウシツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>恋愛運，健康運UP</t>
-    <rPh sb="0" eb="2">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1770,45 +1693,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">仕事運
-恋愛運
-</t>
-    <rPh sb="0" eb="3">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>健康運
-人気運
-恋愛運</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>背が高く細長い
 木，風を連想</t>
     <phoneticPr fontId="2"/>
@@ -2703,32 +2587,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>健康運 -= 水の気-200
-金運 -= 水の気-200</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キンウン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ベッド</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2820,9 +2678,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>基本は木の気</t>
-  </si>
-  <si>
     <t>植物の種類にもよる
 花瓶にもよる</t>
     <rPh sb="0" eb="2">
@@ -2833,13 +2688,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>カビン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本は中性</t>
-    <rPh sb="3" eb="5">
-      <t>チュウセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3127,35 +2975,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>鬼門(北東，南西)は注意が必要
-全ての運-=40 (陰気が20より↑)</t>
-    <rPh sb="0" eb="2">
-      <t>キモン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ホクトウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナンセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>インキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>家具の数</t>
     <rPh sb="0" eb="2">
       <t>カグ</t>
@@ -3176,32 +2995,6 @@
     <t>少なすぎる</t>
     <rPh sb="0" eb="1">
       <t>スク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>10より多い場合, 家具1個増加につき
-全ての運-=30</t>
-    <rPh sb="4" eb="5">
-      <t>オオ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カグ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ゾウカ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ウン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3279,23 +3072,6 @@
   </si>
   <si>
     <t>背の高い家具で運勢アップ</t>
-  </si>
-  <si>
-    <t>風，音で運勢アップ
-全ての運 += 5 (一個につき)</t>
-    <rPh sb="2" eb="3">
-      <t>オト</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>イッコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>背の低い家具で運勢アップ
@@ -3650,19 +3426,6 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>すべての観葉植物は木製</t>
-    <rPh sb="4" eb="6">
-      <t>カンヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショクブツ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>モクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4080,19 +3843,6 @@
     </rPh>
     <rPh sb="24" eb="25">
       <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>水の気が強い</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツヨ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4493,31 +4243,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>一つでもあれば
-仕事運 + 20
-人気運 + 20
-美容運 + 20</t>
-    <rPh sb="0" eb="1">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ビヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>オレンジが一つ以上ある場合
 ピンクの家具一つ以上で
 恋愛運　+ 30</t>
@@ -4814,16 +4539,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>若干の陽気</t>
-    <rPh sb="0" eb="2">
-      <t>ジャッカン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨウキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>白一つにつき
 マイナスの運勢0.9倍</t>
     <rPh sb="0" eb="1">
@@ -4901,19 +4616,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>弱めの金の気をもつ</t>
-    <rPh sb="0" eb="1">
-      <t>ヨワ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>僅かに陰の気</t>
     <rPh sb="0" eb="1">
       <t>ワズ</t>
@@ -5101,16 +4803,6 @@
     </rPh>
     <rPh sb="10" eb="12">
       <t>ヘンカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>土の気</t>
-    <rPh sb="0" eb="1">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5317,26 +5009,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>恋愛運2
-(全ての気 + 木の気(max200))/5増加</t>
-    <rPh sb="6" eb="7">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ゾウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>金運
 恋愛運
 (全ての気 + 金の気(max200))/10増加</t>
@@ -5379,118 +5051,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>家具の特性による共通事項</t>
-    <rPh sb="0" eb="2">
-      <t>カグ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
+    <t>特性</t>
+    <rPh sb="0" eb="2">
       <t>トクセイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>キョウツウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>特性</t>
-    <rPh sb="0" eb="2">
-      <t>トクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>花に関連一つにつき恋愛運アップ(他の運気も?)
-恋愛運 + 10</t>
-    <rPh sb="0" eb="1">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ウンキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>良い香り一つにつき恋愛運アップ(他の運気も?)
-恋愛運 + 10</t>
-    <rPh sb="0" eb="1">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カオ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ウンキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>光一つにつき恋愛運アップ(他の運気も?)
-恋愛運 + 10</t>
-    <rPh sb="0" eb="1">
-      <t>ヒカリ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ウンキ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ウン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5948,36 +5511,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>仕事運 -= (火の気-200)
-恋愛運 -= (火の気-200)
-イライラ？</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>南枕一番よくない
 健康運-20
 仕事運-10
@@ -6003,51 +5536,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>オレンジで運勢アップ
-恋愛運 + 10 (1個につき)
-人気運 + 5</t>
-    <rPh sb="11" eb="13">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風，音で運勢アップ
-恋愛運 + 5 (一個につき)
-人気運 + 5</t>
-    <rPh sb="2" eb="3">
-      <t>オト</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イッコ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>家具ごとの特性(材質)</t>
     <rPh sb="0" eb="2">
       <t>カグ</t>
@@ -6450,6 +5938,1635 @@
     </rPh>
     <rPh sb="1" eb="3">
       <t>カンレン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この特性の家具一つにつき恋愛運アップ
+恋愛運 + 10</t>
+    <rPh sb="2" eb="4">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>この特性の家具一つにつき恋愛運アップ
+恋愛運 +10</t>
+    <rPh sb="2" eb="4">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新たな運?</t>
+    <rPh sb="0" eb="1">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>家庭運 = 健康運, 仕事運, 人気運</t>
+    <rPh sb="0" eb="2">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>美容運 = 人気運，恋愛運，仕事運，健康運</t>
+    <rPh sb="0" eb="2">
+      <t>ビヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人間関係運 = 人気運，恋愛運</t>
+    <rPh sb="0" eb="2">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円形の家具で人間関係良好
+恋愛運 + 5
+人気運 + 5 
+(一つにつき)</t>
+    <rPh sb="0" eb="2">
+      <t>エンケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リョウコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円形の家具で人間関係良好
+恋愛運 +5
+人気運 +5
+(一つにつき)</t>
+    <rPh sb="0" eb="2">
+      <t>エンケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>リョウコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人間関係ギクシャク
+恋愛運 - 5
+人気運 -5
+(一つにつき)</t>
+    <rPh sb="0" eb="2">
+      <t>ニンゲン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>かなり強めの陽気</t>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヨウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タンスや正方形，長方形のテーブルが該当</t>
+    <rPh sb="4" eb="7">
+      <t>セイホウケイ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>チョウホウケイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>恋愛運2
+(人気運 未実装)
+(全ての気 + 木の気(max200))/5増加</t>
+    <rPh sb="6" eb="8">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ミジッソウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ゾウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風，音で運勢アップ
+恋愛運 + 5(一個につき)
+人気運 + 5(一個につき)</t>
+    <rPh sb="2" eb="3">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>イッコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風，音で運勢アップ
+恋愛運 + 5 (一個につき)
+人気運 + 5(一個につき)</t>
+    <rPh sb="2" eb="3">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>イッコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オレンジで運勢アップ
+恋愛運 + 10 (1個につき)
+人気運 + 5(一個につき)</t>
+    <rPh sb="11" eb="13">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イッコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東，南東，西，北西の寝室は美容運アップ？</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナントウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンシツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ビヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>イライラ = (健康運), 仕事運,恋愛運マイナス</t>
+    <rPh sb="8" eb="10">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運
+恋愛運
+(健康運？)</t>
+    <rPh sb="0" eb="3">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>落ち着き = 仕事運</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シゴトウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>クリスタルで陰陽が中和</t>
+    <rPh sb="6" eb="8">
+      <t>インヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チュウワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>健康運
+人気運
+恋愛運
+(仕事?)</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シゴト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>10より多い場合, 家具1個増加につき
+全ての運-=30
+陰気　+ 30</t>
+    <rPh sb="4" eb="5">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>インキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スキル?</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>整理整頓</t>
+    <rPh sb="0" eb="2">
+      <t>セイリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイトン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>掃除</t>
+    <rPh sb="0" eb="2">
+      <t>ソウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(個々の)家具の種類= 奇数</t>
+    <rPh sb="1" eb="3">
+      <t>ココ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>恋愛運 - 20(1種類につき)</t>
+    <rPh sb="0" eb="2">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一つでもあれば
+仕事運 + 20
+人気運 + 20
+美容運 (恋愛運、健康運)+ 20?</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ビヨウ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰気がつよいと恋愛運(復縁)ダウン?
+恋愛運 - 30</t>
+    <rPh sb="0" eb="2">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>フクエン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木の気</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水の気が強い
+木の気もある</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金の気(強)
+木の気(弱)</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>中性</t>
+    <rPh sb="0" eb="2">
+      <t>チュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タンス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木製は木の気</t>
+    <rPh sb="0" eb="2">
+      <t>モクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本は中性
+藤は若干陰性
+枯れ木は強い陰性
+若木は陽性</t>
+    <rPh sb="3" eb="5">
+      <t>チュウセイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジャッカン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>インセイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>インセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ワカギ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運 -= (火の気-200)
+恋愛運 -= (火の気-200)
+(健康運?)
+イライラ？</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火の気が強め</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽気</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火の気</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>極めて強い陽気</t>
+    <rPh sb="0" eb="1">
+      <t>キワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽気がかなり強い</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金の気がけっこう強め</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土の気</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰気</t>
+    <rPh sb="0" eb="2">
+      <t>インキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>横長なら土の気</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコナガ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背が低いなら土の気</t>
+    <rPh sb="0" eb="1">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>縦長なら木の気</t>
+    <rPh sb="0" eb="2">
+      <t>タテナガ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>背が高いなら木の気</t>
+    <rPh sb="0" eb="1">
+      <t>セ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土の気(強)
+金の気(弱)</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金の気</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水の気</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(周りが)暗ければ水の気
+(周りが)明るければ水の気</t>
+    <rPh sb="1" eb="2">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>クラ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>明るさによる</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰気が強め</t>
+    <rPh sb="0" eb="2">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>奇抜なデザインは火の気が強い</t>
+    <rPh sb="0" eb="2">
+      <t>キバツ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弱めの金の気をもつ
+濃い色だと水の気が強まる</t>
+    <rPh sb="0" eb="1">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰気(正方形に近い場合は弱い)</t>
+    <rPh sb="0" eb="2">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>セイホウケイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヨワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>強い陽気</t>
+    <rPh sb="0" eb="1">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽気？</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本は木の気
+花瓶付きで水の気が付属する</t>
+    <rPh sb="7" eb="9">
+      <t>カビン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>電気スタンド</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火の気が強い</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水槽</t>
+    <rPh sb="0" eb="2">
+      <t>スイソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水の気
+金魚を飼うと金の気</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キンギョ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>淡い色はもれなく金の気が付属</t>
+    <rPh sb="0" eb="1">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>フゾク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>温かみのある色(その他特性の温かみと重複)</t>
+    <rPh sb="0" eb="1">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>トクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>チョウフク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>淡い色はもれなく温かみの特性をもつ</t>
+    <rPh sb="0" eb="1">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鬼門(北東，南西)は注意が必要
+全ての運 - 40 (陰気が20より↑)</t>
+    <rPh sb="0" eb="2">
+      <t>キモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホクトウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>インキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>玄関マット(カーペット？)
+は外からの悪い気を払う
+全ての運気-50 (玄関マットないとき)</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ゲンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特性</t>
+    <rPh sb="0" eb="2">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>良い香りで良い運気入りやすくなる
+全ての運気 + 20（1個でもあるとき）</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カオ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すべての観葉植物は木製
+蘭の花は高級</t>
+    <rPh sb="4" eb="6">
+      <t>カンヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鈴 = 金の気?</t>
+    <rPh sb="0" eb="1">
+      <t>スズ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風鈴 = 金の気?</t>
+    <rPh sb="0" eb="2">
+      <t>フウリン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>犬の置物 = 火の気，玄関に置くとプラスの運気0.8倍</t>
+    <rPh sb="0" eb="1">
+      <t>イヌ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>オキモノ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ゲンカン</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(健康運 -= 水の気-200)要る？
+金運 -= 水の気-200
+人気運？(未実装)</t>
+    <rPh sb="1" eb="3">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="39" eb="42">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北東(変化の方角なので変化をでかく)</t>
+    <rPh sb="0" eb="2">
+      <t>ホクトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヘンカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウガク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>冷えやすい，孤立しやすい</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コリツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>恋愛運，健康運UP、貯蓄</t>
+    <rPh sb="0" eb="2">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョチク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金運Down（浪費）
+リセット(良い運気の消失)</t>
+    <rPh sb="0" eb="2">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ロウヒ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ショウシツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北西の金の気が強すぎると独善的に
+仕事運 -(金の気-200)
+人気運-(金の気-200)</t>
+    <rPh sb="0" eb="2">
+      <t>ホクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ドクゼンテキ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バランス崩壊するほどの火の気</t>
+    <rPh sb="4" eb="6">
+      <t>ホウカイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>固有特性</t>
+    <rPh sb="0" eb="2">
+      <t>コユウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角い家具は気を安定させる
+良い運気も悪い運気も0.8倍</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アンテイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>丸い家具は気を循環させる
+良い運気も悪い運気も1.2倍</t>
+    <rPh sb="0" eb="1">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュンカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>バイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6458,7 +7575,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6562,8 +7679,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6621,12 +7746,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6768,6 +7887,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -6798,7 +7947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6835,341 +7984,365 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7465,10 +8638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R197"/>
+  <dimension ref="A1:R209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D127" workbookViewId="0">
-      <selection activeCell="G157" sqref="G157"/>
+    <sheetView tabSelected="1" topLeftCell="E127" workbookViewId="0">
+      <selection activeCell="I154" sqref="I154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" thickTop="1" thickBottom="1"/>
@@ -7476,20 +8649,21 @@
     <col min="1" max="1" width="29.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="35" style="1" customWidth="1"/>
-    <col min="4" max="4" width="37.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="32.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="33.109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="51.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="33.77734375" style="1" customWidth="1"/>
     <col min="9" max="9" width="37" style="1" customWidth="1"/>
-    <col min="10" max="10" width="33.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="36.5546875" style="1" customWidth="1"/>
     <col min="11" max="11" width="29.44140625" style="1" customWidth="1"/>
     <col min="12" max="12" width="32.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="36.109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="24.21875" style="1" customWidth="1"/>
     <col min="15" max="15" width="27.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="14.6640625" style="1" customWidth="1"/>
-    <col min="17" max="18" width="15" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.21875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="40.109375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8.88671875" style="1"/>
     <col min="20" max="20" width="18" style="1" customWidth="1"/>
     <col min="21" max="21" width="34" style="1" customWidth="1"/>
@@ -7503,60 +8677,60 @@
     </row>
     <row r="3" spans="1:8" thickTop="1" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8" thickTop="1" thickBot="1">
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:8" thickTop="1" thickBot="1">
       <c r="B5" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:8" thickTop="1" thickBot="1">
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:8" thickTop="1" thickBot="1">
       <c r="B7" s="1" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:8" thickTop="1" thickBot="1">
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:8" thickTop="1" thickBot="1">
       <c r="A10" s="1" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:8" thickTop="1" thickBot="1">
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:8" thickTop="1" thickBot="1">
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:8" thickTop="1" thickBot="1">
       <c r="B13" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:8" thickTop="1" thickBot="1">
       <c r="B14" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:8" thickTop="1" thickBot="1">
@@ -7564,10 +8738,10 @@
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -7579,7 +8753,7 @@
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -7600,10 +8774,10 @@
     <row r="19" spans="1:8" thickTop="1" thickBot="1">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -7615,7 +8789,7 @@
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -7636,7 +8810,7 @@
     <row r="22" spans="1:8" thickTop="1" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -7658,10 +8832,10 @@
     <row r="24" spans="1:8" thickTop="1" thickBot="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -7682,10 +8856,10 @@
     <row r="26" spans="1:8" thickTop="1" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -7752,1740 +8926,1985 @@
     </row>
     <row r="30" spans="1:8" s="12" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="A30" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D30" s="14"/>
       <c r="E30" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="F30" s="16" t="s">
-        <v>51</v>
+        <v>92</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>46</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>53</v>
+        <v>439</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="12" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="A31" s="12" t="s">
-        <v>250</v>
+        <v>233</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>97</v>
+        <v>39</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>90</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F31" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="G31" s="14"/>
-    </row>
-    <row r="32" spans="1:8" s="18" customFormat="1" thickTop="1" thickBot="1">
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="20"/>
+        <v>440</v>
+      </c>
+      <c r="G31" s="14" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="1:7" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="B33" s="1" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>139</v>
+        <v>129</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>130</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="93.6" thickTop="1" thickBot="1">
       <c r="B34" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>330</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>322</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>144</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>320</v>
+        <v>88</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E34" s="23" t="s">
+        <v>296</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="54" thickTop="1" thickBot="1">
       <c r="B35" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>333</v>
+        <v>136</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>396</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="F35" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="G35" s="26" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="18" customFormat="1" thickTop="1" thickBot="1">
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="1:7" s="27" customFormat="1" thickTop="1" thickBot="1">
-      <c r="C37" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="30"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="29"/>
+        <v>138</v>
+      </c>
+      <c r="F35" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="25" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C36" s="18"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="1:7" s="26" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C37" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="29"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="28"/>
     </row>
     <row r="38" spans="1:7" ht="80.400000000000006" thickTop="1" thickBot="1">
       <c r="B38" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C38" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="E38" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G38" s="35" t="s">
-        <v>39</v>
+      <c r="E38" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="69" thickTop="1" thickBot="1">
       <c r="B39" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="C39" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D39" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>40</v>
+      <c r="E39" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="F39" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="G39" s="39" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20.399999999999999" thickTop="1" thickBot="1">
       <c r="B40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C40" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E40" s="43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F40" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="D40" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="G40" s="44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
+      <c r="D42" s="45"/>
+      <c r="E42" s="45"/>
+      <c r="F42" s="45"/>
+      <c r="G42" s="45"/>
+    </row>
+    <row r="43" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A43" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="45"/>
+      <c r="D43" s="45"/>
+      <c r="E43" s="45"/>
+      <c r="F43" s="45"/>
+      <c r="G43" s="45"/>
+    </row>
+    <row r="44" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="G40" s="45" t="s">
+      <c r="D44" s="47" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" thickTop="1" thickBot="1">
-      <c r="A42" s="46"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="46"/>
-      <c r="E42" s="46"/>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-    </row>
-    <row r="43" spans="1:7" thickTop="1" thickBot="1">
-      <c r="A43" s="46" t="s">
-        <v>1</v>
-      </c>
-      <c r="B43" s="46" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="46"/>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-    </row>
-    <row r="44" spans="1:7" thickTop="1" thickBot="1">
-      <c r="A44" s="46"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="47" t="s">
+      <c r="E44" s="48" t="s">
+        <v>52</v>
+      </c>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+    </row>
+    <row r="45" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A45" s="45" t="s">
+        <v>233</v>
+      </c>
+      <c r="B45" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+    </row>
+    <row r="46" spans="1:7" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+    </row>
+    <row r="47" spans="1:7" ht="39.6" thickTop="1" thickBot="1">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C47" s="50" t="s">
+        <v>380</v>
+      </c>
+      <c r="D47" s="51" t="s">
+        <v>377</v>
+      </c>
+      <c r="E47" s="52"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+    </row>
+    <row r="48" spans="1:7" ht="20.399999999999999" thickTop="1" thickBot="1">
+      <c r="A48" s="45"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="52"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+    </row>
+    <row r="49" spans="1:16" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+    </row>
+    <row r="50" spans="1:16" s="26" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
+      <c r="C50" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="56"/>
+      <c r="E50" s="57"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="45"/>
+    </row>
+    <row r="51" spans="1:16" ht="60.6" thickTop="1" thickBot="1">
+      <c r="A51" s="45"/>
+      <c r="B51" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C51" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D51" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="D44" s="48" t="s">
+      <c r="E51" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F51" s="45"/>
+      <c r="G51" s="45"/>
+    </row>
+    <row r="52" spans="1:16" ht="49.2" thickTop="1" thickBot="1">
+      <c r="A52" s="45"/>
+      <c r="B52" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="E44" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-    </row>
-    <row r="45" spans="1:7" thickTop="1" thickBot="1">
-      <c r="A45" s="46" t="s">
+      <c r="D52" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F52" s="45"/>
+      <c r="G52" s="45"/>
+    </row>
+    <row r="54" spans="1:16" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="56" spans="1:16" thickTop="1" thickBot="1">
+      <c r="A56" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="60" customFormat="1" thickTop="1" thickBot="1">
+      <c r="B57" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="C57" s="60" t="s">
+        <v>141</v>
+      </c>
+      <c r="D57" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="E57" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="F57" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="G57" s="60" t="s">
+        <v>145</v>
+      </c>
+      <c r="H57" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="I57" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="J57" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="K57" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="L57" s="60" t="s">
+        <v>175</v>
+      </c>
+      <c r="M57" s="60" t="s">
+        <v>191</v>
+      </c>
+      <c r="N57" s="60" t="s">
+        <v>393</v>
+      </c>
+      <c r="O57" s="60" t="s">
+        <v>421</v>
+      </c>
+      <c r="P57" s="60" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="61" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A58" s="61" t="s">
+        <v>148</v>
+      </c>
+      <c r="B58" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="F58" s="61" t="s">
+        <v>194</v>
+      </c>
+      <c r="I58" s="128" t="s">
+        <v>420</v>
+      </c>
+      <c r="J58" s="61" t="s">
+        <v>389</v>
+      </c>
+      <c r="L58" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="N58" s="61" t="s">
+        <v>394</v>
+      </c>
+      <c r="O58" s="61" t="s">
+        <v>422</v>
+      </c>
+      <c r="P58" s="128" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="2" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A59" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="I59" s="62" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="63" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A60" s="63" t="s">
+        <v>149</v>
+      </c>
+      <c r="I60" s="64" t="s">
+        <v>395</v>
+      </c>
+      <c r="J60" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="K60" s="63" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" s="65" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A61" s="65" t="s">
+        <v>152</v>
+      </c>
+      <c r="I61" s="66" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="67" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A62" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="B62" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="I62" s="68" t="s">
+        <v>432</v>
+      </c>
+      <c r="L62" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="M62" s="68" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="69" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="A63" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="70" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="70" t="s">
+        <v>178</v>
+      </c>
+      <c r="G63" s="70" t="s">
+        <v>160</v>
+      </c>
+      <c r="H63" s="70" t="s">
+        <v>188</v>
+      </c>
+      <c r="I63" s="70" t="s">
+        <v>162</v>
+      </c>
+      <c r="M63" s="70" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="69" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A64" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="70" t="s">
+        <v>180</v>
+      </c>
+      <c r="G64" s="70" t="s">
+        <v>306</v>
+      </c>
+      <c r="I64" s="70"/>
+    </row>
+    <row r="65" spans="1:9" s="69" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A65" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B65" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="G65" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="I65" s="70"/>
+    </row>
+    <row r="66" spans="1:9" s="69" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
+      <c r="A66" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B66" s="70" t="s">
+        <v>307</v>
+      </c>
+      <c r="G66" s="70"/>
+      <c r="I66" s="70"/>
+    </row>
+    <row r="67" spans="1:9" s="69" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="A67" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B67" s="70" t="s">
+        <v>222</v>
+      </c>
+      <c r="G67" s="70" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="69" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="A68" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" s="70" t="s">
+        <v>223</v>
+      </c>
+      <c r="G68" s="70" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="69" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A69" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B69" s="70" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="69" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A70" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B70" s="70" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="69" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A71" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="70"/>
+    </row>
+    <row r="72" spans="1:9" s="69" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A72" s="69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="69" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A73" s="69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="69" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A74" s="69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="78" spans="1:9" s="63" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A78" s="63" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="63" customFormat="1" thickTop="1" thickBot="1">
+      <c r="B79" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="D79" s="63" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="63" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B80" s="64" t="s">
+        <v>381</v>
+      </c>
+      <c r="C80" s="64" t="s">
+        <v>168</v>
+      </c>
+      <c r="D80" s="63" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A82" s="127"/>
+      <c r="B82" s="127"/>
+      <c r="C82" s="127"/>
+      <c r="D82" s="127"/>
+      <c r="E82" s="127"/>
+      <c r="F82" s="127"/>
+      <c r="G82" s="127"/>
+      <c r="H82" s="127"/>
+      <c r="I82" s="127"/>
+      <c r="J82" s="127"/>
+      <c r="K82" s="127"/>
+    </row>
+    <row r="83" spans="1:11" thickTop="1" thickBot="1">
+      <c r="A83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="72"/>
+      <c r="C83" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" s="73" t="s">
+        <v>437</v>
+      </c>
+      <c r="E83" s="73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G83" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="H83" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" thickTop="1" thickBot="1">
+      <c r="B84" s="72" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" s="73" t="s">
+        <v>122</v>
+      </c>
+      <c r="D84" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="E84" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="F84" s="73" t="s">
+        <v>124</v>
+      </c>
+      <c r="G84" s="73" t="s">
+        <v>125</v>
+      </c>
+      <c r="H84" s="73" t="s">
+        <v>123</v>
+      </c>
+      <c r="I84" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="J84" s="73" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="53" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="86" spans="1:11" s="69" customFormat="1" ht="80.400000000000006" thickTop="1" thickBot="1">
+      <c r="A86" s="26"/>
+      <c r="B86" s="124" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="125" t="s">
+        <v>76</v>
+      </c>
+      <c r="D86" s="125" t="s">
+        <v>77</v>
+      </c>
+      <c r="E86" s="125" t="s">
+        <v>78</v>
+      </c>
+      <c r="F86" s="125" t="s">
+        <v>79</v>
+      </c>
+      <c r="G86" s="125" t="s">
+        <v>80</v>
+      </c>
+      <c r="H86" s="125" t="s">
+        <v>81</v>
+      </c>
+      <c r="I86" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="J86" s="125" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="69" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A87" s="26"/>
+      <c r="B87" s="126" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="D87" s="125" t="s">
+        <v>68</v>
+      </c>
+      <c r="E87" s="125" t="s">
+        <v>69</v>
+      </c>
+      <c r="F87" s="125" t="s">
+        <v>70</v>
+      </c>
+      <c r="G87" s="125" t="s">
+        <v>71</v>
+      </c>
+      <c r="H87" s="125" t="s">
+        <v>72</v>
+      </c>
+      <c r="I87" s="125" t="s">
+        <v>73</v>
+      </c>
+      <c r="J87" s="125" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="B88" s="74"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="75"/>
+      <c r="E88" s="75"/>
+      <c r="F88" s="75"/>
+      <c r="G88" s="75"/>
+      <c r="H88" s="75"/>
+      <c r="I88" s="75"/>
+      <c r="J88" s="75"/>
+    </row>
+    <row r="89" spans="1:11" ht="93.6" thickTop="1" thickBot="1">
+      <c r="B89" s="76" t="s">
+        <v>285</v>
+      </c>
+      <c r="C89" s="77" t="s">
+        <v>286</v>
+      </c>
+      <c r="D89" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="E89" s="77" t="s">
+        <v>288</v>
+      </c>
+      <c r="F89" s="77" t="s">
+        <v>371</v>
+      </c>
+      <c r="G89" s="77" t="s">
+        <v>305</v>
+      </c>
+      <c r="H89" s="77" t="s">
+        <v>297</v>
+      </c>
+      <c r="I89" s="77" t="s">
+        <v>289</v>
+      </c>
+      <c r="J89" s="77" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C90" s="78"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="78"/>
+      <c r="F90" s="78"/>
+      <c r="G90" s="78"/>
+      <c r="H90" s="78"/>
+      <c r="I90" s="78"/>
+      <c r="J90" s="78"/>
+    </row>
+    <row r="91" spans="1:11" ht="54" thickTop="1" thickBot="1">
+      <c r="B91" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C91" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D91" s="72" t="s">
+        <v>171</v>
+      </c>
+      <c r="E91" s="76" t="s">
+        <v>372</v>
+      </c>
+      <c r="F91" s="76" t="s">
+        <v>373</v>
+      </c>
+      <c r="G91" s="76"/>
+      <c r="H91" s="76" t="s">
+        <v>172</v>
+      </c>
+      <c r="I91" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="J91" s="76" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B92" s="72" t="s">
+        <v>291</v>
+      </c>
+      <c r="C92" s="76"/>
+      <c r="D92" s="72"/>
+      <c r="E92" s="76"/>
+      <c r="F92" s="76"/>
+      <c r="G92" s="76"/>
+      <c r="H92" s="76"/>
+      <c r="I92" s="76"/>
+      <c r="J92" s="76" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B93" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C93" s="76" t="s">
+        <v>170</v>
+      </c>
+      <c r="D93" s="72"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="76" t="s">
+        <v>374</v>
+      </c>
+      <c r="G93" s="76"/>
+      <c r="H93" s="76"/>
+      <c r="I93" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="J93" s="76" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B94" s="72" t="s">
+        <v>150</v>
+      </c>
+      <c r="C94" s="76"/>
+      <c r="D94" s="72"/>
+      <c r="E94" s="76"/>
+      <c r="F94" s="76"/>
+      <c r="G94" s="76"/>
+      <c r="H94" s="76"/>
+      <c r="I94" s="76"/>
+      <c r="J94" s="76" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B95" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C95" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="D95" s="76"/>
+      <c r="E95" s="72"/>
+      <c r="F95" s="76" t="s">
+        <v>190</v>
+      </c>
+      <c r="G95" s="76" t="s">
+        <v>86</v>
+      </c>
+      <c r="H95" s="76"/>
+      <c r="I95" s="76"/>
+      <c r="J95" s="76" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" thickTop="1" thickBot="1">
+      <c r="B96" s="72"/>
+      <c r="C96" s="79"/>
+      <c r="D96" s="76"/>
+      <c r="E96" s="72"/>
+      <c r="F96" s="76"/>
+      <c r="G96" s="76"/>
+      <c r="H96" s="76"/>
+      <c r="I96" s="76"/>
+      <c r="J96" s="72"/>
+    </row>
+    <row r="97" spans="1:10" thickTop="1" thickBot="1">
+      <c r="B97" s="72"/>
+      <c r="C97" s="79"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="76"/>
+      <c r="G97" s="76"/>
+      <c r="H97" s="76"/>
+      <c r="I97" s="76"/>
+      <c r="J97" s="72"/>
+    </row>
+    <row r="98" spans="1:10" thickTop="1" thickBot="1">
+      <c r="B98" s="72"/>
+      <c r="C98" s="79"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="76"/>
+      <c r="G98" s="76"/>
+      <c r="H98" s="76"/>
+      <c r="I98" s="76"/>
+      <c r="J98" s="72"/>
+    </row>
+    <row r="103" spans="1:10" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="104" spans="1:10" thickTop="1" thickBot="1">
+      <c r="C104" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" s="82" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A105" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D105" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E105" s="82" t="s">
+        <v>65</v>
+      </c>
+      <c r="F105" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="G105" s="82" t="s">
+        <v>64</v>
+      </c>
+      <c r="H105" s="82" t="s">
+        <v>63</v>
+      </c>
+      <c r="I105" s="82" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" s="82" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B106" s="82" t="s">
+        <v>62</v>
+      </c>
+      <c r="E106" s="82" t="s">
+        <v>119</v>
+      </c>
+      <c r="F106" s="83" t="s">
+        <v>120</v>
+      </c>
+      <c r="H106" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="I106" s="83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" s="82" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B107" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="C107" s="83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F107" s="83"/>
+      <c r="H107" s="83" t="s">
+        <v>301</v>
+      </c>
+      <c r="I107" s="83" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" s="82" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B108" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108" s="83" t="s">
+        <v>428</v>
+      </c>
+      <c r="D108" s="83" t="s">
+        <v>158</v>
+      </c>
+      <c r="E108" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="F108" s="83" t="s">
+        <v>156</v>
+      </c>
+      <c r="G108" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="H108" s="83" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" s="82" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="B109" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C109" s="83" t="s">
+        <v>429</v>
+      </c>
+      <c r="D109" s="83" t="s">
+        <v>91</v>
+      </c>
+      <c r="E109" s="83" t="s">
+        <v>298</v>
+      </c>
+      <c r="F109" s="83" t="s">
+        <v>159</v>
+      </c>
+      <c r="G109" s="83" t="s">
+        <v>299</v>
+      </c>
+      <c r="H109" s="83" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B110" s="82" t="s">
+        <v>430</v>
+      </c>
+      <c r="C110" s="83" t="s">
+        <v>431</v>
+      </c>
+      <c r="D110" s="83" t="s">
+        <v>375</v>
+      </c>
+      <c r="E110" s="83"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="83"/>
+    </row>
+    <row r="111" spans="1:10" s="82" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="B111" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="83" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B112" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D112" s="83" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B113" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D113" s="83" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B114" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D114" s="83" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B115" s="82" t="s">
+        <v>150</v>
+      </c>
+      <c r="D115" s="83" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" s="82" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="D116" s="83" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" thickTop="1" thickBot="1">
+      <c r="D117" s="71"/>
+    </row>
+    <row r="119" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="120" spans="1:17" thickTop="1" thickBot="1">
+      <c r="A120" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" s="86" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A121" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="B121" s="87" t="s">
+        <v>198</v>
+      </c>
+      <c r="C121" s="46" t="s">
+        <v>199</v>
+      </c>
+      <c r="D121" s="98" t="s">
+        <v>200</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F121" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="G121" s="90" t="s">
+        <v>203</v>
+      </c>
+      <c r="H121" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="I121" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="J121" s="92" t="s">
+        <v>205</v>
+      </c>
+      <c r="K121" s="95" t="s">
+        <v>206</v>
+      </c>
+      <c r="L121" s="94" t="s">
+        <v>207</v>
+      </c>
+      <c r="M121" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="N121" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="O121" s="80" t="s">
+        <v>210</v>
+      </c>
+      <c r="P121" s="101" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q121" s="100" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C122" s="46"/>
+      <c r="D122" s="46"/>
+      <c r="E122" s="46"/>
+      <c r="G122" s="46"/>
+      <c r="J122" s="46"/>
+      <c r="K122" s="53"/>
+      <c r="M122" s="46"/>
+    </row>
+    <row r="123" spans="1:17" s="86" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
+      <c r="A123" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="B123" s="102" t="s">
+        <v>234</v>
+      </c>
+      <c r="C123" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="D123" s="98"/>
+      <c r="E123" s="103" t="s">
+        <v>236</v>
+      </c>
+      <c r="F123" s="104" t="s">
+        <v>237</v>
+      </c>
+      <c r="G123" s="105" t="s">
+        <v>238</v>
+      </c>
+      <c r="H123" s="106" t="s">
+        <v>239</v>
+      </c>
+      <c r="I123" s="107" t="s">
+        <v>280</v>
+      </c>
+      <c r="J123" s="108" t="s">
+        <v>240</v>
+      </c>
+      <c r="K123" s="95"/>
+      <c r="L123" s="94"/>
+      <c r="M123" s="109" t="s">
+        <v>241</v>
+      </c>
+      <c r="N123" s="110" t="s">
+        <v>242</v>
+      </c>
+      <c r="O123" s="81" t="s">
+        <v>243</v>
+      </c>
+      <c r="P123" s="111" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q123" s="100"/>
+    </row>
+    <row r="124" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C124" s="46"/>
+      <c r="D124" s="46"/>
+      <c r="E124" s="46"/>
+      <c r="G124" s="46"/>
+      <c r="J124" s="46"/>
+      <c r="K124" s="53"/>
+      <c r="M124" s="46"/>
+    </row>
+    <row r="125" spans="1:17" s="85" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A125" s="26" t="s">
+        <v>228</v>
+      </c>
+      <c r="B125" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="C125" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="D125" s="130" t="s">
+        <v>416</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="F125" s="89" t="s">
+        <v>270</v>
+      </c>
+      <c r="G125" s="112" t="s">
+        <v>390</v>
+      </c>
+      <c r="H125" s="88" t="s">
+        <v>249</v>
+      </c>
+      <c r="I125" s="107" t="s">
+        <v>409</v>
+      </c>
+      <c r="J125" s="93" t="s">
         <v>250</v>
       </c>
-      <c r="B45" s="46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="50" t="s">
-        <v>58</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="E45" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="F45" s="46"/>
-      <c r="G45" s="46"/>
-    </row>
-    <row r="46" spans="1:7" s="18" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-    </row>
-    <row r="47" spans="1:7" ht="30" thickTop="1" thickBot="1">
-      <c r="A47" s="46"/>
-      <c r="B47" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="51" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="52" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="53"/>
-      <c r="F47" s="46"/>
-      <c r="G47" s="46"/>
-    </row>
-    <row r="48" spans="1:7" ht="20.399999999999999" thickTop="1" thickBot="1">
-      <c r="A48" s="46"/>
-      <c r="B48" s="46"/>
-      <c r="C48" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D48" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="E48" s="53"/>
-      <c r="F48" s="46"/>
-      <c r="G48" s="46"/>
-    </row>
-    <row r="49" spans="1:13" s="18" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="51"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-    </row>
-    <row r="50" spans="1:13" s="27" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="D50" s="57"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-    </row>
-    <row r="51" spans="1:13" ht="60.6" thickTop="1" thickBot="1">
-      <c r="A51" s="46"/>
-      <c r="B51" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="C51" s="59" t="s">
-        <v>65</v>
-      </c>
-      <c r="D51" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="49" t="s">
-        <v>60</v>
-      </c>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-    </row>
-    <row r="52" spans="1:13" ht="49.2" thickTop="1" thickBot="1">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="D52" s="52" t="s">
-        <v>63</v>
-      </c>
-      <c r="E52" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" s="46"/>
-      <c r="G52" s="46"/>
-    </row>
-    <row r="54" spans="1:13" s="18" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="56" spans="1:13" thickTop="1" thickBot="1">
-      <c r="A56" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" s="61" customFormat="1" thickTop="1" thickBot="1">
-      <c r="B57" s="61" t="s">
-        <v>150</v>
-      </c>
-      <c r="C57" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="D57" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="E57" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="F57" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="G57" s="61" t="s">
-        <v>155</v>
-      </c>
-      <c r="H57" s="61" t="s">
-        <v>156</v>
-      </c>
-      <c r="I57" s="61" t="s">
-        <v>157</v>
-      </c>
-      <c r="J57" s="61" t="s">
-        <v>198</v>
-      </c>
-      <c r="K57" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="L57" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="M57" s="61" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" s="62" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A58" s="62" t="s">
-        <v>158</v>
-      </c>
-      <c r="B58" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="F58" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="I58" s="62" t="s">
-        <v>163</v>
-      </c>
-      <c r="L58" s="62" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" s="2" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A59" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="I59" s="63" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" s="64" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A60" s="64" t="s">
-        <v>159</v>
-      </c>
-      <c r="I60" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="J60" s="64" t="s">
-        <v>199</v>
-      </c>
-      <c r="K60" s="64" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" s="66" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A61" s="66" t="s">
-        <v>162</v>
-      </c>
-      <c r="I61" s="67" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" s="68" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A62" s="68" t="s">
-        <v>188</v>
-      </c>
-      <c r="B62" s="68" t="s">
-        <v>189</v>
-      </c>
-      <c r="I62" s="69" t="s">
-        <v>205</v>
-      </c>
-      <c r="L62" s="68" t="s">
-        <v>191</v>
-      </c>
-      <c r="M62" s="69" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" s="70" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="A63" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="B63" s="71" t="s">
-        <v>194</v>
-      </c>
-      <c r="D63" s="71" t="s">
-        <v>193</v>
-      </c>
-      <c r="G63" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="H63" s="71" t="s">
-        <v>203</v>
-      </c>
-      <c r="I63" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="M63" s="71" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" s="70" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="A64" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="71" t="s">
-        <v>195</v>
-      </c>
-      <c r="G64" s="71" t="s">
+      <c r="K125" s="96" t="s">
+        <v>276</v>
+      </c>
+      <c r="L125" s="94" t="s">
+        <v>279</v>
+      </c>
+      <c r="M125" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="N125" s="97" t="s">
+        <v>252</v>
+      </c>
+      <c r="O125" s="80" t="s">
+        <v>402</v>
+      </c>
+      <c r="P125" s="101" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q125" s="100" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" s="85" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A126" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="B126" s="87" t="s">
+        <v>369</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="D126" s="99" t="s">
+        <v>268</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="F126" s="89" t="s">
+        <v>271</v>
+      </c>
+      <c r="G126" s="91" t="s">
+        <v>248</v>
+      </c>
+      <c r="H126" s="88" t="s">
+        <v>247</v>
+      </c>
+      <c r="I126" s="84" t="s">
+        <v>247</v>
+      </c>
+      <c r="J126" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="K126" s="96" t="s">
+        <v>277</v>
+      </c>
+      <c r="L126" s="94" t="s">
+        <v>277</v>
+      </c>
+      <c r="M126" s="10"/>
+      <c r="N126" s="97" t="s">
+        <v>217</v>
+      </c>
+      <c r="O126" s="80" t="s">
+        <v>255</v>
+      </c>
+      <c r="P126" s="101"/>
+      <c r="Q126" s="100" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" s="85" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A127" s="26" t="s">
+        <v>229</v>
+      </c>
+      <c r="B127" s="87"/>
+      <c r="C127" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D127" s="99"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="89" t="s">
+        <v>212</v>
+      </c>
+      <c r="G127" s="91" t="s">
+        <v>230</v>
+      </c>
+      <c r="H127" s="88" t="s">
+        <v>274</v>
+      </c>
+      <c r="I127" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="J127" s="93"/>
+      <c r="K127" s="114" t="s">
+        <v>275</v>
+      </c>
+      <c r="L127" s="115" t="s">
+        <v>275</v>
+      </c>
+      <c r="M127" s="10"/>
+      <c r="N127" s="110" t="s">
+        <v>256</v>
+      </c>
+      <c r="O127" s="81" t="s">
+        <v>256</v>
+      </c>
+      <c r="P127" s="101"/>
+      <c r="Q127" s="100"/>
+    </row>
+    <row r="128" spans="1:17" s="85" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A128" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="B128" s="102" t="s">
+        <v>264</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="D128" s="99"/>
+      <c r="E128" s="21" t="s">
+        <v>387</v>
+      </c>
+      <c r="F128" s="104" t="s">
+        <v>273</v>
+      </c>
+      <c r="G128" s="112" t="s">
+        <v>272</v>
+      </c>
+      <c r="H128" s="106" t="s">
+        <v>245</v>
+      </c>
+      <c r="I128" s="107" t="s">
+        <v>283</v>
+      </c>
+      <c r="J128" s="113" t="s">
+        <v>251</v>
+      </c>
+      <c r="K128" s="114" t="s">
+        <v>278</v>
+      </c>
+      <c r="L128" s="94"/>
+      <c r="M128" s="23" t="s">
+        <v>282</v>
+      </c>
+      <c r="N128" s="110" t="s">
+        <v>254</v>
+      </c>
+      <c r="O128" s="80"/>
+      <c r="P128" s="101"/>
+      <c r="Q128" s="100"/>
+    </row>
+    <row r="129" spans="1:18" s="85" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="A129" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B129" s="102" t="s">
+        <v>263</v>
+      </c>
+      <c r="C129" s="19"/>
+      <c r="D129" s="99"/>
+      <c r="E129" s="21"/>
+      <c r="F129" s="89"/>
+      <c r="G129" s="112"/>
+      <c r="H129" s="106" t="s">
+        <v>246</v>
+      </c>
+      <c r="I129" s="84"/>
+      <c r="J129" s="93"/>
+      <c r="K129" s="96"/>
+      <c r="L129" s="94"/>
+      <c r="M129" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="N129" s="97"/>
+      <c r="O129" s="80"/>
+      <c r="P129" s="101"/>
+      <c r="Q129" s="100"/>
+    </row>
+    <row r="131" spans="1:18" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="133" spans="1:18" s="118" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A133" s="118" t="s">
+        <v>308</v>
+      </c>
+      <c r="B133" s="118" t="s">
+        <v>312</v>
+      </c>
+      <c r="C133" s="118" t="s">
+        <v>313</v>
+      </c>
+      <c r="D133" s="118" t="s">
+        <v>314</v>
+      </c>
+      <c r="E133" s="118" t="s">
+        <v>315</v>
+      </c>
+      <c r="F133" s="118" t="s">
+        <v>316</v>
+      </c>
+      <c r="G133" s="118" t="s">
+        <v>317</v>
+      </c>
+      <c r="H133" s="118" t="s">
+        <v>318</v>
+      </c>
+      <c r="I133" s="118" t="s">
+        <v>319</v>
+      </c>
+      <c r="J133" s="118" t="s">
+        <v>320</v>
+      </c>
+      <c r="K133" s="118" t="s">
+        <v>321</v>
+      </c>
+      <c r="L133" s="118" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18" s="117" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A134" s="117" t="s">
+        <v>323</v>
+      </c>
+      <c r="B134" s="117" t="s">
+        <v>389</v>
+      </c>
+      <c r="C134" s="117" t="s">
+        <v>403</v>
+      </c>
+      <c r="D134" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="E134" s="117" t="s">
+        <v>442</v>
+      </c>
+      <c r="F134" s="117" t="s">
+        <v>403</v>
+      </c>
+      <c r="G134" s="117" t="s">
+        <v>403</v>
+      </c>
+      <c r="H134" s="117" t="s">
+        <v>410</v>
+      </c>
+      <c r="I134" s="117" t="s">
+        <v>410</v>
+      </c>
+      <c r="J134" s="129" t="s">
+        <v>412</v>
+      </c>
+      <c r="K134" s="117" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18" s="117" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A135" s="117" t="s">
+        <v>324</v>
+      </c>
+      <c r="B135" s="117" t="s">
+        <v>392</v>
+      </c>
+      <c r="C135" s="117" t="s">
+        <v>404</v>
+      </c>
+      <c r="D135" s="117" t="s">
+        <v>400</v>
+      </c>
+      <c r="E135" s="117" t="s">
+        <v>400</v>
+      </c>
+      <c r="J135" s="117" t="s">
+        <v>413</v>
+      </c>
+      <c r="K135" s="117" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18" s="117" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A136" s="117" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18" s="116" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A137" s="116" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="141" spans="1:18" s="60" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A141" s="60" t="s">
+        <v>309</v>
+      </c>
+      <c r="B141" s="60" t="s">
+        <v>327</v>
+      </c>
+      <c r="C141" s="60" t="s">
+        <v>328</v>
+      </c>
+      <c r="D141" s="60" t="s">
+        <v>329</v>
+      </c>
+      <c r="E141" s="60" t="s">
+        <v>330</v>
+      </c>
+      <c r="F141" s="60" t="s">
+        <v>331</v>
+      </c>
+      <c r="G141" s="60" t="s">
         <v>332</v>
       </c>
-      <c r="I64" s="71"/>
-    </row>
-    <row r="65" spans="1:11" s="70" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="A65" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="B65" s="71" t="s">
-        <v>192</v>
-      </c>
-      <c r="G65" s="71" t="s">
-        <v>243</v>
-      </c>
-      <c r="I65" s="71"/>
-    </row>
-    <row r="66" spans="1:11" s="70" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
-      <c r="A66" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="B66" s="71" t="s">
+      <c r="H141" s="60" t="s">
+        <v>333</v>
+      </c>
+      <c r="I141" s="60" t="s">
         <v>334</v>
       </c>
-      <c r="G66" s="71"/>
-      <c r="I66" s="71"/>
-    </row>
-    <row r="67" spans="1:11" s="70" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="A67" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="B67" s="71" t="s">
-        <v>238</v>
-      </c>
-      <c r="G67" s="71" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" s="70" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="A68" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="B68" s="71" t="s">
-        <v>239</v>
-      </c>
-      <c r="G68" s="71" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" s="70" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A69" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="B69" s="71" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" s="70" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A70" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="B70" s="71" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" s="70" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A71" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="B71" s="71"/>
-    </row>
-    <row r="72" spans="1:11" s="70" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A72" s="70" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" s="70" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A73" s="70" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" s="70" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A74" s="70" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" s="27" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A76" s="27" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" thickTop="1" thickBot="1">
-      <c r="B77" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B78" s="72" t="s">
-        <v>181</v>
-      </c>
-      <c r="C78" s="72" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" thickTop="1" thickBot="1">
-      <c r="A80" s="73"/>
-      <c r="B80" s="73"/>
-      <c r="C80" s="73"/>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="73"/>
-      <c r="G80" s="73"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="73"/>
-      <c r="J80" s="73"/>
-      <c r="K80" s="73"/>
-    </row>
-    <row r="81" spans="1:10" thickTop="1" thickBot="1">
-      <c r="A81" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B81" s="74"/>
-      <c r="C81" s="75" t="s">
-        <v>11</v>
-      </c>
-      <c r="D81" s="75" t="s">
-        <v>13</v>
-      </c>
-      <c r="E81" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81" s="75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" s="75" t="s">
-        <v>10</v>
-      </c>
-      <c r="H81" s="74" t="s">
-        <v>16</v>
-      </c>
-      <c r="I81" s="74" t="s">
-        <v>17</v>
-      </c>
-      <c r="J81" s="74" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" thickTop="1" thickBot="1">
-      <c r="B82" s="74" t="s">
-        <v>69</v>
-      </c>
-      <c r="C82" s="75" t="s">
-        <v>131</v>
-      </c>
-      <c r="D82" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="E82" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="F82" s="75" t="s">
-        <v>133</v>
-      </c>
-      <c r="G82" s="75" t="s">
-        <v>134</v>
-      </c>
-      <c r="H82" s="75" t="s">
-        <v>132</v>
-      </c>
-      <c r="I82" s="75" t="s">
-        <v>135</v>
-      </c>
-      <c r="J82" s="75" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" s="54" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="84" spans="1:10" ht="80.400000000000006" thickTop="1" thickBot="1">
-      <c r="B84" s="76" t="s">
-        <v>82</v>
-      </c>
-      <c r="C84" s="77" t="s">
-        <v>83</v>
-      </c>
-      <c r="D84" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="E84" s="77" t="s">
-        <v>85</v>
-      </c>
-      <c r="F84" s="77" t="s">
-        <v>86</v>
-      </c>
-      <c r="G84" s="77" t="s">
-        <v>87</v>
-      </c>
-      <c r="H84" s="77" t="s">
-        <v>88</v>
-      </c>
-      <c r="I84" s="77" t="s">
-        <v>89</v>
-      </c>
-      <c r="J84" s="77" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" ht="54" thickTop="1" thickBot="1">
-      <c r="B85" s="78" t="s">
-        <v>73</v>
-      </c>
-      <c r="C85" s="79" t="s">
-        <v>74</v>
-      </c>
-      <c r="D85" s="79" t="s">
-        <v>75</v>
-      </c>
-      <c r="E85" s="79" t="s">
-        <v>76</v>
-      </c>
-      <c r="F85" s="79" t="s">
-        <v>77</v>
-      </c>
-      <c r="G85" s="79" t="s">
-        <v>78</v>
-      </c>
-      <c r="H85" s="79" t="s">
-        <v>79</v>
-      </c>
-      <c r="I85" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="J85" s="79" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" s="18" customFormat="1" thickTop="1" thickBot="1">
-      <c r="B86" s="80"/>
-      <c r="C86" s="81"/>
-      <c r="D86" s="81"/>
-      <c r="E86" s="81"/>
-      <c r="F86" s="81"/>
-      <c r="G86" s="81"/>
-      <c r="H86" s="81"/>
-      <c r="I86" s="81"/>
-      <c r="J86" s="81"/>
-    </row>
-    <row r="87" spans="1:10" ht="93.6" thickTop="1" thickBot="1">
-      <c r="B87" s="82" t="s">
-        <v>306</v>
-      </c>
-      <c r="C87" s="83" t="s">
-        <v>307</v>
-      </c>
-      <c r="D87" s="82" t="s">
-        <v>308</v>
-      </c>
-      <c r="E87" s="83" t="s">
-        <v>309</v>
-      </c>
-      <c r="F87" s="83" t="s">
+      <c r="J141" s="60" t="s">
+        <v>335</v>
+      </c>
+      <c r="K141" s="60" t="s">
+        <v>336</v>
+      </c>
+      <c r="L141" s="60" t="s">
+        <v>337</v>
+      </c>
+      <c r="M141" s="60" t="s">
+        <v>338</v>
+      </c>
+      <c r="N141" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="O141" s="60" t="s">
+        <v>340</v>
+      </c>
+      <c r="P141" s="60" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q141" s="60" t="s">
+        <v>342</v>
+      </c>
+      <c r="R141" s="60" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="142" spans="1:18" s="61" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A142" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="B142" s="61" t="s">
+        <v>389</v>
+      </c>
+      <c r="C142" s="61" t="s">
+        <v>389</v>
+      </c>
+      <c r="D142" s="61" t="s">
+        <v>389</v>
+      </c>
+      <c r="E142" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="F142" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="G142" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="H142" s="61" t="s">
+        <v>399</v>
+      </c>
+      <c r="I142" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="J142" s="61" t="s">
+        <v>403</v>
+      </c>
+      <c r="K142" s="128" t="s">
+        <v>391</v>
+      </c>
+      <c r="L142" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="M142" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="N142" s="61" t="s">
+        <v>410</v>
+      </c>
+      <c r="O142" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="P142" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q142" s="61" t="s">
+        <v>411</v>
+      </c>
+      <c r="R142" s="61" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="143" spans="1:18" s="61" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A143" s="61" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="144" spans="1:18" s="61" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A144" s="61" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" s="2" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A145" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="149" spans="1:11" s="119" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A149" s="119" t="s">
         <v>310</v>
       </c>
-      <c r="G87" s="83" t="s">
-        <v>331</v>
-      </c>
-      <c r="H87" s="83" t="s">
+      <c r="B149" s="119" t="s">
+        <v>343</v>
+      </c>
+      <c r="C149" s="119" t="s">
+        <v>344</v>
+      </c>
+      <c r="D149" s="119" t="s">
+        <v>345</v>
+      </c>
+      <c r="E149" s="119" t="s">
+        <v>346</v>
+      </c>
+      <c r="F149" s="119" t="s">
+        <v>347</v>
+      </c>
+      <c r="G149" s="119" t="s">
+        <v>348</v>
+      </c>
+      <c r="H149" s="119" t="s">
+        <v>349</v>
+      </c>
+      <c r="I149" s="119" t="s">
+        <v>350</v>
+      </c>
+      <c r="J149" s="119" t="s">
+        <v>351</v>
+      </c>
+      <c r="K149" s="119" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" s="72" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A150" s="72" t="s">
         <v>323</v>
       </c>
-      <c r="I87" s="83" t="s">
+      <c r="B150" s="72" t="s">
+        <v>407</v>
+      </c>
+      <c r="C150" s="72" t="s">
+        <v>405</v>
+      </c>
+      <c r="D150" s="72" t="s">
+        <v>408</v>
+      </c>
+      <c r="E150" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="F150" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="G150" s="72" t="s">
+        <v>403</v>
+      </c>
+      <c r="H150" s="72" t="s">
+        <v>410</v>
+      </c>
+      <c r="I150" s="72" t="s">
+        <v>410</v>
+      </c>
+      <c r="J150" s="72" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" s="72" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A151" s="72" t="s">
+        <v>324</v>
+      </c>
+      <c r="F151" s="72" t="s">
+        <v>398</v>
+      </c>
+      <c r="G151" s="72" t="s">
+        <v>417</v>
+      </c>
+      <c r="H151" s="72" t="s">
+        <v>418</v>
+      </c>
+      <c r="I151" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="J151" s="72" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" s="72" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A152" s="72" t="s">
+        <v>325</v>
+      </c>
+      <c r="J152" s="72" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" s="120" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A153" s="120" t="s">
+        <v>215</v>
+      </c>
+      <c r="F153" s="131" t="s">
+        <v>444</v>
+      </c>
+      <c r="G153" s="131" t="s">
+        <v>444</v>
+      </c>
+      <c r="H153" s="123" t="s">
+        <v>366</v>
+      </c>
+      <c r="I153" s="123" t="s">
+        <v>367</v>
+      </c>
+      <c r="J153" s="123" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" s="120" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A154" s="120" t="s">
+        <v>443</v>
+      </c>
+      <c r="H154" s="131" t="s">
+        <v>445</v>
+      </c>
+      <c r="I154" s="131" t="s">
+        <v>445</v>
+      </c>
+      <c r="J154" s="123"/>
+    </row>
+    <row r="156" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="158" spans="1:11" s="122" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A158" s="122" t="s">
         <v>311</v>
       </c>
-      <c r="J87" s="83" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" s="18" customFormat="1" thickTop="1" thickBot="1">
-      <c r="C88" s="84"/>
-      <c r="D88" s="21"/>
-      <c r="E88" s="84"/>
-      <c r="F88" s="84"/>
-      <c r="G88" s="84"/>
-      <c r="H88" s="84"/>
-      <c r="I88" s="84"/>
-      <c r="J88" s="84"/>
-    </row>
-    <row r="89" spans="1:10" ht="54" thickTop="1" thickBot="1">
-      <c r="B89" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="C89" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="D89" s="74" t="s">
-        <v>185</v>
-      </c>
-      <c r="E89" s="82" t="s">
-        <v>186</v>
-      </c>
-      <c r="F89" s="82" t="s">
-        <v>336</v>
-      </c>
-      <c r="G89" s="82"/>
-      <c r="H89" s="82" t="s">
-        <v>187</v>
-      </c>
-      <c r="I89" s="82" t="s">
-        <v>277</v>
-      </c>
-      <c r="J89" s="82" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B90" s="74" t="s">
-        <v>314</v>
-      </c>
-      <c r="C90" s="82"/>
-      <c r="D90" s="74"/>
-      <c r="E90" s="82"/>
-      <c r="F90" s="82"/>
-      <c r="G90" s="82"/>
-      <c r="H90" s="82"/>
-      <c r="I90" s="82"/>
-      <c r="J90" s="82" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B91" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="C91" s="82" t="s">
-        <v>184</v>
-      </c>
-      <c r="D91" s="74"/>
-      <c r="E91" s="82"/>
-      <c r="F91" s="82" t="s">
-        <v>335</v>
-      </c>
-      <c r="G91" s="82"/>
-      <c r="H91" s="82"/>
-      <c r="I91" s="82" t="s">
-        <v>276</v>
-      </c>
-      <c r="J91" s="82" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B92" s="74" t="s">
-        <v>160</v>
-      </c>
-      <c r="C92" s="82"/>
-      <c r="D92" s="74"/>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="82"/>
-      <c r="H92" s="82"/>
-      <c r="I92" s="82"/>
-      <c r="J92" s="82" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B93" s="74" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="85" t="s">
-        <v>92</v>
-      </c>
-      <c r="D93" s="82"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="82" t="s">
-        <v>206</v>
-      </c>
-      <c r="G93" s="82" t="s">
-        <v>93</v>
-      </c>
-      <c r="H93" s="82"/>
-      <c r="I93" s="82"/>
-      <c r="J93" s="74"/>
-    </row>
-    <row r="94" spans="1:10" thickTop="1" thickBot="1">
-      <c r="B94" s="74"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="82"/>
-      <c r="G94" s="82"/>
-      <c r="H94" s="82"/>
-      <c r="I94" s="82"/>
-      <c r="J94" s="74"/>
-    </row>
-    <row r="95" spans="1:10" thickTop="1" thickBot="1">
-      <c r="B95" s="74"/>
-      <c r="C95" s="85"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="82"/>
-      <c r="G95" s="82"/>
-      <c r="H95" s="82"/>
-      <c r="I95" s="82"/>
-      <c r="J95" s="74"/>
-    </row>
-    <row r="96" spans="1:10" thickTop="1" thickBot="1">
-      <c r="B96" s="74"/>
-      <c r="C96" s="85"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="82"/>
-      <c r="H96" s="82"/>
-      <c r="I96" s="82"/>
-      <c r="J96" s="74"/>
-    </row>
-    <row r="101" spans="1:9" s="18" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="102" spans="1:9" thickTop="1" thickBot="1">
-      <c r="C102" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" s="88" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A103" s="88" t="s">
-        <v>20</v>
-      </c>
-      <c r="C103" s="88" t="s">
-        <v>21</v>
-      </c>
-      <c r="D103" s="88" t="s">
-        <v>22</v>
-      </c>
-      <c r="E103" s="88" t="s">
-        <v>72</v>
-      </c>
-      <c r="F103" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" s="88" t="s">
-        <v>71</v>
-      </c>
-      <c r="H103" s="88" t="s">
-        <v>70</v>
-      </c>
-      <c r="I103" s="88" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" s="88" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B104" s="88" t="s">
-        <v>69</v>
-      </c>
-      <c r="E104" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="F104" s="89" t="s">
-        <v>129</v>
-      </c>
-      <c r="H104" s="89" t="s">
-        <v>130</v>
-      </c>
-      <c r="I104" s="89" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" s="88" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B105" s="88" t="s">
-        <v>68</v>
-      </c>
-      <c r="C105" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="F105" s="89"/>
-      <c r="H105" s="89" t="s">
-        <v>327</v>
-      </c>
-      <c r="I105" s="89" t="s">
+      <c r="B158" s="122" t="s">
+        <v>352</v>
+      </c>
+      <c r="C158" s="122" t="s">
+        <v>353</v>
+      </c>
+      <c r="D158" s="122" t="s">
+        <v>354</v>
+      </c>
+      <c r="E158" s="122" t="s">
+        <v>355</v>
+      </c>
+      <c r="F158" s="122" t="s">
+        <v>356</v>
+      </c>
+      <c r="G158" s="122" t="s">
+        <v>357</v>
+      </c>
+      <c r="H158" s="122" t="s">
+        <v>358</v>
+      </c>
+      <c r="I158" s="122" t="s">
+        <v>359</v>
+      </c>
+      <c r="J158" s="122" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" s="121" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A159" s="121" t="s">
+        <v>323</v>
+      </c>
+      <c r="E159" s="121" t="s">
+        <v>399</v>
+      </c>
+      <c r="F159" s="121" t="s">
+        <v>411</v>
+      </c>
+      <c r="H159" s="121" t="s">
+        <v>411</v>
+      </c>
+      <c r="I159" s="121" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" s="121" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A160" s="121" t="s">
+        <v>324</v>
+      </c>
+      <c r="E160" s="121" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="121" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A161" s="121" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="6" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A162" s="6" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" s="88" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B106" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="D106" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="E106" s="89" t="s">
-        <v>167</v>
-      </c>
-      <c r="F106" s="89" t="s">
-        <v>168</v>
-      </c>
-      <c r="G106" s="89" t="s">
-        <v>318</v>
-      </c>
-      <c r="H106" s="89" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" s="88" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="B107" s="88" t="s">
-        <v>91</v>
-      </c>
-      <c r="D107" s="89" t="s">
-        <v>98</v>
-      </c>
-      <c r="E107" s="89" t="s">
-        <v>324</v>
-      </c>
-      <c r="F107" s="89" t="s">
-        <v>171</v>
-      </c>
-      <c r="G107" s="89" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" s="88" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="B108" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="89" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" s="88" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B109" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="D109" s="89" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" s="88" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B110" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="D110" s="89" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" s="88" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B111" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="D111" s="89" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" s="88" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B112" s="88" t="s">
-        <v>160</v>
-      </c>
-      <c r="D112" s="89" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" s="88" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="D113" s="89" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" thickTop="1" thickBot="1">
-      <c r="D114" s="72"/>
-    </row>
-    <row r="116" spans="1:17" s="18" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="117" spans="1:17" thickTop="1" thickBot="1">
-      <c r="A117" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" s="92" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A118" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="B118" s="93" t="s">
-        <v>214</v>
-      </c>
-      <c r="C118" s="47" t="s">
-        <v>215</v>
-      </c>
-      <c r="D118" s="104" t="s">
-        <v>216</v>
-      </c>
-      <c r="E118" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="F118" s="95" t="s">
-        <v>218</v>
-      </c>
-      <c r="G118" s="96" t="s">
+      <c r="D162" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="E162" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="G162" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="I162" s="24" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="169" spans="1:9" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="170" spans="1:9" s="26" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A170" s="26" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="87" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A171" s="26"/>
+    </row>
+    <row r="172" spans="1:9" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="173" spans="1:9" thickTop="1" thickBot="1">
+      <c r="A173" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="H118" s="94" t="s">
-        <v>232</v>
-      </c>
-      <c r="I118" s="90" t="s">
+    </row>
+    <row r="174" spans="1:9" thickTop="1" thickBot="1">
+      <c r="A174" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="J118" s="98" t="s">
+    </row>
+    <row r="175" spans="1:9" thickTop="1" thickBot="1">
+      <c r="A175" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="K118" s="101" t="s">
-        <v>222</v>
-      </c>
-      <c r="L118" s="100" t="s">
-        <v>223</v>
-      </c>
-      <c r="M118" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="N118" s="103" t="s">
-        <v>225</v>
-      </c>
-      <c r="O118" s="86" t="s">
+    </row>
+    <row r="176" spans="1:9" ht="13.2">
+      <c r="A176" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="P118" s="107" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q118" s="106" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" s="18" customFormat="1" thickTop="1" thickBot="1">
-      <c r="C119" s="47"/>
-      <c r="D119" s="47"/>
-      <c r="E119" s="47"/>
-      <c r="G119" s="47"/>
-      <c r="J119" s="47"/>
-      <c r="K119" s="54"/>
-      <c r="M119" s="47"/>
-    </row>
-    <row r="120" spans="1:17" s="92" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
-      <c r="A120" s="27" t="s">
-        <v>249</v>
-      </c>
-      <c r="B120" s="108" t="s">
-        <v>251</v>
-      </c>
-      <c r="C120" s="50" t="s">
-        <v>252</v>
-      </c>
-      <c r="D120" s="104"/>
-      <c r="E120" s="109" t="s">
-        <v>253</v>
-      </c>
-      <c r="F120" s="110" t="s">
-        <v>254</v>
-      </c>
-      <c r="G120" s="111" t="s">
-        <v>255</v>
-      </c>
-      <c r="H120" s="112" t="s">
-        <v>256</v>
-      </c>
-      <c r="I120" s="113" t="s">
-        <v>300</v>
-      </c>
-      <c r="J120" s="114" t="s">
-        <v>257</v>
-      </c>
-      <c r="K120" s="101"/>
-      <c r="L120" s="100"/>
-      <c r="M120" s="115" t="s">
-        <v>258</v>
-      </c>
-      <c r="N120" s="116" t="s">
-        <v>259</v>
-      </c>
-      <c r="O120" s="87" t="s">
-        <v>260</v>
-      </c>
-      <c r="P120" s="117" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q120" s="106"/>
-    </row>
-    <row r="121" spans="1:17" s="18" customFormat="1" thickTop="1" thickBot="1">
-      <c r="C121" s="47"/>
-      <c r="D121" s="47"/>
-      <c r="E121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="J121" s="47"/>
-      <c r="K121" s="54"/>
-      <c r="M121" s="47"/>
-    </row>
-    <row r="122" spans="1:17" s="91" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A122" s="27" t="s">
-        <v>245</v>
-      </c>
-      <c r="B122" s="93" t="s">
-        <v>280</v>
-      </c>
-      <c r="C122" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="D122" s="105" t="s">
-        <v>287</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="F122" s="95" t="s">
-        <v>290</v>
-      </c>
-      <c r="G122" s="97" t="s">
-        <v>244</v>
-      </c>
-      <c r="H122" s="94" t="s">
-        <v>267</v>
-      </c>
-      <c r="I122" s="90" t="s">
-        <v>301</v>
-      </c>
-      <c r="J122" s="99" t="s">
-        <v>268</v>
-      </c>
-      <c r="K122" s="102" t="s">
-        <v>296</v>
-      </c>
-      <c r="L122" s="100" t="s">
-        <v>299</v>
-      </c>
-      <c r="M122" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="N122" s="103" t="s">
-        <v>270</v>
-      </c>
-      <c r="O122" s="86"/>
-      <c r="P122" s="107"/>
-      <c r="Q122" s="106"/>
-    </row>
-    <row r="123" spans="1:17" s="91" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A123" s="27" t="s">
-        <v>229</v>
-      </c>
-      <c r="B123" s="93" t="s">
-        <v>281</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="D123" s="105" t="s">
-        <v>288</v>
-      </c>
-      <c r="E123" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="F123" s="95" t="s">
-        <v>291</v>
-      </c>
-      <c r="G123" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="H123" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="I123" s="90" t="s">
-        <v>265</v>
-      </c>
-      <c r="J123" s="99" t="s">
-        <v>271</v>
-      </c>
-      <c r="K123" s="102" t="s">
-        <v>297</v>
-      </c>
-      <c r="L123" s="100" t="s">
-        <v>297</v>
-      </c>
-      <c r="M123" s="10"/>
-      <c r="N123" s="103" t="s">
-        <v>233</v>
-      </c>
-      <c r="O123" s="86" t="s">
-        <v>273</v>
-      </c>
-      <c r="P123" s="107"/>
-      <c r="Q123" s="106"/>
-    </row>
-    <row r="124" spans="1:17" s="91" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A124" s="27" t="s">
-        <v>246</v>
-      </c>
-      <c r="B124" s="93"/>
-      <c r="C124" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D124" s="105"/>
-      <c r="E124" s="9"/>
-      <c r="F124" s="95" t="s">
-        <v>228</v>
-      </c>
-      <c r="G124" s="97" t="s">
-        <v>247</v>
-      </c>
-      <c r="H124" s="94" t="s">
-        <v>294</v>
-      </c>
-      <c r="I124" s="90" t="s">
-        <v>294</v>
-      </c>
-      <c r="J124" s="99"/>
-      <c r="K124" s="120" t="s">
-        <v>295</v>
-      </c>
-      <c r="L124" s="121" t="s">
-        <v>295</v>
-      </c>
-      <c r="M124" s="10"/>
-      <c r="N124" s="116" t="s">
-        <v>274</v>
-      </c>
-      <c r="O124" s="87" t="s">
-        <v>274</v>
-      </c>
-      <c r="P124" s="107"/>
-      <c r="Q124" s="106"/>
-    </row>
-    <row r="125" spans="1:17" s="91" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="A125" s="27" t="s">
-        <v>231</v>
-      </c>
-      <c r="B125" s="108" t="s">
-        <v>283</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>286</v>
-      </c>
-      <c r="D125" s="105"/>
-      <c r="E125" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="F125" s="110" t="s">
-        <v>293</v>
-      </c>
-      <c r="G125" s="118" t="s">
-        <v>292</v>
-      </c>
-      <c r="H125" s="112" t="s">
-        <v>263</v>
-      </c>
-      <c r="I125" s="113" t="s">
-        <v>304</v>
-      </c>
-      <c r="J125" s="119" t="s">
-        <v>269</v>
-      </c>
-      <c r="K125" s="120" t="s">
-        <v>298</v>
-      </c>
-      <c r="L125" s="100"/>
-      <c r="M125" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="N125" s="116" t="s">
-        <v>272</v>
-      </c>
-      <c r="O125" s="86"/>
-      <c r="P125" s="107"/>
-      <c r="Q125" s="106"/>
-    </row>
-    <row r="126" spans="1:17" s="91" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="A126" s="27" t="s">
-        <v>230</v>
-      </c>
-      <c r="B126" s="108" t="s">
-        <v>282</v>
-      </c>
-      <c r="C126" s="20"/>
-      <c r="D126" s="105"/>
-      <c r="E126" s="22"/>
-      <c r="F126" s="95"/>
-      <c r="G126" s="118"/>
-      <c r="H126" s="112" t="s">
-        <v>264</v>
-      </c>
-      <c r="I126" s="90"/>
-      <c r="J126" s="99"/>
-      <c r="K126" s="102"/>
-      <c r="L126" s="100"/>
-      <c r="M126" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="N126" s="103"/>
-      <c r="O126" s="86"/>
-      <c r="P126" s="107"/>
-      <c r="Q126" s="106"/>
-    </row>
-    <row r="128" spans="1:17" s="18" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="130" spans="1:18" thickTop="1" thickBot="1">
-      <c r="A130" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F130" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G130" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="H130" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="I130" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="J130" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="K130" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="L130" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="131" spans="1:18" thickTop="1" thickBot="1">
-      <c r="A131" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="132" spans="1:18" thickTop="1" thickBot="1">
-      <c r="A132" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="133" spans="1:18" thickTop="1" thickBot="1">
-      <c r="A133" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" thickTop="1" thickBot="1">
-      <c r="A134" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" s="18" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="138" spans="1:18" thickTop="1" thickBot="1">
-      <c r="A138" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="F138" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="H138" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="I138" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="J138" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="K138" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="L138" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="M138" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="N138" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="O138" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="P138" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="Q138" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="R138" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" thickTop="1" thickBot="1">
-      <c r="A139" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="140" spans="1:18" thickTop="1" thickBot="1">
-      <c r="A140" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="141" spans="1:18" thickTop="1" thickBot="1">
-      <c r="A141" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" thickTop="1" thickBot="1">
-      <c r="A142" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" s="18" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="146" spans="1:11" thickTop="1" thickBot="1">
-      <c r="A146" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="I146" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="K146" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" thickTop="1" thickBot="1">
-      <c r="A147" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="148" spans="1:11" thickTop="1" thickBot="1">
-      <c r="A148" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="149" spans="1:11" thickTop="1" thickBot="1">
-      <c r="A149" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" thickTop="1" thickBot="1">
-      <c r="A150" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" s="18" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="154" spans="1:11" thickTop="1" thickBot="1">
-      <c r="A154" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="H154" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="I154" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="J154" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" thickTop="1" thickBot="1">
-      <c r="A155" s="1" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" thickTop="1" thickBot="1">
-      <c r="A156" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="157" spans="1:11" thickTop="1" thickBot="1">
-      <c r="A157" s="1" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" thickTop="1" thickBot="1">
-      <c r="A158" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" s="18" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="163" spans="1:7" thickTop="1" thickBot="1">
-      <c r="A163" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" thickTop="1" thickBot="1">
-      <c r="B164" s="86"/>
-      <c r="C164" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E164" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F164" s="122" t="s">
-        <v>29</v>
-      </c>
-      <c r="G164" s="96" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="165" spans="1:7" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B165" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="C165" s="8"/>
-      <c r="D165" s="9"/>
-      <c r="E165" s="10"/>
-      <c r="F165" s="123"/>
-      <c r="G165" s="118" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="166" spans="1:7" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B166" s="86" t="s">
-        <v>314</v>
-      </c>
-      <c r="C166" s="8"/>
-      <c r="D166" s="9"/>
-      <c r="E166" s="10"/>
-      <c r="F166" s="123"/>
-      <c r="G166" s="118" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B167" s="86" t="s">
-        <v>314</v>
-      </c>
-      <c r="C167" s="8"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="123"/>
-      <c r="G167" s="118" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="168" spans="1:7" thickTop="1" thickBot="1">
-      <c r="B168" s="86" t="s">
-        <v>314</v>
-      </c>
-      <c r="C168" s="8"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="10"/>
-      <c r="F168" s="123"/>
-      <c r="G168" s="97"/>
-    </row>
-    <row r="169" spans="1:7" thickTop="1" thickBot="1">
-      <c r="B169" s="86"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="10"/>
-      <c r="F169" s="123"/>
-      <c r="G169" s="97"/>
-    </row>
-    <row r="171" spans="1:7" s="18" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="172" spans="1:7" s="27" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A172" s="27" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" s="93" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A173" s="27"/>
-    </row>
-    <row r="174" spans="1:7" s="18" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="175" spans="1:7" thickTop="1" thickBot="1">
-      <c r="A175" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" thickTop="1" thickBot="1">
-      <c r="A176" s="1" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="177" spans="1:1" thickTop="1" thickBot="1">
       <c r="A177" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" ht="13.2">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" thickTop="1" thickBot="1">
       <c r="A178" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" ht="13.2">
-      <c r="A179" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" ht="13.2"/>
-    <row r="181" spans="1:1" ht="13.2"/>
-    <row r="182" spans="1:1" ht="13.2"/>
-    <row r="183" spans="1:1" ht="13.2"/>
-    <row r="184" spans="1:1" ht="13.2"/>
-    <row r="185" spans="1:1" ht="13.2"/>
-    <row r="186" spans="1:1" ht="13.2"/>
-    <row r="188" spans="1:1" ht="13.2"/>
-    <row r="190" spans="1:1" ht="13.2"/>
-    <row r="191" spans="1:1" ht="13.2"/>
-    <row r="195" ht="13.2"/>
-    <row r="196" ht="13.2"/>
-    <row r="197"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="182" spans="1:1" ht="13.2">
+      <c r="A182" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" ht="13.2">
+      <c r="A183" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" ht="13.2">
+      <c r="A184" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" ht="13.2">
+      <c r="A185" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" ht="13.2">
+      <c r="A186" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" thickTop="1" thickBot="1">
+      <c r="A187" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" thickTop="1" thickBot="1">
+      <c r="A188" s="1" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" thickTop="1" thickBot="1">
+      <c r="A189" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" thickTop="1" thickBot="1">
+      <c r="A190" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="194" spans="1:3" ht="13.2"/>
+    <row r="195" spans="1:3" ht="13.2">
+      <c r="A195" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" thickTop="1" thickBot="1">
+      <c r="B196" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" ht="13.2"/>
+    <row r="200" spans="1:3" ht="13.2"/>
+    <row r="201" spans="1:3" ht="13.2"/>
+    <row r="202" spans="1:3" ht="13.2"/>
+    <row r="205" spans="1:3" ht="13.2"/>
+    <row r="206" spans="1:3" ht="13.2"/>
+    <row r="207" spans="1:3" ht="13.2"/>
+    <row r="208" spans="1:3" ht="13.2"/>
+    <row r="209" ht="13.2"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project-A/風水評価の説明/風水関連.xlsx
+++ b/project-A/風水評価の説明/風水関連.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="474">
   <si>
     <t>五行</t>
     <rPh sb="0" eb="2">
@@ -1549,23 +1549,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ピンクで恋愛運アップ</t>
-    <rPh sb="4" eb="6">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>陰陽がマイナスのとき0にする</t>
-    <rPh sb="0" eb="2">
-      <t>インヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>上げすぎで下がる運気</t>
     <rPh sb="0" eb="1">
       <t>ア</t>
@@ -1579,19 +1562,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>強いと上がる運気</t>
-    <rPh sb="0" eb="1">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ウンキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>陰と陽は互いに中和する(中和しきれない陰，または陽があると何かしらの悪影響(一定以上で))．陰陽がマイナスのとき陰，プラスのとき陽（ある程度の陽気は大丈夫）</t>
     <rPh sb="0" eb="1">
       <t>イン</t>
@@ -1649,22 +1619,6 @@
   <si>
     <t>イライラ
 ダウン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>北東の寝室は金運アップ</t>
-    <rPh sb="0" eb="2">
-      <t>ホクトウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シンシツ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ウン</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1962,28 +1916,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>五行の気がそれぞれ200超えたら気が強すぎと判断</t>
-    <rPh sb="0" eb="2">
-      <t>ゴギョウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ハンダン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>超過判定…</t>
     <rPh sb="0" eb="2">
       <t>チョウカ</t>
@@ -2006,203 +1938,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ツヨ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>それぞれの気が200超えてたら200とみなして加算，つまり最大1000となる</t>
-    <rPh sb="5" eb="6">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>カサン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>サイダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>相克する気&lt;=相克される気の場合，相克する気は1/4へり，相克される気は相克するの1/2だけ減る</t>
-    <rPh sb="0" eb="2">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ヘ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>相生する気&gt;相生される気の場合，相生する気は相生される気の1/4へり，相生される気は1/2ふえる</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ソウショウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソウショウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>相克する気&gt;相克される気の場合，相克する気は相克される気の1/4だけ減り，相克される気は1/2減る</t>
-    <rPh sb="0" eb="2">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ソウコク</t>
-    </rPh>
-    <rPh sb="42" eb="43">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>ヘ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ハンゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>相生する気&lt;=相生される気の場合，相生する気は1/4へり，相生される気は相生する気の1/2だけ増える</t>
-    <rPh sb="0" eb="1">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ソウショウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="29" eb="30">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ソウ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>セイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="47" eb="48">
-      <t>フ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2238,128 +1973,6 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>ホウシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>陰気が20より高い場合,
-陰気の強さ-20だけ上記の運気が減少</t>
-    <rPh sb="0" eb="2">
-      <t>インキ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>インキ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ウンキ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ゲンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>陽気が200より高い場合，
-陽気の強さ-200だけ上記の運気が減少</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヨウキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ジョウキ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ウンキ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ゲンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>土 + 40</t>
-    <rPh sb="0" eb="1">
-      <t>ツチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>火 + 50,
-水 + 50 
-金 + 10</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>キン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>水 + 60</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>水 + 100</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>土 + 100</t>
-    <rPh sb="0" eb="1">
-      <t>ツチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>木 + 100</t>
-    <rPh sb="0" eb="1">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>火 + 100</t>
-    <rPh sb="0" eb="1">
-      <t>ヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>金 + 100</t>
-    <rPh sb="0" eb="1">
-      <t>キン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2490,103 +2103,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>仕事運 += 木の気の4/5
-健康運 += 木の気の1/5</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>金運 += 金の気</t>
-    <rPh sb="0" eb="2">
-      <t>キンウン</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>200以上で下がる運気</t>
-    <rPh sb="3" eb="5">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ウンキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事運 -= (木の気-200)×2</t>
-    <rPh sb="0" eb="3">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>健康運 -= (土の気-200)×2</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>金運 -= (金の気-200)×2</t>
-    <rPh sb="0" eb="2">
-      <t>キンウン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ベッド</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2674,128 +2190,6 @@
     </rPh>
     <rPh sb="4" eb="5">
       <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>植物の種類にもよる
-花瓶にもよる</t>
-    <rPh sb="0" eb="2">
-      <t>ショクブツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カビン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>植物の種類による
-花瓶にもよる</t>
-    <rPh sb="0" eb="2">
-      <t>ショクブツ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シュルイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カビン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>西,  北西方向で金運アップ
-金運 += 20</t>
-    <rPh sb="0" eb="1">
-      <t>ニシ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホウコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>キンウン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キンウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>西，西南は食べ物が傷みやすい
-健康運 -= 20</t>
-    <rPh sb="0" eb="1">
-      <t>ニシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>セイナン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>モノ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>イタ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>東,南東は風に関連があり相性よし
-健康運 += 20(東の場合)
-健康運 += 30(南東の場合)</t>
-    <rPh sb="0" eb="1">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナントウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カゼ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>アイショウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="35" eb="36">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="43" eb="44">
-      <t>ミナミ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2839,65 +2233,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>東，南東，北西は明るく風通しが良い
-健康運 += 20</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>丸い鏡は運気吸収
-全ての運気1.2倍
-(運勢ラスト)</t>
-    <rPh sb="0" eb="1">
-      <t>マル</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カガミ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ウンキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キュウシュウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ウンキ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ウンセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>四角い鏡は運気反射
-全ての運気0.8倍
-(運勢ラスト)</t>
-    <rPh sb="0" eb="2">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カガミ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ウンキ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハンシャ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ウンセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>陰陽の中和(陰陽を1/2にする)
 (陰陽ラスト)</t>
     <rPh sb="0" eb="2">
@@ -2944,33 +2279,6 @@
     </rPh>
     <rPh sb="29" eb="31">
       <t>キンウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>運気の入り口
-全ての運が1.5倍
-(運勢ラスト)</t>
-    <rPh sb="0" eb="2">
-      <t>ウンキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>グチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ウンセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3019,61 +2327,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>元々，健康運に悪影響
-健康運 -= 50</t>
-    <rPh sb="0" eb="2">
-      <t>モトモト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>アクエイキョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>温かみのある色の家具で健康運アップ
-健康運 += 10 (一個につき)</t>
-    <rPh sb="0" eb="1">
-      <t>アタタ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カグ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>イッコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>背の高い家具で運勢アップ</t>
-  </si>
-  <si>
     <t>背の低い家具で運勢アップ
 全ての運 += 5 (1個につき)</t>
     <rPh sb="0" eb="1">
@@ -3230,41 +2483,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>北に水の気が高い家具を置くと恋愛↑
-恋愛運 += 5(1個につき)</t>
-    <rPh sb="0" eb="1">
-      <t>キタ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カグ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>コ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>ぬいぐるみ</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3327,55 +2545,6 @@
     </rPh>
     <rPh sb="25" eb="26">
       <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>陽気が強すぎると良い運気を取り込めない
-(健康運中心下がる)
-健康運 -50
-その他 -10</t>
-    <rPh sb="0" eb="2">
-      <t>ヨウキ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ウンキ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>チュウシン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>テイカ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="41" eb="42">
-      <t>タ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3401,35 +2570,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>天然素材，木製1個につき健康運アップ
-健康運 +5</t>
-    <rPh sb="0" eb="2">
-      <t>テンネン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ソザイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モクセイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">
 </t>
     <phoneticPr fontId="2"/>
@@ -3728,20 +2868,6 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>インキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>寝室にベッドなし
-全ての運-30</t>
-    <rPh sb="0" eb="2">
-      <t>シンシツ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ウン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3891,32 +3017,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>カグ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>青で健康運上がる(安眠)
-健康運 +10</t>
-    <rPh sb="0" eb="1">
-      <t>アオ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>アンミン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ウン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4402,34 +3502,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>金一つにつき
-金運1.2倍
-その他1.1倍
-(運勢ラスト)</t>
-    <rPh sb="0" eb="1">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キンウン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>タ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>ウンセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>若干陰気より</t>
     <rPh sb="0" eb="2">
       <t>ジャッカン</t>
@@ -4454,31 +3526,6 @@
     <t>高級になるかもしれない</t>
     <rPh sb="0" eb="2">
       <t>コウキュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>高級家具で金運アップ
-金運 + 5</t>
-    <rPh sb="0" eb="2">
-      <t>コウキュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カグ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キンウン</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>キンウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>西洋風家具で金運アップ
-金運 + 5</t>
-    <rPh sb="12" eb="14">
-      <t>キンウン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4539,23 +3586,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>白一つにつき
-マイナスの運勢0.9倍</t>
-    <rPh sb="0" eb="1">
-      <t>シロ</t>
-    </rPh>
-    <rPh sb="1" eb="2">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ウンセイ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>バイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>陰陽が0.5倍
 (五行陰陽ラスト)</t>
     <rPh sb="0" eb="2">
@@ -4592,26 +3622,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>インキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1つにつき色による加算(減算)補正を
-1.2倍にする</t>
-    <rPh sb="5" eb="6">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>カサン</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ゲンザン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ホセイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>バイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4807,19 +3817,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>土の気が強い</t>
-    <rPh sb="0" eb="1">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ツヨ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>茶色一つでもあれば
 プラスの運気1.1倍
 (黄との兼ね合い不可)</t>
@@ -4923,130 +3920,6 @@
     </rPh>
     <rPh sb="12" eb="13">
       <t>リョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>金運 ，恋愛運 
-(全ての気 + 水の気(max200))/10増加</t>
-    <rPh sb="10" eb="11">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ゾウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">全ての運
-陽気が200以下, 陰気が20以上のとき
-(全ての気+土の気(max200))/20増加
-それ以外の場合
-(全ての気+土の気max200)/40減少
-</t>
-    <rPh sb="5" eb="7">
-      <t>ヨウキ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>インキ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>イジョウ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ゾウカ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事運2
-(全ての気 + 木の気(max200))/5増加</t>
-    <rPh sb="6" eb="7">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ゾウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>金運
-恋愛運
-(全ての気 + 金の気(max200))/10増加</t>
-    <rPh sb="8" eb="9">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カネ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ゾウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事運
-金運
-(全ての気 + 金の気(max200))/10増加</t>
-    <rPh sb="8" eb="9">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カネ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ゾウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5099,42 +3972,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>恋愛運 += 水の気の4/5
-仕事運 += 水の気の1/5
-(金運アップ？、不確か, 未実装)</t>
-    <rPh sb="0" eb="2">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>キンウン</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>フタシ</t>
-    </rPh>
-    <rPh sb="43" eb="46">
-      <t>ミジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>リビングに家庭写真で家族運アップ(仕事運，人気運，健康運?)</t>
     <rPh sb="5" eb="7">
       <t>カテイ</t>
@@ -5166,185 +4003,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>健康運 += 土の気の1/5
-金運 += 土の気の1/5
-仕事運 += 土の気の1/5
-恋愛運 += 土の気の1/5
-人気運 += 土の気の1/5
-本来なら家庭運アップ</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>キンウン</t>
-    </rPh>
-    <rPh sb="21" eb="22">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="68" eb="69">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ホンライ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>カテイ</t>
-    </rPh>
-    <rPh sb="81" eb="82">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>健康運
-仕事運
-(全ての気 + 土の気(max200))/10増加
-(家族運)</t>
-    <rPh sb="9" eb="10">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ツチ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ゾウカ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カゾク</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>家庭運に関連あり
-健康運
-人気運
-仕事運が1.1倍</t>
-    <rPh sb="0" eb="2">
-      <t>カテイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンレン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>バイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事運に関係あり
-仕事運が1.3倍</t>
-    <rPh sb="0" eb="3">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>バイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>陰気強い
-陰気 + 50</t>
-    <rPh sb="0" eb="2">
-      <t>インキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>インキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>陰気強い
-陰気 + 40</t>
-    <rPh sb="0" eb="2">
-      <t>インキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>インキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>部屋の中の家具について</t>
     <rPh sb="0" eb="2">
       <t>ヘヤ</t>
@@ -5354,104 +4012,6 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>カグ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>寝室は運気を吸収する場所
-健康運1.3倍
-その他の運気1,2倍(運勢ラスト)</t>
-    <rPh sb="13" eb="15">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>バイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>タ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>人気運 += 火の気の3/5
-健康運 += 火の気の1/5
-仕事運 += 火の気の1/5
-(人気運のほか，美容運・・・？)</t>
-    <rPh sb="0" eb="2">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="30" eb="33">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="49" eb="50">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>ビヨウ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>人気運
-健康運
-美容運も?
-(全ての気 + 火の気(max200))/10増加</t>
-    <rPh sb="9" eb="11">
-      <t>ビヨウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ゾウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6029,37 +4589,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>美容運 = 人気運，恋愛運，仕事運，健康運</t>
-    <rPh sb="0" eb="2">
-      <t>ビヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="14" eb="17">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>人間関係運 = 人気運，恋愛運</t>
     <rPh sb="0" eb="2">
       <t>ニンゲン</t>
@@ -6206,90 +4735,6 @@
     </rPh>
     <rPh sb="17" eb="19">
       <t>ガイトウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>恋愛運2
-(人気運 未実装)
-(全ての気 + 木の気(max200))/5増加</t>
-    <rPh sb="6" eb="8">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ミジッソウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ゾウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風，音で運勢アップ
-恋愛運 + 5(一個につき)
-人気運 + 5(一個につき)</t>
-    <rPh sb="2" eb="3">
-      <t>オト</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>イッコ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>イッコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>風，音で運勢アップ
-恋愛運 + 5 (一個につき)
-人気運 + 5(一個につき)</t>
-    <rPh sb="2" eb="3">
-      <t>オト</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>イッコ</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>イッコ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6318,31 +4763,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>東，南東，西，北西の寝室は美容運アップ？</t>
-    <rPh sb="0" eb="1">
-      <t>ヒガシ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ナントウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ニシ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ホクセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シンシツ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ビヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>イライラ = (健康運), 仕事運,恋愛運マイナス</t>
     <rPh sb="8" eb="10">
       <t>ケンコウ</t>
@@ -6362,27 +4782,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>仕事運
-恋愛運
-(健康運？)</t>
-    <rPh sb="0" eb="3">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>落ち着き = 仕事運</t>
     <rPh sb="0" eb="1">
       <t>オ</t>
@@ -6402,34 +4801,6 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>チュウワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>健康運
-人気運
-恋愛運
-(仕事?)</t>
-    <rPh sb="0" eb="2">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>シゴト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -6501,56 +4872,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>恋愛運 - 20(1種類につき)</t>
-    <rPh sb="0" eb="2">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>一つでもあれば
-仕事運 + 20
-人気運 + 20
-美容運 (恋愛運、健康運)+ 20?</t>
-    <rPh sb="0" eb="1">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>ビヨウ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="33" eb="34">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>陰気がつよいと恋愛運(復縁)ダウン?
 恋愛運 - 30</t>
     <rPh sb="0" eb="2">
@@ -6647,80 +4968,6 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>基本は中性
-藤は若干陰性
-枯れ木は強い陰性
-若木は陽性</t>
-    <rPh sb="3" eb="5">
-      <t>チュウセイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>フジ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジャッカン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>インセイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>インセイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ワカギ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>ヨウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>仕事運 -= (火の気-200)
-恋愛運 -= (火の気-200)
-(健康運?)
-イライラ？</t>
-    <rPh sb="0" eb="2">
-      <t>シゴト</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>レンアイ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>ウン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -7086,29 +5333,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>水の気
-金魚を飼うと金の気</t>
-    <rPh sb="0" eb="1">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キンギョ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>キ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>淡い色はもれなく金の気が付属</t>
     <rPh sb="0" eb="1">
       <t>アワ</t>
@@ -7162,35 +5386,6 @@
     </rPh>
     <rPh sb="12" eb="14">
       <t>トクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>鬼門(北東，南西)は注意が必要
-全ての運 - 40 (陰気が20より↑)</t>
-    <rPh sb="0" eb="2">
-      <t>キモン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ホクトウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ナンセイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>スベ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>インキ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -7338,45 +5533,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>(健康運 -= 水の気-200)要る？
-金運 -= 水の気-200
-人気運？(未実装)</t>
-    <rPh sb="1" eb="3">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>イ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>キンウン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ミズ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="39" eb="42">
-      <t>ミジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>北東(変化の方角なので変化をでかく)</t>
     <rPh sb="0" eb="2">
       <t>ホクトウ</t>
@@ -7438,48 +5594,6 @@
     </rPh>
     <rPh sb="21" eb="23">
       <t>ショウシツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>北西の金の気が強すぎると独善的に
-仕事運 -(金の気-200)
-人気運-(金の気-200)</t>
-    <rPh sb="0" eb="2">
-      <t>ホクセイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ツヨ</t>
-    </rPh>
-    <rPh sb="12" eb="15">
-      <t>ドクゼンテキ</t>
-    </rPh>
-    <rPh sb="17" eb="20">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>ニンキ</t>
-    </rPh>
-    <rPh sb="34" eb="35">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>キン</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>キ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -7567,6 +5681,2460 @@
     </rPh>
     <rPh sb="26" eb="27">
       <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運 + 木の気の4/5
+健康運 + 木の気の1/5</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>健康運 + 土の気の1/5
+金運 + 土の気の1/5
+仕事運 + 土の気の1/5
+恋愛運 + 土の気の1/5
+人気運 + 土の気の1/5
+本来なら家庭運アップ</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ホンライ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金運 + 金の気</t>
+    <rPh sb="0" eb="2">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>方角が五行の気を
+持っているという解釈</t>
+    <rPh sb="0" eb="2">
+      <t>ホウガク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カイシャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>運気が五行と対応付けられている</t>
+    <rPh sb="0" eb="2">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴギョウ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>タイオウヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人気運や美容運アップ</t>
+    <rPh sb="0" eb="2">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ビヨウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>気の循環を良くする
+旺気，邪気 0.9倍</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュンカン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ジャキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最初に相生効果を適用し</t>
+    <rPh sb="0" eb="2">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>後に相克効果を適用する</t>
+    <rPh sb="0" eb="1">
+      <t>アト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テキヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鋭い葉っぱは人が寝たり座ったりする場所
+から離れた場所に置くとよい</t>
+    <rPh sb="0" eb="1">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ネ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>スワ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ハナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>植物の種類にもよる
+花瓶にもよる
+鋭い葉っぱは火の気強め
+丸い葉っぱはenum形状の円形もつ</t>
+    <rPh sb="0" eb="2">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カビン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スルド</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ケイジョウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>エンケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土の気が強い
+木の気も持つ</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>極めて強い陽気</t>
+    <rPh sb="0" eb="1">
+      <t>キワ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>照明</t>
+    <rPh sb="0" eb="2">
+      <t>ショウメイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>強い火の気</t>
+    <rPh sb="0" eb="1">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>強い陽気</t>
+    <rPh sb="0" eb="1">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金魚を飼うと金の気</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>藤は若干陰性
+枯れ木は強い陰性
+若木は陽性
+葉が上向きは陽気
+葉が下向きは陰気
+植物の種類による
+花瓶にもよる</t>
+    <rPh sb="40" eb="42">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カビン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>基本は中性</t>
+    <rPh sb="3" eb="5">
+      <t>チュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>布，紙製のシェードは陰気つよい(最終的中性)
+木製も陰の傾向で木の気
+金属シェードは陽気強い
+ガラスシェード金属より弱い陽気
+陶磁器製シェードは土の気</t>
+    <rPh sb="0" eb="1">
+      <t>ヌノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カミセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>サイシュウテキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>チュウセイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>モクセイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>イン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケイコウ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>キンゾク</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>キンゾク</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="63" eb="66">
+      <t>トウジキ</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フロアランプは部屋の気を増やす</t>
+    <rPh sb="7" eb="9">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アップライトは気の循環高める</t>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ジュンカン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>タカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スポットライト，四隅に置くと効果的</t>
+    <rPh sb="8" eb="9">
+      <t>ヨン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スミ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウカ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャンデリア強い陽気(高級家具)</t>
+    <rPh sb="6" eb="7">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウキュウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カグ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>四角い鏡は運気反射(特に悪い気を)
+全ての運気0.8倍
+(運勢ラスト)</t>
+    <rPh sb="0" eb="2">
+      <t>シカク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カガミ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハンシャ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ウンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>丸い鏡は運気吸収(特に良い気を)
+全ての運気1.2倍
+(運勢ラスト)</t>
+    <rPh sb="0" eb="1">
+      <t>マル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カガミ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キュウシュウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ウンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">本来はリビングにあるもの
+</t>
+    <rPh sb="0" eb="2">
+      <t>ホンライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>本来はリビングにあるもの</t>
+    <rPh sb="0" eb="2">
+      <t>ホンライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>健康運
+人気運
+恋愛運
+仕事運</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運
+恋愛運
+健康運</t>
+    <rPh sb="0" eb="3">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水 + 160(均等分配)</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>キントウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ブンパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土 + 160(均等分配)</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木 + 160(均等分配)</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火 + 160(均等分配)</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金 + 160(均等分配)</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相克する気の1/2 &lt;= 相克される気の場合，相克する気は1/4だけ減り，相克される気は相克する気の1/2だけ減る</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ヘ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>五行の気がそれぞれ300超えたら気が強すぎと判断</t>
+    <rPh sb="0" eb="2">
+      <t>ゴギョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ハンダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>それぞれの気が300超えてたら300とみなして加算，つまり最大1500となる</t>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>300以上で下がる運気</t>
+    <rPh sb="3" eb="5">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ウンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰気が30より高い場合,
+陰気の強さ-30だけ上記の邪気が上がる</t>
+    <rPh sb="0" eb="2">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ジャキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陽気が300より高い場合，
+陽気の強さ-300だけ上記の邪気が上がる</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ジャキ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北西の金の気が強すぎると独善的に
+仕事運 -(金の気-300)
+人気運-(金の気-300)</t>
+    <rPh sb="0" eb="2">
+      <t>ホクセイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ドクゼンテキ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>特性</t>
+    <rPh sb="0" eb="2">
+      <t>トクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>良い運気を取り込む</t>
+  </si>
+  <si>
+    <t>良い運気を取り込む(重要)</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>悪い運気を払う</t>
+  </si>
+  <si>
+    <t>部屋作りのポイント1</t>
+    <rPh sb="0" eb="2">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヅク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>悪い運気を払う(重要)</t>
+    <rPh sb="0" eb="1">
+      <t>ワル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鬼門(北東，南西)は注意が必要
+全ての運 - 40 (陰気が30より↑)</t>
+    <rPh sb="0" eb="2">
+      <t>キモン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホクトウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ナンセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>インキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>美容運 = 人気運，恋愛運，健康運</t>
+    <rPh sb="0" eb="2">
+      <t>ビヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>青で健康運上がる(安眠)一つごとに
+健康運 +10</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>アンミン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>寝室は運気を吸収する場所
+旺気，邪気共に
+健康運1.3倍
+その他の運気1,2倍(運勢ラスト)</t>
+    <rPh sb="14" eb="15">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジャキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>トモ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>西,  北西方向で金運アップ
+(コメントのみ)</t>
+    <rPh sb="0" eb="1">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キンウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>家庭運に関連あり
+健康運
+人気運
+仕事運が1.1倍(旺気も邪気も)</t>
+    <rPh sb="0" eb="2">
+      <t>カテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジャキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運に関係あり
+仕事運が1.3倍(旺気も邪気も)</t>
+    <rPh sb="0" eb="3">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジャキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火 + 96(分配),
+水 + 96(分配) 
+金 + 32(分配)</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンパイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ブンパイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ブンパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>水 + 128(分配)</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ブンパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰気強い
+陰気 + 96(分配)</t>
+    <rPh sb="0" eb="2">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ブンパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>陰気強い
+陰気 + 128(分配)</t>
+    <rPh sb="0" eb="2">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ブンパイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>土 + 64(分配)（本当?）</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ブンパイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ホントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木 + 64(本当?)</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相克する気の1/2 &gt; 相克される気の場合，相克する気は相克される気の1/2減り，相克される気全部なくなる</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ソウコク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>ゼンブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>運気の入り口
+全ての運の旺気，邪気1.5倍</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東，南東，西，北西の寝室は美容運アップ？
+人気運 + 10
+健康運 + 5
+恋愛運 + 5</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナントウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホクセイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シンシツ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ビヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北東の寝室は金運アップ(貯蓄運)
+金運 + 20</t>
+    <rPh sb="0" eb="2">
+      <t>ホクトウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンシツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チョチク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キンウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>強いと上がる運気(300まで)</t>
+    <rPh sb="0" eb="1">
+      <t>ツヨ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ウンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運 - (火の気-300)/3
+恋愛運 - (火の気-300)/3
+健康運 - (火の気-300)/3
+イライラ？</t>
+    <rPh sb="0" eb="2">
+      <t>シゴト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>健康運 - (水の気-300)/5
+金運 - (水の気-300)*2/5
+人気運 - (水の気 -300)*2/5</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>人気運 + 火の気の3/5
+健康運 + 火の気の1/5
+恋愛運 + 火の気の1/5
+(人気運のほか，美容運・・・？)</t>
+    <rPh sb="0" eb="2">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ビヨウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運 - (木の気-300)</t>
+    <rPh sb="0" eb="3">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>健康運 - (土の気-300)</t>
+    <rPh sb="0" eb="2">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金運 - (金の気-300)</t>
+    <rPh sb="0" eb="2">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>恋愛運 + 水の気の3/5
+仕事運 + 水の気の1/5
+金運 + 水の気の1/5</t>
+    <rPh sb="0" eb="2">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">金運 ，恋愛運
+旺気 
+(全ての気/5 + 水の気(max300))/4
+</t>
+    <rPh sb="8" eb="9">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">全ての運
+旺気
+(全ての気/5+土の気(max300))/10
+陽気が300以上, 陰気が30以上
+邪気
+(全ての気/5+土の気max300)/20 
+</t>
+    <rPh sb="5" eb="6">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヨウキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>インキ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ジャキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運
+旺気
+(全ての気/5 + 木の気(max300))/2</t>
+    <rPh sb="4" eb="5">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>恋愛運
+旺気
+(全ての気/5 + 木の気(max300))3/10
+人気運
+旺気
+(全ての気/5 + 木の気(max300))/5</t>
+    <rPh sb="4" eb="5">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>美容運も?
+人気運
+旺気
+(全ての気/5 + 火の気(max300)) 3/10
+健康運，恋愛運
+旺気
+(全ての気/5 + 火の気(max300)) /10</t>
+    <rPh sb="10" eb="11">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>(家族運)
+仕事運, 人気運，健康運
+旺気
+(全ての気/5 + 土の気(max300))/6</t>
+    <rPh sb="11" eb="13">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金運 , 恋愛運
+旺気
+(全ての気/5 + 金の気(max300))/4</t>
+    <rPh sb="9" eb="10">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>仕事運, 金運
+旺気
+(全ての気/5 + 金の気(max300))/4</t>
+    <rPh sb="8" eb="9">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>カネ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相生する気の1/2 &lt;= 相生される気の場合，相生する気は1/4だけ減り，相生する気は相生される気の1/2だけ増える</t>
+    <rPh sb="0" eb="1">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウショウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ソウショウ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ソウショウ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>相生する気の1/2  &gt; 相生される気の場合，相生する気は相生される気の1/2減り，相生する気は2倍になる</t>
+    <rPh sb="0" eb="2">
+      <t>ソウショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ソウショウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ソウショウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ソウショウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ソウショウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>寝室にベッドなし
+全ての運-30</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ピンクで恋愛運アップ
+恋愛運 + 10</t>
+    <rPh sb="4" eb="6">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">背の高い家具で運勢アップ
+全ての運 + 5 </t>
+    <rPh sb="13" eb="14">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元々，健康運に悪影響
+健康運 - 50</t>
+    <rPh sb="0" eb="2">
+      <t>モトモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>アクエイキョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>温かみのある色の家具で健康運アップ
+健康運 + 10 (一個につき)</t>
+    <rPh sb="0" eb="1">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>イッコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風または音で運勢アップ
+恋愛運 + 5(一個につき)
+人気運 + 5(一個につき)</t>
+    <rPh sb="4" eb="5">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>イッコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>風または音で運勢アップ
+恋愛運 + 5 (一個につき)
+人気運 + 5(一個につき)</t>
+    <rPh sb="4" eb="5">
+      <t>オト</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>イッコ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>火の気が250より大きいとき
+邪気（すべての運気）0.9倍</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ジャキ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ウンキ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>西洋風家具で金運アップ
+金運 + 10</t>
+    <rPh sb="12" eb="14">
+      <t>キンウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>高級家具で金運アップ
+金運 + 10</t>
+    <rPh sb="0" eb="2">
+      <t>コウキュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キンウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東，南東，北西は明るく風通しが良い
+健康運 + 20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>北に水の気が高い家具を置くと恋愛アップ?
+(コメント)</t>
+    <rPh sb="0" eb="1">
+      <t>キタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>レンアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天然素材，木製1個につき健康運アップ
+健康運 +10</t>
+    <rPh sb="0" eb="2">
+      <t>テンネン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モクセイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>西，西南は食べ物が傷みやすい
+健康運 - 30</t>
+    <rPh sb="0" eb="1">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイナン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>モノ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>菅原実装</t>
+    <rPh sb="0" eb="2">
+      <t>スガワラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>白，黒文字＝実装した</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>赤文字 = コメント以外実装</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>青文字= 未実装</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ミジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>東,南東は風に関連があり相性よし
+健康運 + 30</t>
+    <rPh sb="0" eb="1">
+      <t>ヒガシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ナントウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>アイショウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>恋愛運 - 20(1種類につき)(実装後回し)</t>
+    <rPh sb="0" eb="2">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>アトマワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一つでもあれば
+仕事運 + 10
+人気運 + 20
+健康運 + 10
+恋愛運 + 10
+美容運 (恋愛運、健康運)</t>
+    <rPh sb="0" eb="1">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ビヨウ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>レンアイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1つでもあれば色による加算(減算)補正を
+1.1倍にする</t>
+    <rPh sb="7" eb="8">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ゲンザン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>白1つでもあれば
+マイナスの運勢0.9倍</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ウンセイ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>金一つにつき
+プラスマイナスとも
+金運1.2倍
+その他1.1倍
+(運勢ラスト)</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>キンウン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>バイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ウンセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -7575,7 +8143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7681,7 +8249,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="4"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -7947,7 +8547,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8287,9 +8887,6 @@
     <xf numFmtId="0" fontId="5" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -8341,7 +8938,49 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8352,6 +8991,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FFFFCCCC"/>
       <color rgb="FFBDC7C7"/>
@@ -8361,7 +9001,6 @@
       <color rgb="FFFFFFCC"/>
       <color rgb="FFFFCC99"/>
       <color rgb="FFFFCC66"/>
-      <color rgb="FFFFCCFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -8638,17 +9277,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R209"/>
+  <dimension ref="A1:S217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E127" workbookViewId="0">
-      <selection activeCell="I154" sqref="I154"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" thickTop="1" thickBottom="1"/>
   <cols>
-    <col min="1" max="1" width="29.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30" style="1" customWidth="1"/>
     <col min="2" max="2" width="37.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="33.109375" style="1" customWidth="1"/>
@@ -8660,136 +9299,109 @@
     <col min="12" max="12" width="32.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="36.109375" style="1" customWidth="1"/>
     <col min="14" max="14" width="24.21875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="27.5546875" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.21875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="40.109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.88671875" style="1"/>
-    <col min="20" max="20" width="18" style="1" customWidth="1"/>
-    <col min="21" max="21" width="34" style="1" customWidth="1"/>
-    <col min="22" max="16384" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="40.77734375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="27.5546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="40.109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="30.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.88671875" style="1"/>
+    <col min="21" max="21" width="18" style="1" customWidth="1"/>
+    <col min="22" max="22" width="34" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" thickTop="1" thickBot="1">
+    <row r="1" spans="1:2" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:8" thickTop="1" thickBot="1">
+    <row r="3" spans="1:2" thickTop="1" thickBot="1">
       <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" thickTop="1" thickBot="1">
+      <c r="B4" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" thickTop="1" thickBot="1">
+      <c r="B5" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" thickTop="1" thickBot="1">
+      <c r="B6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" thickTop="1" thickBot="1">
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" thickTop="1" thickBot="1">
+      <c r="B8" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" thickTop="1" thickBot="1">
+      <c r="A10" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" thickTop="1" thickBot="1">
+      <c r="B11" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" thickTop="1" thickBot="1">
+      <c r="B12" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" thickTop="1" thickBot="1">
-      <c r="B4" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" thickTop="1" thickBot="1">
-      <c r="B5" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" thickTop="1" thickBot="1">
-      <c r="B6" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" thickTop="1" thickBot="1">
-      <c r="B7" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" thickTop="1" thickBot="1">
-      <c r="B8" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" thickTop="1" thickBot="1">
-      <c r="A10" s="1" t="s">
+    <row r="13" spans="1:2" thickTop="1" thickBot="1">
+      <c r="B13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" thickTop="1" thickBot="1">
-      <c r="B11" s="1" t="s">
+    </row>
+    <row r="14" spans="1:2" thickTop="1" thickBot="1">
+      <c r="B14" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:8" thickTop="1" thickBot="1">
-      <c r="B12" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" thickTop="1" thickBot="1">
-      <c r="B13" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" thickTop="1" thickBot="1">
-      <c r="B14" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" thickTop="1" thickBot="1">
-      <c r="A16" s="2" t="s">
+    <row r="15" spans="1:2" s="26" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A15" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="26" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A16" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="26" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A17" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="26" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A18" s="4" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A20" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-    </row>
-    <row r="17" spans="1:8" thickTop="1" thickBot="1">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" thickTop="1" thickBot="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" thickTop="1" thickBot="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:8" thickTop="1" thickBot="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>111</v>
+        <v>448</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -8798,9 +9410,13 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" thickTop="1" thickBot="1">
-      <c r="A21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>374</v>
+      </c>
       <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>449</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -8808,10 +9424,10 @@
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" thickTop="1" thickBot="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="A22" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -8821,8 +9437,12 @@
     </row>
     <row r="23" spans="1:8" thickTop="1" thickBot="1">
       <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>402</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -8831,11 +9451,9 @@
     </row>
     <row r="24" spans="1:8" thickTop="1" thickBot="1">
       <c r="A24" s="2"/>
-      <c r="B24" s="2" t="s">
-        <v>108</v>
-      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>107</v>
+        <v>428</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -8856,11 +9474,9 @@
     <row r="26" spans="1:8" thickTop="1" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>110</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -8868,171 +9484,154 @@
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" thickTop="1" thickBot="1">
-      <c r="C27" s="3" t="s">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" thickTop="1" thickBot="1">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" thickTop="1" thickBot="1">
+      <c r="C31" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F31" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" thickTop="1" thickBot="1">
-      <c r="B28" s="1" t="s">
+    <row r="32" spans="1:8" thickTop="1" thickBot="1">
+      <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E32" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F32" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G28" s="11" t="s">
+      <c r="G32" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:8" thickTop="1" thickBot="1">
-      <c r="B29" s="1" t="s">
+    <row r="33" spans="1:7" thickTop="1" thickBot="1">
+      <c r="B33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E33" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F33" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="11" t="s">
+      <c r="G33" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="12" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A30" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B30" s="12" t="s">
+    <row r="34" spans="1:7" s="12" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A34" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C34" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30" s="13" t="s">
+      <c r="D34" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G30" s="14" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="12" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A31" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="B31" s="12" t="s">
+      <c r="G34" s="14" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="12" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A35" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="E31" s="14" t="s">
+      <c r="C35" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F31" s="16" t="s">
-        <v>440</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" s="17" customFormat="1" thickTop="1" thickBot="1">
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="19"/>
-    </row>
-    <row r="33" spans="1:7" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B33" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D33" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="G33" s="11" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="93.6" thickTop="1" thickBot="1">
-      <c r="B34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D34" s="21" t="s">
-        <v>304</v>
-      </c>
-      <c r="E34" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="G34" s="25" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="54" thickTop="1" thickBot="1">
-      <c r="B35" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>396</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="F35" s="24" t="s">
-        <v>139</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>436</v>
+      <c r="F35" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="G35" s="14" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="17" customFormat="1" thickTop="1" thickBot="1">
@@ -9040,1871 +9639,2027 @@
       <c r="D36" s="18"/>
       <c r="E36" s="19"/>
       <c r="F36" s="20"/>
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" spans="1:7" s="26" customFormat="1" thickTop="1" thickBot="1">
-      <c r="C37" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="28"/>
-      <c r="E37" s="29"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="28"/>
-    </row>
-    <row r="38" spans="1:7" ht="80.400000000000006" thickTop="1" thickBot="1">
+      <c r="G36" s="19"/>
+    </row>
+    <row r="37" spans="1:7" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B37" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="93.6" thickTop="1" thickBot="1">
+      <c r="A38" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="B38" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="E38" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="F38" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="G38" s="25" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="54" thickTop="1" thickBot="1">
+      <c r="B39" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="F39" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="G39" s="25" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="1:7" s="26" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C41" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" s="28"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="28"/>
+    </row>
+    <row r="42" spans="1:7" ht="80.400000000000006" thickTop="1" thickBot="1">
+      <c r="B42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="31" t="s">
+      <c r="C42" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D42" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E42" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F42" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G38" s="34" t="s">
+      <c r="G42" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="69" thickTop="1" thickBot="1">
-      <c r="B39" s="1" t="s">
+    <row r="43" spans="1:7" ht="69" thickTop="1" thickBot="1">
+      <c r="B43" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="35" t="s">
+      <c r="C43" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="36" t="s">
+      <c r="D43" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="37" t="s">
+      <c r="E43" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F43" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="G39" s="39" t="s">
+      <c r="G43" s="39" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="20.399999999999999" thickTop="1" thickBot="1">
-      <c r="B40" s="1" t="s">
+    <row r="44" spans="1:7" ht="20.399999999999999" thickTop="1" thickBot="1">
+      <c r="B44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C40" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="D40" s="41" t="s">
+      <c r="C44" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="D44" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="42" t="s">
+      <c r="E44" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F44" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="G40" s="44" t="s">
+      <c r="G44" s="44" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:7" thickTop="1" thickBot="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="45"/>
-      <c r="D42" s="45"/>
-      <c r="E42" s="45"/>
-      <c r="F42" s="45"/>
-      <c r="G42" s="45"/>
-    </row>
-    <row r="43" spans="1:7" thickTop="1" thickBot="1">
-      <c r="A43" s="45" t="s">
+    <row r="46" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A46" s="45"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+    </row>
+    <row r="47" spans="1:7" thickTop="1" thickBot="1">
+      <c r="A47" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B43" s="45" t="s">
-        <v>89</v>
-      </c>
-      <c r="C43" s="45"/>
-      <c r="D43" s="45"/>
-      <c r="E43" s="45"/>
-      <c r="F43" s="45"/>
-      <c r="G43" s="45"/>
-    </row>
-    <row r="44" spans="1:7" thickTop="1" thickBot="1">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="46" t="s">
-        <v>47</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E44" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="F44" s="45"/>
-      <c r="G44" s="45"/>
-    </row>
-    <row r="45" spans="1:7" thickTop="1" thickBot="1">
-      <c r="A45" s="45" t="s">
-        <v>233</v>
-      </c>
-      <c r="B45" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>53</v>
-      </c>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-    </row>
-    <row r="46" spans="1:7" s="17" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A46" s="53"/>
-      <c r="B46" s="53"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-    </row>
-    <row r="47" spans="1:7" ht="39.6" thickTop="1" thickBot="1">
-      <c r="A47" s="45"/>
       <c r="B47" s="45" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47" s="50" t="s">
-        <v>380</v>
-      </c>
-      <c r="D47" s="51" t="s">
-        <v>377</v>
-      </c>
-      <c r="E47" s="52"/>
+        <v>86</v>
+      </c>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
       <c r="F47" s="45"/>
       <c r="G47" s="45"/>
     </row>
-    <row r="48" spans="1:7" ht="20.399999999999999" thickTop="1" thickBot="1">
+    <row r="48" spans="1:7" thickTop="1" thickBot="1">
       <c r="A48" s="45"/>
       <c r="B48" s="45"/>
-      <c r="C48" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="E48" s="52"/>
+      <c r="C48" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="D48" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>52</v>
+      </c>
       <c r="F48" s="45"/>
       <c r="G48" s="45"/>
     </row>
-    <row r="49" spans="1:16" s="17" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A49" s="53"/>
-      <c r="B49" s="53"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-    </row>
-    <row r="50" spans="1:16" s="26" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="D50" s="56"/>
-      <c r="E50" s="57"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="45"/>
-    </row>
-    <row r="51" spans="1:16" ht="60.6" thickTop="1" thickBot="1">
+    <row r="49" spans="1:17" thickTop="1" thickBot="1">
+      <c r="A49" s="45" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="45" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F49" s="45"/>
+      <c r="G49" s="45"/>
+    </row>
+    <row r="50" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A50" s="53"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="49"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
+      <c r="G50" s="53"/>
+    </row>
+    <row r="51" spans="1:17" ht="39.6" thickTop="1" thickBot="1">
       <c r="A51" s="45"/>
       <c r="B51" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C51" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D51" s="59" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="48" t="s">
-        <v>53</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="C51" s="50" t="s">
+        <v>395</v>
+      </c>
+      <c r="D51" s="51" t="s">
+        <v>396</v>
+      </c>
+      <c r="E51" s="52"/>
       <c r="F51" s="45"/>
       <c r="G51" s="45"/>
     </row>
-    <row r="52" spans="1:16" ht="49.2" thickTop="1" thickBot="1">
+    <row r="52" spans="1:17" ht="20.399999999999999" thickTop="1" thickBot="1">
       <c r="A52" s="45"/>
-      <c r="B52" s="45" t="s">
-        <v>30</v>
-      </c>
+      <c r="B52" s="45"/>
       <c r="C52" s="50" t="s">
-        <v>55</v>
+        <v>406</v>
       </c>
       <c r="D52" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="E52" s="52" t="s">
-        <v>57</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="E52" s="52"/>
       <c r="F52" s="45"/>
       <c r="G52" s="45"/>
     </row>
-    <row r="54" spans="1:16" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="56" spans="1:16" thickTop="1" thickBot="1">
-      <c r="A56" s="1" t="s">
+    <row r="53" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A53" s="53"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="50"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+    </row>
+    <row r="54" spans="1:17" s="26" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A54" s="45"/>
+      <c r="B54" s="45"/>
+      <c r="C54" s="27" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" s="56"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="45"/>
+      <c r="G54" s="45"/>
+    </row>
+    <row r="55" spans="1:17" ht="60.6" thickTop="1" thickBot="1">
+      <c r="A55" s="45"/>
+      <c r="B55" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" s="48" t="s">
+        <v>53</v>
+      </c>
+      <c r="F55" s="45"/>
+      <c r="G55" s="45"/>
+    </row>
+    <row r="56" spans="1:17" ht="49.2" thickTop="1" thickBot="1">
+      <c r="A56" s="45"/>
+      <c r="B56" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="E56" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="F56" s="45"/>
+      <c r="G56" s="45"/>
+    </row>
+    <row r="58" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="60" spans="1:17" thickTop="1" thickBot="1">
+      <c r="A60" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="60" customFormat="1" thickTop="1" thickBot="1">
+      <c r="B61" s="60" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="60" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" s="60" customFormat="1" thickTop="1" thickBot="1">
-      <c r="B57" s="60" t="s">
+      <c r="E61" s="60" t="s">
+        <v>117</v>
+      </c>
+      <c r="F61" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="G61" s="60" t="s">
+        <v>119</v>
+      </c>
+      <c r="H61" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="I61" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="J61" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="K61" s="60" t="s">
+        <v>143</v>
+      </c>
+      <c r="L61" s="60" t="s">
+        <v>137</v>
+      </c>
+      <c r="M61" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="N61" s="60" t="s">
+        <v>320</v>
+      </c>
+      <c r="O61" s="60" t="s">
+        <v>380</v>
+      </c>
+      <c r="P61" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q61" s="60" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="61" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A62" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="F62" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="I62" s="127" t="s">
+        <v>345</v>
+      </c>
+      <c r="J62" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="L62" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="N62" s="61" t="s">
+        <v>321</v>
+      </c>
+      <c r="O62" s="61" t="s">
+        <v>381</v>
+      </c>
+      <c r="P62" s="61" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q62" s="127" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="2" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A63" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I63" s="62" t="s">
+        <v>377</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="63" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A64" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="H64" s="63" t="s">
+        <v>379</v>
+      </c>
+      <c r="I64" s="64" t="s">
+        <v>385</v>
+      </c>
+      <c r="J64" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="K64" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="O64" s="63" t="s">
+        <v>382</v>
+      </c>
+      <c r="P64" s="63" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="65" customFormat="1" ht="93.6" thickTop="1" thickBot="1">
+      <c r="A65" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="I65" s="66" t="s">
+        <v>384</v>
+      </c>
+      <c r="O65" s="66" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" s="67" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A66" s="67" t="s">
+        <v>135</v>
+      </c>
+      <c r="B66" s="67" t="s">
+        <v>136</v>
+      </c>
+      <c r="I66" s="68" t="s">
+        <v>355</v>
+      </c>
+      <c r="L66" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="M66" s="68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" s="69" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="A67" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="133" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="134" t="s">
+        <v>394</v>
+      </c>
+      <c r="D67" s="133" t="s">
         <v>140</v>
       </c>
-      <c r="C57" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="D57" s="60" t="s">
+      <c r="E67" s="133" t="s">
+        <v>393</v>
+      </c>
+      <c r="G67" s="133" t="s">
+        <v>392</v>
+      </c>
+      <c r="H67" s="133" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67" s="133" t="s">
+        <v>128</v>
+      </c>
+      <c r="M67" s="133" t="s">
+        <v>152</v>
+      </c>
+      <c r="O67" s="134" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" s="69" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A68" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" s="133" t="s">
         <v>142</v>
       </c>
-      <c r="E57" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="F57" s="60" t="s">
-        <v>144</v>
-      </c>
-      <c r="G57" s="60" t="s">
-        <v>145</v>
-      </c>
-      <c r="H57" s="60" t="s">
-        <v>146</v>
-      </c>
-      <c r="I57" s="60" t="s">
-        <v>147</v>
-      </c>
-      <c r="J57" s="60" t="s">
+      <c r="G68" s="133" t="s">
+        <v>242</v>
+      </c>
+      <c r="I68" s="133" t="s">
+        <v>373</v>
+      </c>
+      <c r="O68" s="134" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" s="69" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A69" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="133" t="s">
+        <v>139</v>
+      </c>
+      <c r="G69" s="133" t="s">
+        <v>185</v>
+      </c>
+      <c r="I69" s="133" t="s">
+        <v>376</v>
+      </c>
+      <c r="O69" s="134" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" s="69" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
+      <c r="A70" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="133" t="s">
+        <v>243</v>
+      </c>
+      <c r="G70" s="70"/>
+      <c r="I70" s="70"/>
+      <c r="O70" s="134" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="69" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="A71" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B71" s="133" t="s">
+        <v>450</v>
+      </c>
+      <c r="G71" s="133" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" s="69" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="A72" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" s="133" t="s">
+        <v>181</v>
+      </c>
+      <c r="G72" s="133" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" s="69" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A73" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B73" s="133" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" s="69" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A74" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74" s="133" t="s">
         <v>183</v>
       </c>
-      <c r="K57" s="60" t="s">
-        <v>182</v>
-      </c>
-      <c r="L57" s="60" t="s">
-        <v>175</v>
-      </c>
-      <c r="M57" s="60" t="s">
-        <v>191</v>
-      </c>
-      <c r="N57" s="60" t="s">
-        <v>393</v>
-      </c>
-      <c r="O57" s="60" t="s">
-        <v>421</v>
-      </c>
-      <c r="P57" s="60" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="58" spans="1:16" s="61" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A58" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="B58" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="F58" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="I58" s="128" t="s">
-        <v>420</v>
-      </c>
-      <c r="J58" s="61" t="s">
-        <v>389</v>
-      </c>
-      <c r="L58" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="N58" s="61" t="s">
-        <v>394</v>
-      </c>
-      <c r="O58" s="61" t="s">
-        <v>422</v>
-      </c>
-      <c r="P58" s="128" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="59" spans="1:16" s="2" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A59" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I59" s="62" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="60" spans="1:16" s="63" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="A60" s="63" t="s">
-        <v>149</v>
-      </c>
-      <c r="I60" s="64" t="s">
-        <v>395</v>
-      </c>
-      <c r="J60" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="K60" s="63" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="61" spans="1:16" s="65" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A61" s="65" t="s">
-        <v>152</v>
-      </c>
-      <c r="I61" s="66" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:16" s="67" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A62" s="67" t="s">
-        <v>173</v>
-      </c>
-      <c r="B62" s="67" t="s">
-        <v>174</v>
-      </c>
-      <c r="I62" s="68" t="s">
-        <v>432</v>
-      </c>
-      <c r="L62" s="67" t="s">
-        <v>176</v>
-      </c>
-      <c r="M62" s="68" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:16" s="69" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="A63" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="B63" s="70" t="s">
-        <v>179</v>
-      </c>
-      <c r="D63" s="70" t="s">
-        <v>178</v>
-      </c>
-      <c r="G63" s="70" t="s">
-        <v>160</v>
-      </c>
-      <c r="H63" s="70" t="s">
-        <v>188</v>
-      </c>
-      <c r="I63" s="70" t="s">
-        <v>162</v>
-      </c>
-      <c r="M63" s="70" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" s="69" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="A64" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="B64" s="70" t="s">
-        <v>180</v>
-      </c>
-      <c r="G64" s="70" t="s">
-        <v>306</v>
-      </c>
-      <c r="I64" s="70"/>
-    </row>
-    <row r="65" spans="1:9" s="69" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="A65" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="B65" s="70" t="s">
-        <v>177</v>
-      </c>
-      <c r="G65" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="I65" s="70"/>
-    </row>
-    <row r="66" spans="1:9" s="69" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
-      <c r="A66" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="B66" s="70" t="s">
-        <v>307</v>
-      </c>
-      <c r="G66" s="70"/>
-      <c r="I66" s="70"/>
-    </row>
-    <row r="67" spans="1:9" s="69" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="A67" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="B67" s="70" t="s">
-        <v>222</v>
-      </c>
-      <c r="G67" s="70" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" s="69" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="A68" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="B68" s="70" t="s">
-        <v>223</v>
-      </c>
-      <c r="G68" s="70" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" s="69" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A69" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="B69" s="70" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" s="69" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A70" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="B70" s="70" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" s="69" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A71" s="69" t="s">
-        <v>150</v>
-      </c>
-      <c r="B71" s="70"/>
-    </row>
-    <row r="72" spans="1:9" s="69" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A72" s="69" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="69" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A73" s="69" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" s="69" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A74" s="69" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="78" spans="1:9" s="63" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A78" s="63" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" s="63" customFormat="1" thickTop="1" thickBot="1">
-      <c r="B79" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="C79" s="63" t="s">
-        <v>167</v>
-      </c>
-      <c r="D79" s="63" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" s="63" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B80" s="64" t="s">
-        <v>381</v>
-      </c>
-      <c r="C80" s="64" t="s">
-        <v>168</v>
-      </c>
-      <c r="D80" s="63" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A82" s="127"/>
-      <c r="B82" s="127"/>
-      <c r="C82" s="127"/>
-      <c r="D82" s="127"/>
-      <c r="E82" s="127"/>
-      <c r="F82" s="127"/>
-      <c r="G82" s="127"/>
-      <c r="H82" s="127"/>
-      <c r="I82" s="127"/>
-      <c r="J82" s="127"/>
-      <c r="K82" s="127"/>
-    </row>
-    <row r="83" spans="1:11" thickTop="1" thickBot="1">
-      <c r="A83" s="1" t="s">
+    </row>
+    <row r="75" spans="1:15" s="69" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A75" s="69" t="s">
+        <v>124</v>
+      </c>
+      <c r="B75" s="70"/>
+    </row>
+    <row r="76" spans="1:15" s="69" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A76" s="69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" s="69" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A77" s="69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" s="69" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A78" s="69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="82" spans="1:11" s="63" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A82" s="63" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" s="63" customFormat="1" thickTop="1" thickBot="1">
+      <c r="B83" s="63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C83" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="D83" s="63" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" s="63" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B84" s="64" t="s">
+        <v>310</v>
+      </c>
+      <c r="C84" s="64" t="s">
+        <v>133</v>
+      </c>
+      <c r="D84" s="136" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A86" s="126"/>
+      <c r="B86" s="126"/>
+      <c r="C86" s="126"/>
+      <c r="D86" s="126"/>
+      <c r="E86" s="126"/>
+      <c r="F86" s="126"/>
+      <c r="G86" s="126"/>
+      <c r="H86" s="126"/>
+      <c r="I86" s="126"/>
+      <c r="J86" s="126"/>
+      <c r="K86" s="126"/>
+    </row>
+    <row r="87" spans="1:11" thickTop="1" thickBot="1">
+      <c r="A87" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B83" s="72"/>
-      <c r="C83" s="73" t="s">
+      <c r="B87" s="72"/>
+      <c r="C87" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="73" t="s">
-        <v>437</v>
-      </c>
-      <c r="E83" s="73" t="s">
+      <c r="D87" s="73" t="s">
+        <v>359</v>
+      </c>
+      <c r="E87" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="F83" s="73" t="s">
+      <c r="F87" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G83" s="73" t="s">
+      <c r="G87" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="H83" s="72" t="s">
+      <c r="H87" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="I83" s="72" t="s">
+      <c r="I87" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="J83" s="72" t="s">
+      <c r="J87" s="72" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:11" thickTop="1" thickBot="1">
-      <c r="B84" s="72" t="s">
+    <row r="88" spans="1:11" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A88" s="71" t="s">
+        <v>370</v>
+      </c>
+      <c r="B88" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="C84" s="73" t="s">
-        <v>122</v>
-      </c>
-      <c r="D84" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="E84" s="73" t="s">
+      <c r="C88" s="73" t="s">
+        <v>397</v>
+      </c>
+      <c r="D88" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="E88" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="F88" s="73" t="s">
+        <v>399</v>
+      </c>
+      <c r="G88" s="73" t="s">
+        <v>400</v>
+      </c>
+      <c r="H88" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="I88" s="73" t="s">
+        <v>401</v>
+      </c>
+      <c r="J88" s="73" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" s="53" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="90" spans="1:11" s="69" customFormat="1" ht="80.400000000000006" thickTop="1" thickBot="1">
+      <c r="A90" s="26"/>
+      <c r="B90" s="123" t="s">
+        <v>75</v>
+      </c>
+      <c r="C90" s="124" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90" s="124" t="s">
+        <v>77</v>
+      </c>
+      <c r="E90" s="124" t="s">
+        <v>78</v>
+      </c>
+      <c r="F90" s="124" t="s">
+        <v>79</v>
+      </c>
+      <c r="G90" s="124" t="s">
+        <v>80</v>
+      </c>
+      <c r="H90" s="124" t="s">
+        <v>81</v>
+      </c>
+      <c r="I90" s="124" t="s">
+        <v>82</v>
+      </c>
+      <c r="J90" s="124" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" s="69" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A91" s="26"/>
+      <c r="B91" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="C91" s="124" t="s">
+        <v>67</v>
+      </c>
+      <c r="D91" s="124" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="F91" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="G91" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="H91" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="I91" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="J91" s="124" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="B92" s="74"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="75"/>
+      <c r="E92" s="75"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="75"/>
+      <c r="H92" s="75"/>
+      <c r="I92" s="75"/>
+      <c r="J92" s="75"/>
+    </row>
+    <row r="93" spans="1:11" ht="106.8" thickTop="1" thickBot="1">
+      <c r="B93" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="C93" s="77" t="s">
+        <v>440</v>
+      </c>
+      <c r="D93" s="76" t="s">
+        <v>441</v>
+      </c>
+      <c r="E93" s="77" t="s">
+        <v>442</v>
+      </c>
+      <c r="F93" s="77" t="s">
+        <v>443</v>
+      </c>
+      <c r="G93" s="77" t="s">
+        <v>444</v>
+      </c>
+      <c r="H93" s="77" t="s">
+        <v>445</v>
+      </c>
+      <c r="I93" s="77" t="s">
+        <v>446</v>
+      </c>
+      <c r="J93" s="77" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C94" s="78"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="78"/>
+      <c r="F94" s="78"/>
+      <c r="G94" s="78"/>
+      <c r="H94" s="78"/>
+      <c r="I94" s="78"/>
+      <c r="J94" s="78"/>
+    </row>
+    <row r="95" spans="1:11" ht="54" thickTop="1" thickBot="1">
+      <c r="B95" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="F84" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="G84" s="73" t="s">
-        <v>125</v>
-      </c>
-      <c r="H84" s="73" t="s">
-        <v>123</v>
-      </c>
-      <c r="I84" s="73" t="s">
-        <v>126</v>
-      </c>
-      <c r="J84" s="73" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" s="53" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="86" spans="1:11" s="69" customFormat="1" ht="80.400000000000006" thickTop="1" thickBot="1">
-      <c r="A86" s="26"/>
-      <c r="B86" s="124" t="s">
-        <v>75</v>
-      </c>
-      <c r="C86" s="125" t="s">
-        <v>76</v>
-      </c>
-      <c r="D86" s="125" t="s">
-        <v>77</v>
-      </c>
-      <c r="E86" s="125" t="s">
-        <v>78</v>
-      </c>
-      <c r="F86" s="125" t="s">
-        <v>79</v>
-      </c>
-      <c r="G86" s="125" t="s">
-        <v>80</v>
-      </c>
-      <c r="H86" s="125" t="s">
-        <v>81</v>
-      </c>
-      <c r="I86" s="125" t="s">
-        <v>82</v>
-      </c>
-      <c r="J86" s="125" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" s="69" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="A87" s="26"/>
-      <c r="B87" s="126" t="s">
-        <v>66</v>
-      </c>
-      <c r="C87" s="125" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" s="125" t="s">
-        <v>68</v>
-      </c>
-      <c r="E87" s="125" t="s">
-        <v>69</v>
-      </c>
-      <c r="F87" s="125" t="s">
-        <v>70</v>
-      </c>
-      <c r="G87" s="125" t="s">
-        <v>71</v>
-      </c>
-      <c r="H87" s="125" t="s">
-        <v>72</v>
-      </c>
-      <c r="I87" s="125" t="s">
-        <v>73</v>
-      </c>
-      <c r="J87" s="125" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1">
-      <c r="B88" s="74"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="75"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="75"/>
-      <c r="H88" s="75"/>
-      <c r="I88" s="75"/>
-      <c r="J88" s="75"/>
-    </row>
-    <row r="89" spans="1:11" ht="93.6" thickTop="1" thickBot="1">
-      <c r="B89" s="76" t="s">
-        <v>285</v>
-      </c>
-      <c r="C89" s="77" t="s">
-        <v>286</v>
-      </c>
-      <c r="D89" s="76" t="s">
-        <v>287</v>
-      </c>
-      <c r="E89" s="77" t="s">
-        <v>288</v>
-      </c>
-      <c r="F89" s="77" t="s">
-        <v>371</v>
-      </c>
-      <c r="G89" s="77" t="s">
-        <v>305</v>
-      </c>
-      <c r="H89" s="77" t="s">
-        <v>297</v>
-      </c>
-      <c r="I89" s="77" t="s">
-        <v>289</v>
-      </c>
-      <c r="J89" s="77" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1">
-      <c r="C90" s="78"/>
-      <c r="D90" s="20"/>
-      <c r="E90" s="78"/>
-      <c r="F90" s="78"/>
-      <c r="G90" s="78"/>
-      <c r="H90" s="78"/>
-      <c r="I90" s="78"/>
-      <c r="J90" s="78"/>
-    </row>
-    <row r="91" spans="1:11" ht="54" thickTop="1" thickBot="1">
-      <c r="B91" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="C91" s="76" t="s">
-        <v>169</v>
-      </c>
-      <c r="D91" s="72" t="s">
-        <v>171</v>
-      </c>
-      <c r="E91" s="76" t="s">
-        <v>372</v>
-      </c>
-      <c r="F91" s="76" t="s">
-        <v>373</v>
-      </c>
-      <c r="G91" s="76"/>
-      <c r="H91" s="76" t="s">
-        <v>172</v>
-      </c>
-      <c r="I91" s="76" t="s">
-        <v>259</v>
-      </c>
-      <c r="J91" s="76" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B92" s="72" t="s">
-        <v>291</v>
-      </c>
-      <c r="C92" s="76"/>
-      <c r="D92" s="72"/>
-      <c r="E92" s="76"/>
-      <c r="F92" s="76"/>
-      <c r="G92" s="76"/>
-      <c r="H92" s="76"/>
-      <c r="I92" s="76"/>
-      <c r="J92" s="76" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B93" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="C93" s="76" t="s">
-        <v>170</v>
-      </c>
-      <c r="D93" s="72"/>
-      <c r="E93" s="76"/>
-      <c r="F93" s="76" t="s">
-        <v>374</v>
-      </c>
-      <c r="G93" s="76"/>
-      <c r="H93" s="76"/>
-      <c r="I93" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="J93" s="76" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B94" s="72" t="s">
-        <v>150</v>
-      </c>
-      <c r="C94" s="76"/>
-      <c r="D94" s="72"/>
-      <c r="E94" s="76"/>
-      <c r="F94" s="76"/>
-      <c r="G94" s="76"/>
-      <c r="H94" s="76"/>
-      <c r="I94" s="76"/>
-      <c r="J94" s="76" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B95" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="C95" s="79" t="s">
-        <v>85</v>
-      </c>
-      <c r="D95" s="76"/>
-      <c r="E95" s="72"/>
+      <c r="C95" s="76" t="s">
+        <v>453</v>
+      </c>
+      <c r="D95" s="76" t="s">
+        <v>452</v>
+      </c>
+      <c r="E95" s="76" t="s">
+        <v>455</v>
+      </c>
       <c r="F95" s="76" t="s">
-        <v>190</v>
-      </c>
-      <c r="G95" s="76" t="s">
-        <v>86</v>
-      </c>
-      <c r="H95" s="76"/>
-      <c r="I95" s="76"/>
+        <v>456</v>
+      </c>
+      <c r="G95" s="76"/>
+      <c r="H95" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="I95" s="76" t="s">
+        <v>458</v>
+      </c>
       <c r="J95" s="76" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" thickTop="1" thickBot="1">
-      <c r="B96" s="72"/>
-      <c r="C96" s="79"/>
-      <c r="D96" s="76"/>
-      <c r="E96" s="72"/>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B96" s="72" t="s">
+        <v>237</v>
+      </c>
+      <c r="C96" s="76"/>
+      <c r="D96" s="72"/>
+      <c r="E96" s="76"/>
       <c r="F96" s="76"/>
       <c r="G96" s="76"/>
       <c r="H96" s="76"/>
       <c r="I96" s="76"/>
-      <c r="J96" s="72"/>
-    </row>
-    <row r="97" spans="1:10" thickTop="1" thickBot="1">
-      <c r="B97" s="72"/>
-      <c r="C97" s="79"/>
-      <c r="D97" s="76"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="76"/>
+      <c r="J96" s="76" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B97" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C97" s="76" t="s">
+        <v>454</v>
+      </c>
+      <c r="D97" s="72"/>
+      <c r="E97" s="76"/>
+      <c r="F97" s="76" t="s">
+        <v>306</v>
+      </c>
       <c r="G97" s="76"/>
       <c r="H97" s="76"/>
-      <c r="I97" s="76"/>
-      <c r="J97" s="72"/>
-    </row>
-    <row r="98" spans="1:10" thickTop="1" thickBot="1">
-      <c r="B98" s="72"/>
+      <c r="I97" s="76" t="s">
+        <v>459</v>
+      </c>
+      <c r="J97" s="76" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B98" s="72" t="s">
+        <v>124</v>
+      </c>
       <c r="C98" s="79"/>
-      <c r="D98" s="76"/>
-      <c r="E98" s="72"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="76"/>
       <c r="F98" s="76"/>
       <c r="G98" s="76"/>
       <c r="H98" s="76"/>
       <c r="I98" s="76"/>
-      <c r="J98" s="72"/>
-    </row>
-    <row r="103" spans="1:10" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="104" spans="1:10" thickTop="1" thickBot="1">
-      <c r="C104" s="1" t="s">
+      <c r="J98" s="76" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B99" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C99" s="79" t="s">
+        <v>451</v>
+      </c>
+      <c r="D99" s="76"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="G99" s="76" t="s">
+        <v>457</v>
+      </c>
+      <c r="H99" s="76"/>
+      <c r="I99" s="76"/>
+      <c r="J99" s="76" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" thickTop="1" thickBot="1">
+      <c r="B100" s="72"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="76"/>
+      <c r="E100" s="72"/>
+      <c r="F100" s="76"/>
+      <c r="G100" s="76"/>
+      <c r="H100" s="76"/>
+      <c r="I100" s="76"/>
+      <c r="J100" s="72"/>
+    </row>
+    <row r="101" spans="1:10" thickTop="1" thickBot="1">
+      <c r="B101" s="72"/>
+      <c r="C101" s="79"/>
+      <c r="D101" s="76"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="76"/>
+      <c r="G101" s="76"/>
+      <c r="H101" s="76"/>
+      <c r="I101" s="76"/>
+      <c r="J101" s="72"/>
+    </row>
+    <row r="102" spans="1:10" thickTop="1" thickBot="1">
+      <c r="B102" s="72"/>
+      <c r="C102" s="79"/>
+      <c r="D102" s="76"/>
+      <c r="E102" s="72"/>
+      <c r="F102" s="76"/>
+      <c r="G102" s="76"/>
+      <c r="H102" s="76"/>
+      <c r="I102" s="76"/>
+      <c r="J102" s="72"/>
+    </row>
+    <row r="107" spans="1:10" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="108" spans="1:10" thickTop="1" thickBot="1">
+      <c r="C108" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="82" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A105" s="82" t="s">
+    <row r="109" spans="1:10" s="82" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A109" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C105" s="82" t="s">
+      <c r="C109" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D105" s="82" t="s">
+      <c r="D109" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="E105" s="82" t="s">
+      <c r="E109" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F105" s="82" t="s">
+      <c r="F109" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="G105" s="82" t="s">
+      <c r="G109" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="H105" s="82" t="s">
+      <c r="H109" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="I105" s="82" t="s">
+      <c r="I109" s="82" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="106" spans="1:10" s="82" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B106" s="82" t="s">
+    <row r="110" spans="1:10" s="101" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B110" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="E106" s="82" t="s">
-        <v>119</v>
-      </c>
-      <c r="F106" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="H106" s="83" t="s">
-        <v>121</v>
-      </c>
-      <c r="I106" s="83" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" s="82" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B107" s="82" t="s">
+      <c r="E110" s="101" t="s">
+        <v>426</v>
+      </c>
+      <c r="F110" s="111" t="s">
+        <v>422</v>
+      </c>
+      <c r="G110" s="101" t="s">
+        <v>427</v>
+      </c>
+      <c r="H110" s="111" t="s">
+        <v>423</v>
+      </c>
+      <c r="I110" s="111" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" s="101" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B111" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="C107" s="83" t="s">
+      <c r="C111" s="111"/>
+      <c r="F111" s="111"/>
+      <c r="H111" s="111" t="s">
+        <v>424</v>
+      </c>
+      <c r="I111" s="111" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="89" customFormat="1" thickTop="1" thickBot="1">
+      <c r="B112" s="89" t="s">
+        <v>413</v>
+      </c>
+      <c r="C112" s="104" t="s">
+        <v>411</v>
+      </c>
+      <c r="D112" s="89" t="s">
+        <v>410</v>
+      </c>
+      <c r="E112" s="89" t="s">
+        <v>410</v>
+      </c>
+      <c r="F112" s="104" t="s">
+        <v>412</v>
+      </c>
+      <c r="G112" s="89" t="s">
+        <v>410</v>
+      </c>
+      <c r="H112" s="104" t="s">
+        <v>412</v>
+      </c>
+      <c r="I112" s="104" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" s="82" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B113" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" s="83" t="s">
+        <v>415</v>
+      </c>
+      <c r="D113" s="132" t="s">
+        <v>127</v>
+      </c>
+      <c r="E113" s="131" t="s">
+        <v>419</v>
+      </c>
+      <c r="F113" s="83" t="s">
+        <v>463</v>
+      </c>
+      <c r="G113" s="132" t="s">
+        <v>238</v>
+      </c>
+      <c r="H113" s="132" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" s="82" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="B114" s="82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C114" s="83" t="s">
+        <v>352</v>
+      </c>
+      <c r="D114" s="132" t="s">
+        <v>431</v>
+      </c>
+      <c r="E114" s="83" t="s">
+        <v>420</v>
+      </c>
+      <c r="F114" s="132" t="s">
+        <v>460</v>
+      </c>
+      <c r="G114" s="83" t="s">
+        <v>421</v>
+      </c>
+      <c r="H114" s="83" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" s="82" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="B115" s="82" t="s">
+        <v>353</v>
+      </c>
+      <c r="C115" s="83" t="s">
+        <v>354</v>
+      </c>
+      <c r="D115" s="132" t="s">
+        <v>430</v>
+      </c>
+      <c r="E115" s="83"/>
+      <c r="F115" s="83"/>
+      <c r="G115" s="83"/>
+    </row>
+    <row r="116" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B116" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116" s="83" t="s">
+        <v>429</v>
+      </c>
+      <c r="D116" s="83"/>
+    </row>
+    <row r="117" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B117" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C117" s="83"/>
+      <c r="D117" s="130" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B118" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="D118" s="130" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B119" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="D119" s="83" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B120" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="D120" s="83" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" s="82" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
+      <c r="B121" s="82" t="s">
+        <v>409</v>
+      </c>
+      <c r="D121" s="83" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" s="82" customFormat="1" thickTop="1" thickBot="1">
+      <c r="B122" s="82" t="s">
+        <v>409</v>
+      </c>
+      <c r="D122" s="83"/>
+    </row>
+    <row r="123" spans="1:17" thickTop="1" thickBot="1">
+      <c r="D123" s="71"/>
+    </row>
+    <row r="125" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="126" spans="1:17" thickTop="1" thickBot="1">
+      <c r="A126" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" s="86" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A127" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B127" s="87" t="s">
+        <v>157</v>
+      </c>
+      <c r="C127" s="46" t="s">
+        <v>158</v>
+      </c>
+      <c r="D127" s="98" t="s">
+        <v>159</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F127" s="89" t="s">
+        <v>161</v>
+      </c>
+      <c r="G127" s="90" t="s">
+        <v>162</v>
+      </c>
+      <c r="H127" s="88" t="s">
+        <v>175</v>
+      </c>
+      <c r="I127" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="J127" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="F107" s="83"/>
-      <c r="H107" s="83" t="s">
+      <c r="K127" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="L127" s="94" t="s">
+        <v>166</v>
+      </c>
+      <c r="M127" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="N127" s="97" t="s">
+        <v>168</v>
+      </c>
+      <c r="O127" s="80" t="s">
+        <v>169</v>
+      </c>
+      <c r="P127" s="101" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q127" s="100" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C128" s="46"/>
+      <c r="D128" s="46"/>
+      <c r="E128" s="46"/>
+      <c r="G128" s="46"/>
+      <c r="J128" s="46"/>
+      <c r="K128" s="53"/>
+      <c r="M128" s="46"/>
+    </row>
+    <row r="129" spans="1:17" s="86" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
+      <c r="A129" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B129" s="102" t="s">
+        <v>191</v>
+      </c>
+      <c r="C129" s="49" t="s">
+        <v>192</v>
+      </c>
+      <c r="D129" s="98"/>
+      <c r="E129" s="103" t="s">
+        <v>193</v>
+      </c>
+      <c r="F129" s="104" t="s">
+        <v>194</v>
+      </c>
+      <c r="G129" s="105" t="s">
+        <v>195</v>
+      </c>
+      <c r="H129" s="106" t="s">
+        <v>196</v>
+      </c>
+      <c r="I129" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="J129" s="108" t="s">
+        <v>197</v>
+      </c>
+      <c r="K129" s="95"/>
+      <c r="L129" s="94"/>
+      <c r="M129" s="109" t="s">
+        <v>198</v>
+      </c>
+      <c r="N129" s="110" t="s">
+        <v>199</v>
+      </c>
+      <c r="O129" s="81" t="s">
+        <v>200</v>
+      </c>
+      <c r="P129" s="111" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q129" s="100"/>
+    </row>
+    <row r="130" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C130" s="46"/>
+      <c r="D130" s="46"/>
+      <c r="E130" s="46"/>
+      <c r="G130" s="46"/>
+      <c r="J130" s="46"/>
+      <c r="K130" s="53"/>
+      <c r="M130" s="46"/>
+    </row>
+    <row r="131" spans="1:17" s="85" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A131" s="26" t="s">
+        <v>186</v>
+      </c>
+      <c r="B131" s="87" t="s">
+        <v>216</v>
+      </c>
+      <c r="C131" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D131" s="129" t="s">
+        <v>341</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F131" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="G131" s="112" t="s">
+        <v>317</v>
+      </c>
+      <c r="H131" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="I131" s="107" t="s">
+        <v>334</v>
+      </c>
+      <c r="J131" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="K131" s="96" t="s">
+        <v>228</v>
+      </c>
+      <c r="L131" s="94" t="s">
+        <v>231</v>
+      </c>
+      <c r="M131" s="23" t="s">
+        <v>378</v>
+      </c>
+      <c r="N131" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="O131" s="80" t="s">
+        <v>327</v>
+      </c>
+      <c r="P131" s="101" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q131" s="100" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" s="85" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A132" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B132" s="87" t="s">
+        <v>304</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="D132" s="99" t="s">
+        <v>220</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F132" s="89" t="s">
+        <v>223</v>
+      </c>
+      <c r="G132" s="91" t="s">
+        <v>205</v>
+      </c>
+      <c r="H132" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="I132" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="J132" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="K132" s="96" t="s">
+        <v>229</v>
+      </c>
+      <c r="L132" s="94" t="s">
+        <v>229</v>
+      </c>
+      <c r="M132" s="10"/>
+      <c r="N132" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="O132" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="P132" s="101"/>
+      <c r="Q132" s="100" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" s="85" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A133" s="26" t="s">
+        <v>187</v>
+      </c>
+      <c r="B133" s="87"/>
+      <c r="C133" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="D133" s="99"/>
+      <c r="E133" s="9"/>
+      <c r="F133" s="89" t="s">
+        <v>171</v>
+      </c>
+      <c r="G133" s="91" t="s">
+        <v>188</v>
+      </c>
+      <c r="H133" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="I133" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="J133" s="93"/>
+      <c r="K133" s="113" t="s">
+        <v>227</v>
+      </c>
+      <c r="L133" s="114" t="s">
+        <v>227</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c r="N133" s="110" t="s">
+        <v>212</v>
+      </c>
+      <c r="O133" s="81" t="s">
+        <v>212</v>
+      </c>
+      <c r="P133" s="101"/>
+      <c r="Q133" s="100"/>
+    </row>
+    <row r="134" spans="1:17" s="85" customFormat="1" ht="80.400000000000006" thickTop="1" thickBot="1">
+      <c r="A134" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="B134" s="138" t="s">
+        <v>217</v>
+      </c>
+      <c r="C134" s="137" t="s">
+        <v>471</v>
+      </c>
+      <c r="D134" s="99"/>
+      <c r="E134" s="21" t="s">
+        <v>470</v>
+      </c>
+      <c r="F134" s="104" t="s">
+        <v>225</v>
+      </c>
+      <c r="G134" s="112" t="s">
+        <v>224</v>
+      </c>
+      <c r="H134" s="106" t="s">
+        <v>202</v>
+      </c>
+      <c r="I134" s="141" t="s">
+        <v>234</v>
+      </c>
+      <c r="J134" s="139" t="s">
+        <v>208</v>
+      </c>
+      <c r="K134" s="113" t="s">
+        <v>230</v>
+      </c>
+      <c r="L134" s="94"/>
+      <c r="M134" s="140" t="s">
+        <v>233</v>
+      </c>
+      <c r="N134" s="142" t="s">
+        <v>473</v>
+      </c>
+      <c r="O134" s="80"/>
+      <c r="P134" s="101"/>
+      <c r="Q134" s="100"/>
+    </row>
+    <row r="135" spans="1:17" s="85" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="A135" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B135" s="138" t="s">
+        <v>472</v>
+      </c>
+      <c r="C135" s="19"/>
+      <c r="D135" s="99"/>
+      <c r="E135" s="21"/>
+      <c r="F135" s="89"/>
+      <c r="G135" s="112"/>
+      <c r="H135" s="106" t="s">
+        <v>203</v>
+      </c>
+      <c r="I135" s="84"/>
+      <c r="J135" s="93"/>
+      <c r="K135" s="96"/>
+      <c r="L135" s="94"/>
+      <c r="M135" s="140" t="s">
+        <v>235</v>
+      </c>
+      <c r="N135" s="97"/>
+      <c r="O135" s="80"/>
+      <c r="P135" s="101"/>
+      <c r="Q135" s="100"/>
+    </row>
+    <row r="137" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="139" spans="1:17" s="117" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A139" s="117" t="s">
+        <v>244</v>
+      </c>
+      <c r="B139" s="117" t="s">
+        <v>248</v>
+      </c>
+      <c r="C139" s="117" t="s">
+        <v>249</v>
+      </c>
+      <c r="D139" s="117" t="s">
+        <v>250</v>
+      </c>
+      <c r="E139" s="117" t="s">
+        <v>251</v>
+      </c>
+      <c r="F139" s="117" t="s">
+        <v>252</v>
+      </c>
+      <c r="G139" s="117" t="s">
+        <v>253</v>
+      </c>
+      <c r="H139" s="117" t="s">
+        <v>254</v>
+      </c>
+      <c r="I139" s="117" t="s">
+        <v>255</v>
+      </c>
+      <c r="J139" s="117" t="s">
+        <v>256</v>
+      </c>
+      <c r="K139" s="117" t="s">
+        <v>257</v>
+      </c>
+      <c r="L139" s="117" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" s="116" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A140" s="116" t="s">
+        <v>259</v>
+      </c>
+      <c r="B140" s="116" t="s">
+        <v>316</v>
+      </c>
+      <c r="C140" s="116" t="s">
+        <v>328</v>
+      </c>
+      <c r="D140" s="116" t="s">
+        <v>363</v>
+      </c>
+      <c r="E140" s="116" t="s">
+        <v>363</v>
+      </c>
+      <c r="F140" s="116" t="s">
+        <v>328</v>
+      </c>
+      <c r="G140" s="116" t="s">
+        <v>328</v>
+      </c>
+      <c r="H140" s="116" t="s">
+        <v>335</v>
+      </c>
+      <c r="I140" s="116" t="s">
+        <v>335</v>
+      </c>
+      <c r="J140" s="128" t="s">
+        <v>337</v>
+      </c>
+      <c r="K140" s="116" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" s="116" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A141" s="116" t="s">
+        <v>260</v>
+      </c>
+      <c r="B141" s="116" t="s">
+        <v>319</v>
+      </c>
+      <c r="C141" s="116" t="s">
+        <v>329</v>
+      </c>
+      <c r="D141" s="116" t="s">
+        <v>325</v>
+      </c>
+      <c r="E141" s="116" t="s">
+        <v>325</v>
+      </c>
+      <c r="J141" s="116" t="s">
+        <v>338</v>
+      </c>
+      <c r="K141" s="116" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" s="116" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A142" s="116" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" s="115" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A143" s="115" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="145" spans="1:19" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="147" spans="1:19" s="60" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A147" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="B147" s="60" t="s">
+        <v>263</v>
+      </c>
+      <c r="C147" s="60" t="s">
+        <v>264</v>
+      </c>
+      <c r="D147" s="60" t="s">
+        <v>265</v>
+      </c>
+      <c r="E147" s="60" t="s">
+        <v>266</v>
+      </c>
+      <c r="F147" s="60" t="s">
+        <v>267</v>
+      </c>
+      <c r="G147" s="60" t="s">
+        <v>268</v>
+      </c>
+      <c r="H147" s="60" t="s">
+        <v>269</v>
+      </c>
+      <c r="I147" s="60" t="s">
+        <v>270</v>
+      </c>
+      <c r="J147" s="60" t="s">
+        <v>271</v>
+      </c>
+      <c r="K147" s="60" t="s">
+        <v>272</v>
+      </c>
+      <c r="L147" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="M147" s="60" t="s">
+        <v>274</v>
+      </c>
+      <c r="N147" s="60" t="s">
+        <v>275</v>
+      </c>
+      <c r="P147" s="60" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q147" s="60" t="s">
+        <v>277</v>
+      </c>
+      <c r="R147" s="60" t="s">
+        <v>278</v>
+      </c>
+      <c r="S147" s="60" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="148" spans="1:19" s="61" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A148" s="61" t="s">
+        <v>259</v>
+      </c>
+      <c r="B148" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="C148" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="D148" s="61" t="s">
+        <v>316</v>
+      </c>
+      <c r="E148" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="F148" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="G148" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="H148" s="61" t="s">
+        <v>324</v>
+      </c>
+      <c r="I148" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="J148" s="61" t="s">
+        <v>328</v>
+      </c>
+      <c r="K148" s="127" t="s">
+        <v>318</v>
+      </c>
+      <c r="L148" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="M148" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="N148" s="61" t="s">
+        <v>335</v>
+      </c>
+      <c r="P148" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q148" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="R148" s="61" t="s">
+        <v>336</v>
+      </c>
+      <c r="S148" s="61" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" s="61" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A149" s="61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="150" spans="1:19" s="61" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A150" s="61" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" s="2" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A151" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="153" spans="1:19" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="155" spans="1:19" s="118" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A155" s="118" t="s">
+        <v>246</v>
+      </c>
+      <c r="B155" s="118" t="s">
+        <v>279</v>
+      </c>
+      <c r="C155" s="118" t="s">
+        <v>280</v>
+      </c>
+      <c r="D155" s="118" t="s">
+        <v>281</v>
+      </c>
+      <c r="E155" s="118" t="s">
+        <v>282</v>
+      </c>
+      <c r="F155" s="118" t="s">
+        <v>283</v>
+      </c>
+      <c r="G155" s="118" t="s">
+        <v>284</v>
+      </c>
+      <c r="H155" s="118" t="s">
+        <v>285</v>
+      </c>
+      <c r="I155" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="J155" s="118" t="s">
+        <v>287</v>
+      </c>
+      <c r="K155" s="118" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="156" spans="1:19" s="72" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A156" s="72" t="s">
+        <v>259</v>
+      </c>
+      <c r="B156" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="C156" s="72" t="s">
+        <v>330</v>
+      </c>
+      <c r="D156" s="72" t="s">
+        <v>333</v>
+      </c>
+      <c r="E156" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="F156" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="G156" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="H156" s="72" t="s">
+        <v>335</v>
+      </c>
+      <c r="I156" s="72" t="s">
+        <v>335</v>
+      </c>
+      <c r="J156" s="72" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="157" spans="1:19" s="72" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A157" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="F157" s="72" t="s">
+        <v>323</v>
+      </c>
+      <c r="G157" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="H157" s="72" t="s">
+        <v>343</v>
+      </c>
+      <c r="I157" s="72" t="s">
+        <v>319</v>
+      </c>
+      <c r="J157" s="72" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="158" spans="1:19" s="72" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A158" s="72" t="s">
+        <v>261</v>
+      </c>
+      <c r="J158" s="72" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" s="119" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A159" s="119" t="s">
+        <v>174</v>
+      </c>
+      <c r="F159" s="143" t="s">
+        <v>365</v>
+      </c>
+      <c r="G159" s="143" t="s">
+        <v>365</v>
+      </c>
+      <c r="H159" s="133" t="s">
         <v>301</v>
       </c>
-      <c r="I107" s="83" t="s">
+      <c r="I159" s="133" t="s">
+        <v>302</v>
+      </c>
+      <c r="J159" s="133" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" s="119" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A160" s="119" t="s">
+        <v>364</v>
+      </c>
+      <c r="H160" s="143" t="s">
+        <v>366</v>
+      </c>
+      <c r="I160" s="143" t="s">
+        <v>366</v>
+      </c>
+      <c r="J160" s="122"/>
+    </row>
+    <row r="162" spans="1:10" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="164" spans="1:10" s="121" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A164" s="121" t="s">
+        <v>247</v>
+      </c>
+      <c r="B164" s="121" t="s">
+        <v>288</v>
+      </c>
+      <c r="C164" s="121" t="s">
+        <v>289</v>
+      </c>
+      <c r="D164" s="121" t="s">
+        <v>290</v>
+      </c>
+      <c r="E164" s="121" t="s">
+        <v>291</v>
+      </c>
+      <c r="F164" s="121" t="s">
+        <v>292</v>
+      </c>
+      <c r="G164" s="121" t="s">
+        <v>293</v>
+      </c>
+      <c r="H164" s="121" t="s">
+        <v>294</v>
+      </c>
+      <c r="I164" s="121" t="s">
+        <v>295</v>
+      </c>
+      <c r="J164" s="121" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" s="120" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A165" s="120" t="s">
+        <v>259</v>
+      </c>
+      <c r="E165" s="120" t="s">
+        <v>324</v>
+      </c>
+      <c r="F165" s="120" t="s">
+        <v>336</v>
+      </c>
+      <c r="H165" s="120" t="s">
+        <v>336</v>
+      </c>
+      <c r="I165" s="120" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" s="120" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A166" s="120" t="s">
+        <v>260</v>
+      </c>
+      <c r="E166" s="120" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" s="120" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A167" s="120" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="6" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A168" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D168" s="144" t="s">
+        <v>297</v>
+      </c>
+      <c r="E168" s="144" t="s">
+        <v>296</v>
+      </c>
+      <c r="G168" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="I168" s="144" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="175" spans="1:10" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="176" spans="1:10" s="26" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A176" s="26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" s="87" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A177" s="26"/>
+    </row>
+    <row r="178" spans="1:1" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="179" spans="1:1" thickTop="1" thickBot="1">
+      <c r="A179" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" thickTop="1" thickBot="1">
+      <c r="A180" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" thickTop="1" thickBot="1">
+      <c r="A181" s="135" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" ht="13.2">
+      <c r="A182" s="135" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" thickTop="1" thickBot="1">
+      <c r="A183" s="135" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" thickTop="1" thickBot="1">
+      <c r="A184" s="135" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="188" spans="1:1" ht="13.2">
+      <c r="A188" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="13.2">
+      <c r="A189" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" ht="13.2">
+      <c r="A190" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" ht="13.2">
+      <c r="A191" s="1" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="82" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B108" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="C108" s="83" t="s">
-        <v>428</v>
-      </c>
-      <c r="D108" s="83" t="s">
-        <v>158</v>
-      </c>
-      <c r="E108" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="F108" s="83" t="s">
-        <v>156</v>
-      </c>
-      <c r="G108" s="83" t="s">
-        <v>292</v>
-      </c>
-      <c r="H108" s="83" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" s="82" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="B109" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="C109" s="83" t="s">
-        <v>429</v>
-      </c>
-      <c r="D109" s="83" t="s">
-        <v>91</v>
-      </c>
-      <c r="E109" s="83" t="s">
-        <v>298</v>
-      </c>
-      <c r="F109" s="83" t="s">
-        <v>159</v>
-      </c>
-      <c r="G109" s="83" t="s">
-        <v>299</v>
-      </c>
-      <c r="H109" s="83" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B110" s="82" t="s">
-        <v>430</v>
-      </c>
-      <c r="C110" s="83" t="s">
-        <v>431</v>
-      </c>
-      <c r="D110" s="83" t="s">
-        <v>375</v>
-      </c>
-      <c r="E110" s="83"/>
-      <c r="F110" s="83"/>
-      <c r="G110" s="83"/>
-    </row>
-    <row r="111" spans="1:10" s="82" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="B111" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="83" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B112" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="D112" s="83" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B113" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="D113" s="83" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B114" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="D114" s="83" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B115" s="82" t="s">
-        <v>150</v>
-      </c>
-      <c r="D115" s="83" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" s="82" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="D116" s="83" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" thickTop="1" thickBot="1">
-      <c r="D117" s="71"/>
-    </row>
-    <row r="119" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="120" spans="1:17" thickTop="1" thickBot="1">
-      <c r="A120" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" s="86" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A121" s="26" t="s">
-        <v>197</v>
-      </c>
-      <c r="B121" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="C121" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="D121" s="98" t="s">
-        <v>200</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F121" s="89" t="s">
-        <v>202</v>
-      </c>
-      <c r="G121" s="90" t="s">
-        <v>203</v>
-      </c>
-      <c r="H121" s="88" t="s">
-        <v>216</v>
-      </c>
-      <c r="I121" s="84" t="s">
-        <v>204</v>
-      </c>
-      <c r="J121" s="92" t="s">
-        <v>205</v>
-      </c>
-      <c r="K121" s="95" t="s">
-        <v>206</v>
-      </c>
-      <c r="L121" s="94" t="s">
-        <v>207</v>
-      </c>
-      <c r="M121" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="N121" s="97" t="s">
-        <v>209</v>
-      </c>
-      <c r="O121" s="80" t="s">
-        <v>210</v>
-      </c>
-      <c r="P121" s="101" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q121" s="100" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1">
-      <c r="C122" s="46"/>
-      <c r="D122" s="46"/>
-      <c r="E122" s="46"/>
-      <c r="G122" s="46"/>
-      <c r="J122" s="46"/>
-      <c r="K122" s="53"/>
-      <c r="M122" s="46"/>
-    </row>
-    <row r="123" spans="1:17" s="86" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
-      <c r="A123" s="26" t="s">
-        <v>232</v>
-      </c>
-      <c r="B123" s="102" t="s">
-        <v>234</v>
-      </c>
-      <c r="C123" s="49" t="s">
-        <v>235</v>
-      </c>
-      <c r="D123" s="98"/>
-      <c r="E123" s="103" t="s">
-        <v>236</v>
-      </c>
-      <c r="F123" s="104" t="s">
-        <v>237</v>
-      </c>
-      <c r="G123" s="105" t="s">
-        <v>238</v>
-      </c>
-      <c r="H123" s="106" t="s">
-        <v>239</v>
-      </c>
-      <c r="I123" s="107" t="s">
-        <v>280</v>
-      </c>
-      <c r="J123" s="108" t="s">
-        <v>240</v>
-      </c>
-      <c r="K123" s="95"/>
-      <c r="L123" s="94"/>
-      <c r="M123" s="109" t="s">
-        <v>241</v>
-      </c>
-      <c r="N123" s="110" t="s">
-        <v>242</v>
-      </c>
-      <c r="O123" s="81" t="s">
-        <v>243</v>
-      </c>
-      <c r="P123" s="111" t="s">
-        <v>244</v>
-      </c>
-      <c r="Q123" s="100"/>
-    </row>
-    <row r="124" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1">
-      <c r="C124" s="46"/>
-      <c r="D124" s="46"/>
-      <c r="E124" s="46"/>
-      <c r="G124" s="46"/>
-      <c r="J124" s="46"/>
-      <c r="K124" s="53"/>
-      <c r="M124" s="46"/>
-    </row>
-    <row r="125" spans="1:17" s="85" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A125" s="26" t="s">
-        <v>228</v>
-      </c>
-      <c r="B125" s="87" t="s">
-        <v>262</v>
-      </c>
-      <c r="C125" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="D125" s="130" t="s">
-        <v>416</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="F125" s="89" t="s">
-        <v>270</v>
-      </c>
-      <c r="G125" s="112" t="s">
-        <v>390</v>
-      </c>
-      <c r="H125" s="88" t="s">
-        <v>249</v>
-      </c>
-      <c r="I125" s="107" t="s">
-        <v>409</v>
-      </c>
-      <c r="J125" s="93" t="s">
-        <v>250</v>
-      </c>
-      <c r="K125" s="96" t="s">
-        <v>276</v>
-      </c>
-      <c r="L125" s="94" t="s">
-        <v>279</v>
-      </c>
-      <c r="M125" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="N125" s="97" t="s">
-        <v>252</v>
-      </c>
-      <c r="O125" s="80" t="s">
-        <v>402</v>
-      </c>
-      <c r="P125" s="101" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q125" s="100" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="126" spans="1:17" s="85" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A126" s="26" t="s">
-        <v>213</v>
-      </c>
-      <c r="B126" s="87" t="s">
-        <v>369</v>
-      </c>
-      <c r="C126" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="D126" s="99" t="s">
-        <v>268</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="F126" s="89" t="s">
-        <v>271</v>
-      </c>
-      <c r="G126" s="91" t="s">
-        <v>248</v>
-      </c>
-      <c r="H126" s="88" t="s">
-        <v>247</v>
-      </c>
-      <c r="I126" s="84" t="s">
-        <v>247</v>
-      </c>
-      <c r="J126" s="93" t="s">
-        <v>253</v>
-      </c>
-      <c r="K126" s="96" t="s">
-        <v>277</v>
-      </c>
-      <c r="L126" s="94" t="s">
-        <v>277</v>
-      </c>
-      <c r="M126" s="10"/>
-      <c r="N126" s="97" t="s">
-        <v>217</v>
-      </c>
-      <c r="O126" s="80" t="s">
-        <v>255</v>
-      </c>
-      <c r="P126" s="101"/>
-      <c r="Q126" s="100" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="127" spans="1:17" s="85" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A127" s="26" t="s">
-        <v>229</v>
-      </c>
-      <c r="B127" s="87"/>
-      <c r="C127" s="19" t="s">
-        <v>257</v>
-      </c>
-      <c r="D127" s="99"/>
-      <c r="E127" s="9"/>
-      <c r="F127" s="89" t="s">
-        <v>212</v>
-      </c>
-      <c r="G127" s="91" t="s">
-        <v>230</v>
-      </c>
-      <c r="H127" s="88" t="s">
-        <v>274</v>
-      </c>
-      <c r="I127" s="84" t="s">
-        <v>274</v>
-      </c>
-      <c r="J127" s="93"/>
-      <c r="K127" s="114" t="s">
-        <v>275</v>
-      </c>
-      <c r="L127" s="115" t="s">
-        <v>275</v>
-      </c>
-      <c r="M127" s="10"/>
-      <c r="N127" s="110" t="s">
-        <v>256</v>
-      </c>
-      <c r="O127" s="81" t="s">
-        <v>256</v>
-      </c>
-      <c r="P127" s="101"/>
-      <c r="Q127" s="100"/>
-    </row>
-    <row r="128" spans="1:17" s="85" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="A128" s="26" t="s">
-        <v>215</v>
-      </c>
-      <c r="B128" s="102" t="s">
-        <v>264</v>
-      </c>
-      <c r="C128" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="D128" s="99"/>
-      <c r="E128" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="F128" s="104" t="s">
-        <v>273</v>
-      </c>
-      <c r="G128" s="112" t="s">
-        <v>272</v>
-      </c>
-      <c r="H128" s="106" t="s">
-        <v>245</v>
-      </c>
-      <c r="I128" s="107" t="s">
-        <v>283</v>
-      </c>
-      <c r="J128" s="113" t="s">
-        <v>251</v>
-      </c>
-      <c r="K128" s="114" t="s">
-        <v>278</v>
-      </c>
-      <c r="L128" s="94"/>
-      <c r="M128" s="23" t="s">
-        <v>282</v>
-      </c>
-      <c r="N128" s="110" t="s">
-        <v>254</v>
-      </c>
-      <c r="O128" s="80"/>
-      <c r="P128" s="101"/>
-      <c r="Q128" s="100"/>
-    </row>
-    <row r="129" spans="1:18" s="85" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="A129" s="26" t="s">
-        <v>214</v>
-      </c>
-      <c r="B129" s="102" t="s">
-        <v>263</v>
-      </c>
-      <c r="C129" s="19"/>
-      <c r="D129" s="99"/>
-      <c r="E129" s="21"/>
-      <c r="F129" s="89"/>
-      <c r="G129" s="112"/>
-      <c r="H129" s="106" t="s">
-        <v>246</v>
-      </c>
-      <c r="I129" s="84"/>
-      <c r="J129" s="93"/>
-      <c r="K129" s="96"/>
-      <c r="L129" s="94"/>
-      <c r="M129" s="23" t="s">
-        <v>284</v>
-      </c>
-      <c r="N129" s="97"/>
-      <c r="O129" s="80"/>
-      <c r="P129" s="101"/>
-      <c r="Q129" s="100"/>
-    </row>
-    <row r="131" spans="1:18" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="133" spans="1:18" s="118" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A133" s="118" t="s">
+    <row r="192" spans="1:1" ht="13.2">
+      <c r="A192" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" thickTop="1" thickBot="1">
+      <c r="A193" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="B133" s="118" t="s">
+    </row>
+    <row r="194" spans="1:3" thickTop="1" thickBot="1">
+      <c r="A194" s="135" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" thickTop="1" thickBot="1">
+      <c r="A195" s="135" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" thickTop="1" thickBot="1">
+      <c r="A196" s="135" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="200" spans="1:3" ht="13.2"/>
+    <row r="201" spans="1:3" ht="13.2">
+      <c r="A201" s="135" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" thickTop="1" thickBot="1">
+      <c r="B202" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C133" s="118" t="s">
+      <c r="C202" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="D133" s="118" t="s">
-        <v>314</v>
-      </c>
-      <c r="E133" s="118" t="s">
-        <v>315</v>
-      </c>
-      <c r="F133" s="118" t="s">
-        <v>316</v>
-      </c>
-      <c r="G133" s="118" t="s">
-        <v>317</v>
-      </c>
-      <c r="H133" s="118" t="s">
-        <v>318</v>
-      </c>
-      <c r="I133" s="118" t="s">
-        <v>319</v>
-      </c>
-      <c r="J133" s="118" t="s">
-        <v>320</v>
-      </c>
-      <c r="K133" s="118" t="s">
-        <v>321</v>
-      </c>
-      <c r="L133" s="118" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="134" spans="1:18" s="117" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A134" s="117" t="s">
-        <v>323</v>
-      </c>
-      <c r="B134" s="117" t="s">
-        <v>389</v>
-      </c>
-      <c r="C134" s="117" t="s">
-        <v>403</v>
-      </c>
-      <c r="D134" s="117" t="s">
-        <v>442</v>
-      </c>
-      <c r="E134" s="117" t="s">
-        <v>442</v>
-      </c>
-      <c r="F134" s="117" t="s">
-        <v>403</v>
-      </c>
-      <c r="G134" s="117" t="s">
-        <v>403</v>
-      </c>
-      <c r="H134" s="117" t="s">
-        <v>410</v>
-      </c>
-      <c r="I134" s="117" t="s">
-        <v>410</v>
-      </c>
-      <c r="J134" s="129" t="s">
-        <v>412</v>
-      </c>
-      <c r="K134" s="117" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="135" spans="1:18" s="117" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A135" s="117" t="s">
-        <v>324</v>
-      </c>
-      <c r="B135" s="117" t="s">
-        <v>392</v>
-      </c>
-      <c r="C135" s="117" t="s">
-        <v>404</v>
-      </c>
-      <c r="D135" s="117" t="s">
-        <v>400</v>
-      </c>
-      <c r="E135" s="117" t="s">
-        <v>400</v>
-      </c>
-      <c r="J135" s="117" t="s">
-        <v>413</v>
-      </c>
-      <c r="K135" s="117" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="136" spans="1:18" s="117" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A136" s="117" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="137" spans="1:18" s="116" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A137" s="116" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="139" spans="1:18" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="141" spans="1:18" s="60" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A141" s="60" t="s">
-        <v>309</v>
-      </c>
-      <c r="B141" s="60" t="s">
-        <v>327</v>
-      </c>
-      <c r="C141" s="60" t="s">
-        <v>328</v>
-      </c>
-      <c r="D141" s="60" t="s">
-        <v>329</v>
-      </c>
-      <c r="E141" s="60" t="s">
-        <v>330</v>
-      </c>
-      <c r="F141" s="60" t="s">
-        <v>331</v>
-      </c>
-      <c r="G141" s="60" t="s">
-        <v>332</v>
-      </c>
-      <c r="H141" s="60" t="s">
-        <v>333</v>
-      </c>
-      <c r="I141" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="J141" s="60" t="s">
-        <v>335</v>
-      </c>
-      <c r="K141" s="60" t="s">
-        <v>336</v>
-      </c>
-      <c r="L141" s="60" t="s">
-        <v>337</v>
-      </c>
-      <c r="M141" s="60" t="s">
-        <v>338</v>
-      </c>
-      <c r="N141" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="O141" s="60" t="s">
-        <v>340</v>
-      </c>
-      <c r="P141" s="60" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q141" s="60" t="s">
-        <v>342</v>
-      </c>
-      <c r="R141" s="60" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="142" spans="1:18" s="61" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A142" s="61" t="s">
-        <v>323</v>
-      </c>
-      <c r="B142" s="61" t="s">
-        <v>389</v>
-      </c>
-      <c r="C142" s="61" t="s">
-        <v>389</v>
-      </c>
-      <c r="D142" s="61" t="s">
-        <v>389</v>
-      </c>
-      <c r="E142" s="61" t="s">
-        <v>399</v>
-      </c>
-      <c r="F142" s="61" t="s">
-        <v>399</v>
-      </c>
-      <c r="G142" s="61" t="s">
-        <v>399</v>
-      </c>
-      <c r="H142" s="61" t="s">
-        <v>399</v>
-      </c>
-      <c r="I142" s="61" t="s">
-        <v>403</v>
-      </c>
-      <c r="J142" s="61" t="s">
-        <v>403</v>
-      </c>
-      <c r="K142" s="128" t="s">
-        <v>391</v>
-      </c>
-      <c r="L142" s="61" t="s">
-        <v>410</v>
-      </c>
-      <c r="M142" s="61" t="s">
-        <v>410</v>
-      </c>
-      <c r="N142" s="61" t="s">
-        <v>410</v>
-      </c>
-      <c r="O142" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="P142" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q142" s="61" t="s">
-        <v>411</v>
-      </c>
-      <c r="R142" s="61" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="143" spans="1:18" s="61" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A143" s="61" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="144" spans="1:18" s="61" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A144" s="61" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="145" spans="1:11" s="2" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A145" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="147" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="149" spans="1:11" s="119" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A149" s="119" t="s">
-        <v>310</v>
-      </c>
-      <c r="B149" s="119" t="s">
-        <v>343</v>
-      </c>
-      <c r="C149" s="119" t="s">
-        <v>344</v>
-      </c>
-      <c r="D149" s="119" t="s">
-        <v>345</v>
-      </c>
-      <c r="E149" s="119" t="s">
-        <v>346</v>
-      </c>
-      <c r="F149" s="119" t="s">
-        <v>347</v>
-      </c>
-      <c r="G149" s="119" t="s">
-        <v>348</v>
-      </c>
-      <c r="H149" s="119" t="s">
-        <v>349</v>
-      </c>
-      <c r="I149" s="119" t="s">
-        <v>350</v>
-      </c>
-      <c r="J149" s="119" t="s">
-        <v>351</v>
-      </c>
-      <c r="K149" s="119" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="150" spans="1:11" s="72" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A150" s="72" t="s">
-        <v>323</v>
-      </c>
-      <c r="B150" s="72" t="s">
-        <v>407</v>
-      </c>
-      <c r="C150" s="72" t="s">
-        <v>405</v>
-      </c>
-      <c r="D150" s="72" t="s">
-        <v>408</v>
-      </c>
-      <c r="E150" s="72" t="s">
-        <v>406</v>
-      </c>
-      <c r="F150" s="72" t="s">
-        <v>403</v>
-      </c>
-      <c r="G150" s="72" t="s">
-        <v>403</v>
-      </c>
-      <c r="H150" s="72" t="s">
-        <v>410</v>
-      </c>
-      <c r="I150" s="72" t="s">
-        <v>410</v>
-      </c>
-      <c r="J150" s="72" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="151" spans="1:11" s="72" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A151" s="72" t="s">
-        <v>324</v>
-      </c>
-      <c r="F151" s="72" t="s">
-        <v>398</v>
-      </c>
-      <c r="G151" s="72" t="s">
-        <v>417</v>
-      </c>
-      <c r="H151" s="72" t="s">
-        <v>418</v>
-      </c>
-      <c r="I151" s="72" t="s">
-        <v>392</v>
-      </c>
-      <c r="J151" s="72" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" s="72" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A152" s="72" t="s">
-        <v>325</v>
-      </c>
-      <c r="J152" s="72" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="153" spans="1:11" s="120" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="A153" s="120" t="s">
-        <v>215</v>
-      </c>
-      <c r="F153" s="131" t="s">
-        <v>444</v>
-      </c>
-      <c r="G153" s="131" t="s">
-        <v>444</v>
-      </c>
-      <c r="H153" s="123" t="s">
-        <v>366</v>
-      </c>
-      <c r="I153" s="123" t="s">
-        <v>367</v>
-      </c>
-      <c r="J153" s="123" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" s="120" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A154" s="120" t="s">
-        <v>443</v>
-      </c>
-      <c r="H154" s="131" t="s">
-        <v>445</v>
-      </c>
-      <c r="I154" s="131" t="s">
-        <v>445</v>
-      </c>
-      <c r="J154" s="123"/>
-    </row>
-    <row r="156" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="158" spans="1:11" s="122" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A158" s="122" t="s">
-        <v>311</v>
-      </c>
-      <c r="B158" s="122" t="s">
-        <v>352</v>
-      </c>
-      <c r="C158" s="122" t="s">
-        <v>353</v>
-      </c>
-      <c r="D158" s="122" t="s">
-        <v>354</v>
-      </c>
-      <c r="E158" s="122" t="s">
-        <v>355</v>
-      </c>
-      <c r="F158" s="122" t="s">
-        <v>356</v>
-      </c>
-      <c r="G158" s="122" t="s">
-        <v>357</v>
-      </c>
-      <c r="H158" s="122" t="s">
-        <v>358</v>
-      </c>
-      <c r="I158" s="122" t="s">
-        <v>359</v>
-      </c>
-      <c r="J158" s="122" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="159" spans="1:11" s="121" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A159" s="121" t="s">
-        <v>323</v>
-      </c>
-      <c r="E159" s="121" t="s">
-        <v>399</v>
-      </c>
-      <c r="F159" s="121" t="s">
-        <v>411</v>
-      </c>
-      <c r="H159" s="121" t="s">
-        <v>411</v>
-      </c>
-      <c r="I159" s="121" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" s="121" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A160" s="121" t="s">
-        <v>324</v>
-      </c>
-      <c r="E160" s="121" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" s="121" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A161" s="121" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" s="6" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A162" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="D162" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="E162" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="G162" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="I162" s="24" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="169" spans="1:9" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="170" spans="1:9" s="26" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A170" s="26" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" s="87" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A171" s="26"/>
-    </row>
-    <row r="172" spans="1:9" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="173" spans="1:9" thickTop="1" thickBot="1">
-      <c r="A173" s="1" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" thickTop="1" thickBot="1">
-      <c r="A174" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" thickTop="1" thickBot="1">
-      <c r="A175" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" ht="13.2">
-      <c r="A176" s="1" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" thickTop="1" thickBot="1">
-      <c r="A177" s="1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1" thickTop="1" thickBot="1">
-      <c r="A178" s="1" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="182" spans="1:1" ht="13.2">
-      <c r="A182" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" ht="13.2">
-      <c r="A183" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" ht="13.2">
-      <c r="A184" s="1" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" ht="13.2">
-      <c r="A185" s="1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" ht="13.2">
-      <c r="A186" s="1" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" thickTop="1" thickBot="1">
-      <c r="A187" s="1" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1" thickTop="1" thickBot="1">
-      <c r="A188" s="1" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" thickTop="1" thickBot="1">
-      <c r="A189" s="1" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1" thickTop="1" thickBot="1">
-      <c r="A190" s="1" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="194" spans="1:3" ht="13.2"/>
-    <row r="195" spans="1:3" ht="13.2">
-      <c r="A195" s="1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="196" spans="1:3" thickTop="1" thickBot="1">
-      <c r="B196" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" ht="13.2"/>
-    <row r="200" spans="1:3" ht="13.2"/>
-    <row r="201" spans="1:3" ht="13.2"/>
-    <row r="202" spans="1:3" ht="13.2"/>
+    </row>
     <row r="205" spans="1:3" ht="13.2"/>
     <row r="206" spans="1:3" ht="13.2"/>
     <row r="207" spans="1:3" ht="13.2"/>
     <row r="208" spans="1:3" ht="13.2"/>
-    <row r="209" ht="13.2"/>
+    <row r="211" ht="13.2"/>
+    <row r="212" ht="13.2"/>
+    <row r="213" ht="13.2"/>
+    <row r="214" ht="13.2"/>
+    <row r="215" ht="13.2"/>
+    <row r="216" ht="13.2"/>
+    <row r="217"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project-A/風水評価の説明/風水関連.xlsx
+++ b/project-A/風水評価の説明/風水関連.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="475">
   <si>
     <t>五行</t>
     <rPh sb="0" eb="2">
@@ -7697,58 +7697,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>元々，健康運に悪影響
-健康運 - 50</t>
-    <rPh sb="0" eb="2">
-      <t>モトモト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>アクエイキョウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>温かみのある色の家具で健康運アップ
-健康運 + 10 (一個につき)</t>
-    <rPh sb="0" eb="1">
-      <t>アタタ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>イロ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カグ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ケンコウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ウン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>イッコ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>風または音で運勢アップ
 恋愛運 + 5(一個につき)
 人気運 + 5(一個につき)</t>
@@ -8135,6 +8083,109 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>ウンセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>化学素材より天然素材の方が良い</t>
+    <rPh sb="0" eb="2">
+      <t>カガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テンネン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>元々，健康運、人気運に悪影響
+健康運 - 50
+人気運-50</t>
+    <rPh sb="0" eb="2">
+      <t>モトモト</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>アクエイキョウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ウン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>温かみのある色の家具で健康人気運アップ
+健康運 + 10 (一個につき)
+人気運＋１０一個につき</t>
+    <rPh sb="0" eb="1">
+      <t>アタタ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>ウン</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>コ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -8547,7 +8598,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8981,6 +9032,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9279,8 +9333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
-      <selection activeCell="E168" sqref="E168"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" thickTop="1" thickBottom="1"/>
@@ -9375,22 +9429,22 @@
     </row>
     <row r="15" spans="1:2" s="26" customFormat="1" thickTop="1" thickBot="1">
       <c r="A15" s="4" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="26" customFormat="1" thickTop="1" thickBot="1">
       <c r="A16" s="4" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="26" customFormat="1" thickTop="1" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="26" customFormat="1" thickTop="1" thickBot="1">
       <c r="A18" s="4" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:8" thickTop="1" thickBot="1">
@@ -10198,7 +10252,9 @@
       <c r="A75" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="70"/>
+      <c r="B75" s="145" t="s">
+        <v>472</v>
+      </c>
     </row>
     <row r="76" spans="1:15" s="69" customFormat="1" thickTop="1" thickBot="1">
       <c r="A76" s="69" t="s">
@@ -10240,7 +10296,7 @@
         <v>133</v>
       </c>
       <c r="D84" s="136" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="86" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1">
@@ -10434,23 +10490,23 @@
         <v>124</v>
       </c>
       <c r="C95" s="76" t="s">
-        <v>453</v>
+        <v>473</v>
       </c>
       <c r="D95" s="76" t="s">
         <v>452</v>
       </c>
       <c r="E95" s="76" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F95" s="76" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G95" s="76"/>
       <c r="H95" s="76" t="s">
         <v>134</v>
       </c>
       <c r="I95" s="76" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="J95" s="76" t="s">
         <v>214</v>
@@ -10476,7 +10532,7 @@
         <v>18</v>
       </c>
       <c r="C97" s="76" t="s">
-        <v>454</v>
+        <v>474</v>
       </c>
       <c r="D97" s="72"/>
       <c r="E97" s="76"/>
@@ -10486,7 +10542,7 @@
       <c r="G97" s="76"/>
       <c r="H97" s="76"/>
       <c r="I97" s="76" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J97" s="76" t="s">
         <v>215</v>
@@ -10520,7 +10576,7 @@
         <v>149</v>
       </c>
       <c r="G99" s="76" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="H99" s="76"/>
       <c r="I99" s="76"/>
@@ -10666,13 +10722,13 @@
         <v>419</v>
       </c>
       <c r="F113" s="83" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G113" s="132" t="s">
         <v>238</v>
       </c>
       <c r="H113" s="132" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="114" spans="1:17" s="82" customFormat="1" ht="54" thickTop="1" thickBot="1">
@@ -10689,7 +10745,7 @@
         <v>420</v>
       </c>
       <c r="F114" s="132" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G114" s="83" t="s">
         <v>421</v>
@@ -10727,7 +10783,7 @@
       </c>
       <c r="C117" s="83"/>
       <c r="D117" s="130" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="118" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
@@ -10743,7 +10799,7 @@
         <v>124</v>
       </c>
       <c r="D119" s="83" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="120" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
@@ -11042,11 +11098,11 @@
         <v>217</v>
       </c>
       <c r="C134" s="137" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D134" s="99"/>
       <c r="E134" s="21" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="F134" s="104" t="s">
         <v>225</v>
@@ -11071,7 +11127,7 @@
         <v>233</v>
       </c>
       <c r="N134" s="142" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="O134" s="80"/>
       <c r="P134" s="101"/>
@@ -11082,7 +11138,7 @@
         <v>173</v>
       </c>
       <c r="B135" s="138" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C135" s="19"/>
       <c r="D135" s="99"/>
@@ -11659,7 +11715,7 @@
     <row r="214" ht="13.2"/>
     <row r="215" ht="13.2"/>
     <row r="216" ht="13.2"/>
-    <row r="217"/>
+    <row r="217" ht="13.2"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project-A/風水評価の説明/風水関連.xlsx
+++ b/project-A/風水評価の説明/風水関連.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13392"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="13392"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3555,24 +3555,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>銀色で仕事運アップ
-(1個につき)
-仕事運 + 10</t>
-    <rPh sb="0" eb="2">
-      <t>ギンイロ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>シゴトウン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>コ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>シゴトウン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>金の気を持つ</t>
     <rPh sb="0" eb="1">
       <t>キン</t>
@@ -8186,6 +8168,30 @@
     </rPh>
     <rPh sb="44" eb="45">
       <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>銀色, 灰の家具仕事運アップ
+(1個につき)
+仕事運 + 10</t>
+    <rPh sb="0" eb="2">
+      <t>ギンイロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カグ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>シゴトウン</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>シゴトウン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -9331,10 +9337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S217"/>
+  <dimension ref="A1:S218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" thickTop="1" thickBottom="1"/>
@@ -9429,22 +9435,22 @@
     </row>
     <row r="15" spans="1:2" s="26" customFormat="1" thickTop="1" thickBot="1">
       <c r="A15" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="16" spans="1:2" s="26" customFormat="1" thickTop="1" thickBot="1">
       <c r="A16" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:8" s="26" customFormat="1" thickTop="1" thickBot="1">
       <c r="A17" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="26" customFormat="1" thickTop="1" thickBot="1">
       <c r="A18" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="20" spans="1:8" thickTop="1" thickBot="1">
@@ -9455,7 +9461,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -9465,11 +9471,11 @@
     </row>
     <row r="21" spans="1:8" thickTop="1" thickBot="1">
       <c r="A21" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -9479,7 +9485,7 @@
     </row>
     <row r="22" spans="1:8" thickTop="1" thickBot="1">
       <c r="A22" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -9495,7 +9501,7 @@
         <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -9507,7 +9513,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -9553,7 +9559,7 @@
         <v>103</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -9577,7 +9583,7 @@
         <v>104</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -9653,7 +9659,7 @@
         <v>44</v>
       </c>
       <c r="D34" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>88</v>
@@ -9662,7 +9668,7 @@
         <v>46</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="12" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
@@ -9682,10 +9688,10 @@
         <v>45</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="17" customFormat="1" thickTop="1" thickBot="1">
@@ -9717,45 +9723,45 @@
     </row>
     <row r="38" spans="1:7" ht="93.6" thickTop="1" thickBot="1">
       <c r="A38" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C38" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>434</v>
+      </c>
+      <c r="E38" s="23" t="s">
         <v>367</v>
       </c>
-      <c r="D38" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="E38" s="23" t="s">
+      <c r="F38" s="24" t="s">
         <v>368</v>
       </c>
-      <c r="F38" s="24" t="s">
-        <v>369</v>
-      </c>
       <c r="G38" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="54" thickTop="1" thickBot="1">
       <c r="B39" s="1" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C39" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="D39" s="21" t="s">
+      <c r="F39" s="24" t="s">
+        <v>437</v>
+      </c>
+      <c r="G39" s="25" t="s">
         <v>433</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>438</v>
-      </c>
-      <c r="G39" s="25" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="17" customFormat="1" thickTop="1" thickBot="1">
@@ -9905,10 +9911,10 @@
         <v>85</v>
       </c>
       <c r="C51" s="50" t="s">
+        <v>394</v>
+      </c>
+      <c r="D51" s="51" t="s">
         <v>395</v>
-      </c>
-      <c r="D51" s="51" t="s">
-        <v>396</v>
       </c>
       <c r="E51" s="52"/>
       <c r="F51" s="45"/>
@@ -9918,10 +9924,10 @@
       <c r="A52" s="45"/>
       <c r="B52" s="45"/>
       <c r="C52" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D52" s="51" t="s">
         <v>406</v>
-      </c>
-      <c r="D52" s="51" t="s">
-        <v>407</v>
       </c>
       <c r="E52" s="52"/>
       <c r="F52" s="45"/>
@@ -10025,579 +10031,569 @@
         <v>150</v>
       </c>
       <c r="N61" s="60" t="s">
+        <v>319</v>
+      </c>
+      <c r="O61" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="P61" s="60" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q61" s="60" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="60" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="63" spans="1:17" s="61" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A63" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="F63" s="61" t="s">
+        <v>153</v>
+      </c>
+      <c r="I63" s="127" t="s">
+        <v>344</v>
+      </c>
+      <c r="J63" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="L63" s="61" t="s">
+        <v>154</v>
+      </c>
+      <c r="N63" s="61" t="s">
         <v>320</v>
       </c>
-      <c r="O61" s="60" t="s">
+      <c r="O63" s="61" t="s">
         <v>380</v>
       </c>
-      <c r="P61" s="60" t="s">
+      <c r="P63" s="61" t="s">
         <v>346</v>
       </c>
-      <c r="Q61" s="60" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" s="61" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A62" s="61" t="s">
-        <v>122</v>
-      </c>
-      <c r="B62" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="F62" s="61" t="s">
-        <v>153</v>
-      </c>
-      <c r="I62" s="127" t="s">
-        <v>345</v>
-      </c>
-      <c r="J62" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="L62" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="N62" s="61" t="s">
-        <v>321</v>
-      </c>
-      <c r="O62" s="61" t="s">
+      <c r="Q63" s="127" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="2" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A64" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I64" s="62" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" s="63" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A65" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="H65" s="63" t="s">
+        <v>378</v>
+      </c>
+      <c r="I65" s="64" t="s">
+        <v>384</v>
+      </c>
+      <c r="J65" s="63" t="s">
+        <v>145</v>
+      </c>
+      <c r="K65" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="O65" s="63" t="s">
         <v>381</v>
       </c>
-      <c r="P62" s="61" t="s">
-        <v>347</v>
-      </c>
-      <c r="Q62" s="127" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" s="2" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="A63" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="I63" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="Q63" s="2" t="s">
+      <c r="P65" s="63" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" s="65" customFormat="1" ht="93.6" thickTop="1" thickBot="1">
+      <c r="A66" s="65" t="s">
+        <v>126</v>
+      </c>
+      <c r="I66" s="66" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" s="63" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A64" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="H64" s="63" t="s">
-        <v>379</v>
-      </c>
-      <c r="I64" s="64" t="s">
+      <c r="O66" s="66" t="s">
         <v>385</v>
       </c>
-      <c r="J64" s="63" t="s">
-        <v>145</v>
-      </c>
-      <c r="K64" s="63" t="s">
-        <v>146</v>
-      </c>
-      <c r="O64" s="63" t="s">
-        <v>382</v>
-      </c>
-      <c r="P64" s="63" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" s="65" customFormat="1" ht="93.6" thickTop="1" thickBot="1">
-      <c r="A65" s="65" t="s">
-        <v>126</v>
-      </c>
-      <c r="I65" s="66" t="s">
-        <v>384</v>
-      </c>
-      <c r="O65" s="66" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" s="67" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A66" s="67" t="s">
+    </row>
+    <row r="67" spans="1:16" s="67" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A67" s="67" t="s">
         <v>135</v>
       </c>
-      <c r="B66" s="67" t="s">
+      <c r="B67" s="67" t="s">
         <v>136</v>
       </c>
-      <c r="I66" s="68" t="s">
-        <v>355</v>
-      </c>
-      <c r="L66" s="67" t="s">
+      <c r="I67" s="68" t="s">
+        <v>354</v>
+      </c>
+      <c r="L67" s="67" t="s">
         <v>138</v>
       </c>
-      <c r="M66" s="68" t="s">
+      <c r="M67" s="68" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="69" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="A67" s="69" t="s">
-        <v>124</v>
-      </c>
-      <c r="B67" s="133" t="s">
-        <v>141</v>
-      </c>
-      <c r="C67" s="134" t="s">
-        <v>394</v>
-      </c>
-      <c r="D67" s="133" t="s">
-        <v>140</v>
-      </c>
-      <c r="E67" s="133" t="s">
-        <v>393</v>
-      </c>
-      <c r="G67" s="133" t="s">
-        <v>392</v>
-      </c>
-      <c r="H67" s="133" t="s">
-        <v>148</v>
-      </c>
-      <c r="I67" s="133" t="s">
-        <v>128</v>
-      </c>
-      <c r="M67" s="133" t="s">
-        <v>152</v>
-      </c>
-      <c r="O67" s="134" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" s="69" customFormat="1" ht="54" thickTop="1" thickBot="1">
+    <row r="68" spans="1:16" s="69" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="A68" s="69" t="s">
         <v>124</v>
       </c>
       <c r="B68" s="133" t="s">
-        <v>142</v>
+        <v>141</v>
+      </c>
+      <c r="C68" s="134" t="s">
+        <v>393</v>
+      </c>
+      <c r="D68" s="133" t="s">
+        <v>140</v>
+      </c>
+      <c r="E68" s="133" t="s">
+        <v>392</v>
       </c>
       <c r="G68" s="133" t="s">
-        <v>242</v>
+        <v>391</v>
+      </c>
+      <c r="H68" s="133" t="s">
+        <v>148</v>
       </c>
       <c r="I68" s="133" t="s">
-        <v>373</v>
+        <v>128</v>
+      </c>
+      <c r="M68" s="133" t="s">
+        <v>152</v>
       </c>
       <c r="O68" s="134" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" s="69" customFormat="1" ht="54" thickTop="1" thickBot="1">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" s="69" customFormat="1" ht="54" thickTop="1" thickBot="1">
       <c r="A69" s="69" t="s">
         <v>124</v>
       </c>
       <c r="B69" s="133" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G69" s="133" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="I69" s="133" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="O69" s="134" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" s="69" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" s="69" customFormat="1" ht="54" thickTop="1" thickBot="1">
       <c r="A70" s="69" t="s">
         <v>124</v>
       </c>
       <c r="B70" s="133" t="s">
-        <v>243</v>
-      </c>
-      <c r="G70" s="70"/>
-      <c r="I70" s="70"/>
+        <v>139</v>
+      </c>
+      <c r="G70" s="133" t="s">
+        <v>185</v>
+      </c>
+      <c r="I70" s="133" t="s">
+        <v>375</v>
+      </c>
       <c r="O70" s="134" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" s="69" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" s="69" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
       <c r="A71" s="69" t="s">
         <v>124</v>
       </c>
       <c r="B71" s="133" t="s">
-        <v>450</v>
-      </c>
-      <c r="G71" s="133" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" s="69" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+        <v>242</v>
+      </c>
+      <c r="G71" s="70"/>
+      <c r="I71" s="70"/>
+      <c r="O71" s="134" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" s="69" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="A72" s="69" t="s">
         <v>124</v>
       </c>
       <c r="B72" s="133" t="s">
-        <v>181</v>
+        <v>449</v>
       </c>
       <c r="G72" s="133" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" s="69" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="69" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="A73" s="69" t="s">
         <v>124</v>
       </c>
       <c r="B73" s="133" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" s="69" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+        <v>181</v>
+      </c>
+      <c r="G73" s="133" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="69" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="A74" s="69" t="s">
         <v>124</v>
       </c>
       <c r="B74" s="133" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" s="69" customFormat="1" thickTop="1" thickBot="1">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" s="69" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="A75" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="145" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" s="69" customFormat="1" thickTop="1" thickBot="1">
+      <c r="B75" s="133" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" s="69" customFormat="1" thickTop="1" thickBot="1">
       <c r="A76" s="69" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" s="69" customFormat="1" thickTop="1" thickBot="1">
+      <c r="B76" s="145" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" s="69" customFormat="1" thickTop="1" thickBot="1">
       <c r="A77" s="69" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="78" spans="1:15" s="69" customFormat="1" thickTop="1" thickBot="1">
+    <row r="78" spans="1:16" s="69" customFormat="1" thickTop="1" thickBot="1">
       <c r="A78" s="69" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="80" spans="1:15" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="82" spans="1:11" s="63" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A82" s="63" t="s">
+    <row r="79" spans="1:16" s="69" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A79" s="69" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="83" spans="1:11" s="63" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A83" s="63" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="83" spans="1:11" s="63" customFormat="1" thickTop="1" thickBot="1">
-      <c r="B83" s="63" t="s">
+    <row r="84" spans="1:11" s="63" customFormat="1" thickTop="1" thickBot="1">
+      <c r="B84" s="63" t="s">
         <v>131</v>
       </c>
-      <c r="C83" s="63" t="s">
+      <c r="C84" s="63" t="s">
         <v>132</v>
       </c>
-      <c r="D83" s="63" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" s="63" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B84" s="64" t="s">
-        <v>310</v>
-      </c>
-      <c r="C84" s="64" t="s">
+      <c r="D84" s="63" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" s="63" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B85" s="64" t="s">
+        <v>309</v>
+      </c>
+      <c r="C85" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="D84" s="136" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A86" s="126"/>
-      <c r="B86" s="126"/>
-      <c r="C86" s="126"/>
-      <c r="D86" s="126"/>
-      <c r="E86" s="126"/>
-      <c r="F86" s="126"/>
-      <c r="G86" s="126"/>
-      <c r="H86" s="126"/>
-      <c r="I86" s="126"/>
-      <c r="J86" s="126"/>
-      <c r="K86" s="126"/>
-    </row>
-    <row r="87" spans="1:11" thickTop="1" thickBot="1">
-      <c r="A87" s="1" t="s">
+      <c r="D85" s="136" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A87" s="126"/>
+      <c r="B87" s="126"/>
+      <c r="C87" s="126"/>
+      <c r="D87" s="126"/>
+      <c r="E87" s="126"/>
+      <c r="F87" s="126"/>
+      <c r="G87" s="126"/>
+      <c r="H87" s="126"/>
+      <c r="I87" s="126"/>
+      <c r="J87" s="126"/>
+      <c r="K87" s="126"/>
+    </row>
+    <row r="88" spans="1:11" thickTop="1" thickBot="1">
+      <c r="A88" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B87" s="72"/>
-      <c r="C87" s="73" t="s">
+      <c r="B88" s="72"/>
+      <c r="C88" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="73" t="s">
-        <v>359</v>
-      </c>
-      <c r="E87" s="73" t="s">
+      <c r="D88" s="73" t="s">
+        <v>358</v>
+      </c>
+      <c r="E88" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="F87" s="73" t="s">
+      <c r="F88" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="G87" s="73" t="s">
+      <c r="G88" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="H87" s="72" t="s">
+      <c r="H88" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="I87" s="72" t="s">
+      <c r="I88" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="J87" s="72" t="s">
+      <c r="J88" s="72" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:11" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A88" s="71" t="s">
-        <v>370</v>
-      </c>
-      <c r="B88" s="72" t="s">
+    <row r="89" spans="1:11" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A89" s="71" t="s">
+        <v>369</v>
+      </c>
+      <c r="B89" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="C88" s="73" t="s">
+      <c r="C89" s="73" t="s">
+        <v>396</v>
+      </c>
+      <c r="D89" s="73" t="s">
         <v>397</v>
       </c>
-      <c r="D88" s="73" t="s">
+      <c r="E89" s="73" t="s">
         <v>398</v>
       </c>
-      <c r="E88" s="73" t="s">
+      <c r="F89" s="73" t="s">
+        <v>398</v>
+      </c>
+      <c r="G89" s="73" t="s">
         <v>399</v>
       </c>
-      <c r="F88" s="73" t="s">
-        <v>399</v>
-      </c>
-      <c r="G88" s="73" t="s">
+      <c r="H89" s="73" t="s">
+        <v>397</v>
+      </c>
+      <c r="I89" s="73" t="s">
         <v>400</v>
       </c>
-      <c r="H88" s="73" t="s">
-        <v>398</v>
-      </c>
-      <c r="I88" s="73" t="s">
-        <v>401</v>
-      </c>
-      <c r="J88" s="73" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" s="53" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="90" spans="1:11" s="69" customFormat="1" ht="80.400000000000006" thickTop="1" thickBot="1">
-      <c r="A90" s="26"/>
-      <c r="B90" s="123" t="s">
+      <c r="J89" s="73" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" s="53" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="91" spans="1:11" s="69" customFormat="1" ht="80.400000000000006" thickTop="1" thickBot="1">
+      <c r="A91" s="26"/>
+      <c r="B91" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="C90" s="124" t="s">
+      <c r="C91" s="124" t="s">
         <v>76</v>
       </c>
-      <c r="D90" s="124" t="s">
+      <c r="D91" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="E90" s="124" t="s">
+      <c r="E91" s="124" t="s">
         <v>78</v>
       </c>
-      <c r="F90" s="124" t="s">
+      <c r="F91" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="G90" s="124" t="s">
+      <c r="G91" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="H90" s="124" t="s">
+      <c r="H91" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="I90" s="124" t="s">
+      <c r="I91" s="124" t="s">
         <v>82</v>
       </c>
-      <c r="J90" s="124" t="s">
+      <c r="J91" s="124" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="91" spans="1:11" s="69" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="A91" s="26"/>
-      <c r="B91" s="125" t="s">
+    <row r="92" spans="1:11" s="69" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A92" s="26"/>
+      <c r="B92" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="C91" s="124" t="s">
+      <c r="C92" s="124" t="s">
         <v>67</v>
       </c>
-      <c r="D91" s="124" t="s">
+      <c r="D92" s="124" t="s">
         <v>68</v>
       </c>
-      <c r="E91" s="124" t="s">
+      <c r="E92" s="124" t="s">
         <v>69</v>
       </c>
-      <c r="F91" s="124" t="s">
+      <c r="F92" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="G91" s="124" t="s">
+      <c r="G92" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="H91" s="124" t="s">
+      <c r="H92" s="124" t="s">
         <v>72</v>
       </c>
-      <c r="I91" s="124" t="s">
+      <c r="I92" s="124" t="s">
         <v>73</v>
       </c>
-      <c r="J91" s="124" t="s">
+      <c r="J92" s="124" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="92" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1">
-      <c r="B92" s="74"/>
-      <c r="C92" s="75"/>
-      <c r="D92" s="75"/>
-      <c r="E92" s="75"/>
-      <c r="F92" s="75"/>
-      <c r="G92" s="75"/>
-      <c r="H92" s="75"/>
-      <c r="I92" s="75"/>
-      <c r="J92" s="75"/>
-    </row>
-    <row r="93" spans="1:11" ht="106.8" thickTop="1" thickBot="1">
-      <c r="B93" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="C93" s="77" t="s">
+    <row r="93" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="B93" s="74"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="75"/>
+      <c r="E93" s="75"/>
+      <c r="F93" s="75"/>
+      <c r="G93" s="75"/>
+      <c r="H93" s="75"/>
+      <c r="I93" s="75"/>
+      <c r="J93" s="75"/>
+    </row>
+    <row r="94" spans="1:11" ht="106.8" thickTop="1" thickBot="1">
+      <c r="B94" s="76" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="77" t="s">
+        <v>439</v>
+      </c>
+      <c r="D94" s="76" t="s">
         <v>440</v>
       </c>
-      <c r="D93" s="76" t="s">
+      <c r="E94" s="77" t="s">
         <v>441</v>
       </c>
-      <c r="E93" s="77" t="s">
+      <c r="F94" s="77" t="s">
         <v>442</v>
       </c>
-      <c r="F93" s="77" t="s">
+      <c r="G94" s="77" t="s">
         <v>443</v>
       </c>
-      <c r="G93" s="77" t="s">
+      <c r="H94" s="77" t="s">
         <v>444</v>
       </c>
-      <c r="H93" s="77" t="s">
+      <c r="I94" s="77" t="s">
         <v>445</v>
       </c>
-      <c r="I93" s="77" t="s">
+      <c r="J94" s="77" t="s">
         <v>446</v>
       </c>
-      <c r="J93" s="77" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1">
-      <c r="C94" s="78"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="78"/>
-      <c r="F94" s="78"/>
-      <c r="G94" s="78"/>
-      <c r="H94" s="78"/>
-      <c r="I94" s="78"/>
-      <c r="J94" s="78"/>
-    </row>
-    <row r="95" spans="1:11" ht="54" thickTop="1" thickBot="1">
-      <c r="B95" s="72" t="s">
+    </row>
+    <row r="95" spans="1:11" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C95" s="78"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="78"/>
+      <c r="F95" s="78"/>
+      <c r="G95" s="78"/>
+      <c r="H95" s="78"/>
+      <c r="I95" s="78"/>
+      <c r="J95" s="78"/>
+    </row>
+    <row r="96" spans="1:11" ht="54" thickTop="1" thickBot="1">
+      <c r="B96" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="C95" s="76" t="s">
-        <v>473</v>
-      </c>
-      <c r="D95" s="76" t="s">
+      <c r="C96" s="76" t="s">
+        <v>472</v>
+      </c>
+      <c r="D96" s="76" t="s">
+        <v>451</v>
+      </c>
+      <c r="E96" s="76" t="s">
         <v>452</v>
       </c>
-      <c r="E95" s="76" t="s">
+      <c r="F96" s="76" t="s">
         <v>453</v>
       </c>
-      <c r="F95" s="76" t="s">
-        <v>454</v>
-      </c>
-      <c r="G95" s="76"/>
-      <c r="H95" s="76" t="s">
+      <c r="G96" s="76"/>
+      <c r="H96" s="76" t="s">
         <v>134</v>
       </c>
-      <c r="I95" s="76" t="s">
-        <v>456</v>
-      </c>
-      <c r="J95" s="76" t="s">
+      <c r="I96" s="76" t="s">
+        <v>455</v>
+      </c>
+      <c r="J96" s="76" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B96" s="72" t="s">
-        <v>237</v>
-      </c>
-      <c r="C96" s="76"/>
-      <c r="D96" s="72"/>
-      <c r="E96" s="76"/>
-      <c r="F96" s="76"/>
-      <c r="G96" s="76"/>
-      <c r="H96" s="76"/>
-      <c r="I96" s="76"/>
-      <c r="J96" s="76" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="B97" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="C97" s="76" t="s">
-        <v>474</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="C97" s="76"/>
       <c r="D97" s="72"/>
       <c r="E97" s="76"/>
-      <c r="F97" s="76" t="s">
-        <v>306</v>
-      </c>
+      <c r="F97" s="76"/>
       <c r="G97" s="76"/>
       <c r="H97" s="76"/>
-      <c r="I97" s="76" t="s">
-        <v>457</v>
-      </c>
+      <c r="I97" s="76"/>
       <c r="J97" s="76" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="B98" s="72" t="s">
-        <v>124</v>
-      </c>
-      <c r="C98" s="79"/>
+        <v>18</v>
+      </c>
+      <c r="C98" s="76" t="s">
+        <v>473</v>
+      </c>
       <c r="D98" s="72"/>
       <c r="E98" s="76"/>
-      <c r="F98" s="76"/>
+      <c r="F98" s="76" t="s">
+        <v>305</v>
+      </c>
       <c r="G98" s="76"/>
       <c r="H98" s="76"/>
-      <c r="I98" s="76"/>
+      <c r="I98" s="76" t="s">
+        <v>456</v>
+      </c>
       <c r="J98" s="76" t="s">
-        <v>221</v>
+        <v>474</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="40.799999999999997" thickTop="1" thickBot="1">
       <c r="B99" s="72" t="s">
-        <v>18</v>
-      </c>
-      <c r="C99" s="79" t="s">
-        <v>451</v>
-      </c>
-      <c r="D99" s="76"/>
-      <c r="E99" s="72"/>
-      <c r="F99" s="76" t="s">
-        <v>149</v>
-      </c>
-      <c r="G99" s="76" t="s">
-        <v>455</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="C99" s="79"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="76"/>
+      <c r="F99" s="76"/>
+      <c r="G99" s="76"/>
       <c r="H99" s="76"/>
       <c r="I99" s="76"/>
       <c r="J99" s="76" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" thickTop="1" thickBot="1">
-      <c r="B100" s="72"/>
-      <c r="C100" s="72"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B100" s="72" t="s">
+        <v>18</v>
+      </c>
+      <c r="C100" s="79" t="s">
+        <v>450</v>
+      </c>
       <c r="D100" s="76"/>
       <c r="E100" s="72"/>
-      <c r="F100" s="76"/>
-      <c r="G100" s="76"/>
+      <c r="F100" s="76" t="s">
+        <v>149</v>
+      </c>
+      <c r="G100" s="76" t="s">
+        <v>454</v>
+      </c>
       <c r="H100" s="76"/>
       <c r="I100" s="76"/>
-      <c r="J100" s="72"/>
+      <c r="J100" s="76" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="101" spans="1:10" thickTop="1" thickBot="1">
       <c r="B101" s="72"/>
-      <c r="C101" s="79"/>
+      <c r="C101" s="72"/>
       <c r="D101" s="76"/>
       <c r="E101" s="72"/>
       <c r="F101" s="76"/>
@@ -10617,189 +10613,192 @@
       <c r="I102" s="76"/>
       <c r="J102" s="72"/>
     </row>
-    <row r="107" spans="1:10" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="108" spans="1:10" thickTop="1" thickBot="1">
-      <c r="C108" s="1" t="s">
+    <row r="103" spans="1:10" thickTop="1" thickBot="1">
+      <c r="B103" s="72"/>
+      <c r="C103" s="79"/>
+      <c r="D103" s="76"/>
+      <c r="E103" s="72"/>
+      <c r="F103" s="76"/>
+      <c r="G103" s="76"/>
+      <c r="H103" s="76"/>
+      <c r="I103" s="76"/>
+      <c r="J103" s="72"/>
+    </row>
+    <row r="108" spans="1:10" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="109" spans="1:10" thickTop="1" thickBot="1">
+      <c r="C109" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="82" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A109" s="82" t="s">
+    <row r="110" spans="1:10" s="82" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A110" s="82" t="s">
         <v>19</v>
       </c>
-      <c r="C109" s="82" t="s">
+      <c r="C110" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="D109" s="82" t="s">
+      <c r="D110" s="82" t="s">
         <v>21</v>
       </c>
-      <c r="E109" s="82" t="s">
+      <c r="E110" s="82" t="s">
         <v>65</v>
       </c>
-      <c r="F109" s="82" t="s">
+      <c r="F110" s="82" t="s">
         <v>22</v>
       </c>
-      <c r="G109" s="82" t="s">
+      <c r="G110" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="H109" s="82" t="s">
+      <c r="H110" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="I109" s="82" t="s">
+      <c r="I110" s="82" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="110" spans="1:10" s="101" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B110" s="101" t="s">
+    <row r="111" spans="1:10" s="101" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B111" s="101" t="s">
         <v>62</v>
       </c>
-      <c r="E110" s="101" t="s">
+      <c r="E111" s="101" t="s">
+        <v>425</v>
+      </c>
+      <c r="F111" s="111" t="s">
+        <v>421</v>
+      </c>
+      <c r="G111" s="101" t="s">
         <v>426</v>
       </c>
-      <c r="F110" s="111" t="s">
+      <c r="H111" s="111" t="s">
         <v>422</v>
       </c>
-      <c r="G110" s="101" t="s">
-        <v>427</v>
-      </c>
-      <c r="H110" s="111" t="s">
+      <c r="I111" s="111" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" s="101" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B112" s="101" t="s">
+        <v>61</v>
+      </c>
+      <c r="C112" s="111"/>
+      <c r="F112" s="111"/>
+      <c r="H112" s="111" t="s">
         <v>423</v>
       </c>
-      <c r="I110" s="111" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" s="101" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="B111" s="101" t="s">
-        <v>61</v>
-      </c>
-      <c r="C111" s="111"/>
-      <c r="F111" s="111"/>
-      <c r="H111" s="111" t="s">
+      <c r="I112" s="111" t="s">
         <v>424</v>
       </c>
-      <c r="I111" s="111" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" s="89" customFormat="1" thickTop="1" thickBot="1">
-      <c r="B112" s="89" t="s">
+    </row>
+    <row r="113" spans="1:17" s="89" customFormat="1" thickTop="1" thickBot="1">
+      <c r="B113" s="89" t="s">
+        <v>412</v>
+      </c>
+      <c r="C113" s="104" t="s">
+        <v>410</v>
+      </c>
+      <c r="D113" s="89" t="s">
+        <v>409</v>
+      </c>
+      <c r="E113" s="89" t="s">
+        <v>409</v>
+      </c>
+      <c r="F113" s="104" t="s">
+        <v>411</v>
+      </c>
+      <c r="G113" s="89" t="s">
+        <v>409</v>
+      </c>
+      <c r="H113" s="104" t="s">
+        <v>411</v>
+      </c>
+      <c r="I113" s="104" t="s">
         <v>413</v>
       </c>
-      <c r="C112" s="104" t="s">
-        <v>411</v>
-      </c>
-      <c r="D112" s="89" t="s">
-        <v>410</v>
-      </c>
-      <c r="E112" s="89" t="s">
-        <v>410</v>
-      </c>
-      <c r="F112" s="104" t="s">
-        <v>412</v>
-      </c>
-      <c r="G112" s="89" t="s">
-        <v>410</v>
-      </c>
-      <c r="H112" s="104" t="s">
-        <v>412</v>
-      </c>
-      <c r="I112" s="104" t="s">
+    </row>
+    <row r="114" spans="1:17" s="82" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="B114" s="82" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" s="83" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="113" spans="1:17" s="82" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
-      <c r="B113" s="82" t="s">
-        <v>18</v>
-      </c>
-      <c r="C113" s="83" t="s">
-        <v>415</v>
-      </c>
-      <c r="D113" s="132" t="s">
+      <c r="D114" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="E113" s="131" t="s">
-        <v>419</v>
-      </c>
-      <c r="F113" s="83" t="s">
-        <v>461</v>
-      </c>
-      <c r="G113" s="132" t="s">
-        <v>238</v>
-      </c>
-      <c r="H113" s="132" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" s="82" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="B114" s="82" t="s">
-        <v>84</v>
-      </c>
-      <c r="C114" s="83" t="s">
-        <v>352</v>
-      </c>
-      <c r="D114" s="132" t="s">
-        <v>431</v>
-      </c>
-      <c r="E114" s="83" t="s">
-        <v>420</v>
-      </c>
-      <c r="F114" s="132" t="s">
-        <v>458</v>
-      </c>
-      <c r="G114" s="83" t="s">
-        <v>421</v>
-      </c>
-      <c r="H114" s="83" t="s">
-        <v>315</v>
+      <c r="E114" s="131" t="s">
+        <v>418</v>
+      </c>
+      <c r="F114" s="83" t="s">
+        <v>460</v>
+      </c>
+      <c r="G114" s="132" t="s">
+        <v>237</v>
+      </c>
+      <c r="H114" s="132" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:17" s="82" customFormat="1" ht="54" thickTop="1" thickBot="1">
       <c r="B115" s="82" t="s">
-        <v>353</v>
+        <v>84</v>
       </c>
       <c r="C115" s="83" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D115" s="132" t="s">
         <v>430</v>
       </c>
-      <c r="E115" s="83"/>
-      <c r="F115" s="83"/>
-      <c r="G115" s="83"/>
-    </row>
-    <row r="116" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="E115" s="83" t="s">
+        <v>419</v>
+      </c>
+      <c r="F115" s="132" t="s">
+        <v>457</v>
+      </c>
+      <c r="G115" s="83" t="s">
+        <v>420</v>
+      </c>
+      <c r="H115" s="83" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" s="82" customFormat="1" ht="54" thickTop="1" thickBot="1">
       <c r="B116" s="82" t="s">
-        <v>18</v>
+        <v>352</v>
       </c>
       <c r="C116" s="83" t="s">
+        <v>353</v>
+      </c>
+      <c r="D116" s="132" t="s">
         <v>429</v>
       </c>
-      <c r="D116" s="83"/>
+      <c r="E116" s="83"/>
+      <c r="F116" s="83"/>
+      <c r="G116" s="83"/>
     </row>
     <row r="117" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="B117" s="82" t="s">
-        <v>124</v>
-      </c>
-      <c r="C117" s="83"/>
-      <c r="D117" s="130" t="s">
-        <v>459</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C117" s="83" t="s">
+        <v>428</v>
+      </c>
+      <c r="D117" s="83"/>
     </row>
     <row r="118" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="B118" s="82" t="s">
         <v>124</v>
       </c>
+      <c r="C118" s="83"/>
       <c r="D118" s="130" t="s">
-        <v>147</v>
+        <v>458</v>
       </c>
     </row>
     <row r="119" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
       <c r="B119" s="82" t="s">
         <v>124</v>
       </c>
-      <c r="D119" s="83" t="s">
-        <v>460</v>
+      <c r="D119" s="130" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="120" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
@@ -10807,915 +10806,923 @@
         <v>124</v>
       </c>
       <c r="D120" s="83" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" s="82" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="B121" s="82" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121" s="83" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" s="82" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
+      <c r="B122" s="82" t="s">
+        <v>408</v>
+      </c>
+      <c r="D122" s="83" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="121" spans="1:17" s="82" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
-      <c r="B121" s="82" t="s">
-        <v>409</v>
-      </c>
-      <c r="D121" s="83" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" s="82" customFormat="1" thickTop="1" thickBot="1">
-      <c r="B122" s="82" t="s">
-        <v>409</v>
-      </c>
-      <c r="D122" s="83"/>
-    </row>
-    <row r="123" spans="1:17" thickTop="1" thickBot="1">
-      <c r="D123" s="71"/>
-    </row>
-    <row r="125" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="126" spans="1:17" thickTop="1" thickBot="1">
-      <c r="A126" s="1" t="s">
+    <row r="123" spans="1:17" s="82" customFormat="1" thickTop="1" thickBot="1">
+      <c r="B123" s="82" t="s">
+        <v>408</v>
+      </c>
+      <c r="D123" s="83"/>
+    </row>
+    <row r="124" spans="1:17" thickTop="1" thickBot="1">
+      <c r="D124" s="71"/>
+    </row>
+    <row r="126" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="127" spans="1:17" thickTop="1" thickBot="1">
+      <c r="A127" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="127" spans="1:17" s="86" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A127" s="26" t="s">
+    <row r="128" spans="1:17" s="86" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A128" s="26" t="s">
         <v>156</v>
       </c>
-      <c r="B127" s="87" t="s">
+      <c r="B128" s="87" t="s">
         <v>157</v>
       </c>
-      <c r="C127" s="46" t="s">
+      <c r="C128" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="D127" s="98" t="s">
+      <c r="D128" s="98" t="s">
         <v>159</v>
       </c>
-      <c r="E127" s="4" t="s">
+      <c r="E128" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F127" s="89" t="s">
+      <c r="F128" s="89" t="s">
         <v>161</v>
       </c>
-      <c r="G127" s="90" t="s">
+      <c r="G128" s="90" t="s">
         <v>162</v>
       </c>
-      <c r="H127" s="88" t="s">
+      <c r="H128" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="I127" s="84" t="s">
+      <c r="I128" s="84" t="s">
         <v>163</v>
       </c>
-      <c r="J127" s="92" t="s">
+      <c r="J128" s="92" t="s">
         <v>164</v>
       </c>
-      <c r="K127" s="95" t="s">
+      <c r="K128" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="L127" s="94" t="s">
+      <c r="L128" s="94" t="s">
         <v>166</v>
       </c>
-      <c r="M127" s="5" t="s">
+      <c r="M128" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="N127" s="97" t="s">
+      <c r="N128" s="97" t="s">
         <v>168</v>
       </c>
-      <c r="O127" s="80" t="s">
+      <c r="O128" s="80" t="s">
         <v>169</v>
       </c>
-      <c r="P127" s="101" t="s">
+      <c r="P128" s="101" t="s">
         <v>170</v>
       </c>
-      <c r="Q127" s="100" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="128" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1">
-      <c r="C128" s="46"/>
-      <c r="D128" s="46"/>
-      <c r="E128" s="46"/>
-      <c r="G128" s="46"/>
-      <c r="J128" s="46"/>
-      <c r="K128" s="53"/>
-      <c r="M128" s="46"/>
-    </row>
-    <row r="129" spans="1:17" s="86" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
-      <c r="A129" s="26" t="s">
+      <c r="Q128" s="100" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C129" s="46"/>
+      <c r="D129" s="46"/>
+      <c r="E129" s="46"/>
+      <c r="G129" s="46"/>
+      <c r="J129" s="46"/>
+      <c r="K129" s="53"/>
+      <c r="M129" s="46"/>
+    </row>
+    <row r="130" spans="1:17" s="86" customFormat="1" ht="67.2" thickTop="1" thickBot="1">
+      <c r="A130" s="26" t="s">
         <v>189</v>
       </c>
-      <c r="B129" s="102" t="s">
+      <c r="B130" s="102" t="s">
         <v>191</v>
       </c>
-      <c r="C129" s="49" t="s">
+      <c r="C130" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="D129" s="98"/>
-      <c r="E129" s="103" t="s">
+      <c r="D130" s="98"/>
+      <c r="E130" s="103" t="s">
         <v>193</v>
       </c>
-      <c r="F129" s="104" t="s">
+      <c r="F130" s="104" t="s">
         <v>194</v>
       </c>
-      <c r="G129" s="105" t="s">
+      <c r="G130" s="105" t="s">
         <v>195</v>
       </c>
-      <c r="H129" s="106" t="s">
+      <c r="H130" s="106" t="s">
         <v>196</v>
       </c>
-      <c r="I129" s="107" t="s">
-        <v>232</v>
-      </c>
-      <c r="J129" s="108" t="s">
+      <c r="I130" s="107" t="s">
+        <v>231</v>
+      </c>
+      <c r="J130" s="108" t="s">
         <v>197</v>
       </c>
-      <c r="K129" s="95"/>
-      <c r="L129" s="94"/>
-      <c r="M129" s="109" t="s">
+      <c r="K130" s="95"/>
+      <c r="L130" s="94"/>
+      <c r="M130" s="109" t="s">
         <v>198</v>
       </c>
-      <c r="N129" s="110" t="s">
+      <c r="N130" s="110" t="s">
         <v>199</v>
       </c>
-      <c r="O129" s="81" t="s">
+      <c r="O130" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="P129" s="111" t="s">
+      <c r="P130" s="111" t="s">
         <v>201</v>
       </c>
-      <c r="Q129" s="100"/>
-    </row>
-    <row r="130" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1">
-      <c r="C130" s="46"/>
-      <c r="D130" s="46"/>
-      <c r="E130" s="46"/>
-      <c r="G130" s="46"/>
-      <c r="J130" s="46"/>
-      <c r="K130" s="53"/>
-      <c r="M130" s="46"/>
-    </row>
-    <row r="131" spans="1:17" s="85" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A131" s="26" t="s">
+      <c r="Q130" s="100"/>
+    </row>
+    <row r="131" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1">
+      <c r="C131" s="46"/>
+      <c r="D131" s="46"/>
+      <c r="E131" s="46"/>
+      <c r="G131" s="46"/>
+      <c r="J131" s="46"/>
+      <c r="K131" s="53"/>
+      <c r="M131" s="46"/>
+    </row>
+    <row r="132" spans="1:17" s="85" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A132" s="26" t="s">
         <v>186</v>
       </c>
-      <c r="B131" s="87" t="s">
-        <v>216</v>
-      </c>
-      <c r="C131" s="19" t="s">
+      <c r="B132" s="87" t="s">
+        <v>215</v>
+      </c>
+      <c r="C132" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D132" s="129" t="s">
+        <v>340</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="F132" s="89" t="s">
+        <v>221</v>
+      </c>
+      <c r="G132" s="112" t="s">
+        <v>316</v>
+      </c>
+      <c r="H132" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="I132" s="107" t="s">
+        <v>333</v>
+      </c>
+      <c r="J132" s="93" t="s">
+        <v>207</v>
+      </c>
+      <c r="K132" s="96" t="s">
+        <v>227</v>
+      </c>
+      <c r="L132" s="94" t="s">
+        <v>230</v>
+      </c>
+      <c r="M132" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="N132" s="97" t="s">
+        <v>209</v>
+      </c>
+      <c r="O132" s="80" t="s">
+        <v>326</v>
+      </c>
+      <c r="P132" s="101" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q132" s="100" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" s="85" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A133" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="B133" s="87" t="s">
+        <v>303</v>
+      </c>
+      <c r="C133" s="19" t="s">
         <v>218</v>
       </c>
-      <c r="D131" s="129" t="s">
-        <v>341</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="F131" s="89" t="s">
+      <c r="D133" s="99" t="s">
+        <v>219</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="F133" s="89" t="s">
         <v>222</v>
       </c>
-      <c r="G131" s="112" t="s">
-        <v>317</v>
-      </c>
-      <c r="H131" s="88" t="s">
-        <v>206</v>
-      </c>
-      <c r="I131" s="107" t="s">
-        <v>334</v>
-      </c>
-      <c r="J131" s="93" t="s">
-        <v>207</v>
-      </c>
-      <c r="K131" s="96" t="s">
+      <c r="G133" s="91" t="s">
+        <v>205</v>
+      </c>
+      <c r="H133" s="88" t="s">
+        <v>204</v>
+      </c>
+      <c r="I133" s="84" t="s">
+        <v>204</v>
+      </c>
+      <c r="J133" s="93" t="s">
+        <v>210</v>
+      </c>
+      <c r="K133" s="96" t="s">
         <v>228</v>
       </c>
-      <c r="L131" s="94" t="s">
-        <v>231</v>
-      </c>
-      <c r="M131" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="N131" s="97" t="s">
-        <v>209</v>
-      </c>
-      <c r="O131" s="80" t="s">
-        <v>327</v>
-      </c>
-      <c r="P131" s="101" t="s">
+      <c r="L133" s="94" t="s">
+        <v>228</v>
+      </c>
+      <c r="M133" s="10"/>
+      <c r="N133" s="97" t="s">
+        <v>176</v>
+      </c>
+      <c r="O133" s="80" t="s">
+        <v>211</v>
+      </c>
+      <c r="P133" s="101"/>
+      <c r="Q133" s="100" t="s">
         <v>322</v>
       </c>
-      <c r="Q131" s="100" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="132" spans="1:17" s="85" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A132" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B132" s="87" t="s">
-        <v>304</v>
-      </c>
-      <c r="C132" s="19" t="s">
-        <v>219</v>
-      </c>
-      <c r="D132" s="99" t="s">
-        <v>220</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="F132" s="89" t="s">
-        <v>223</v>
-      </c>
-      <c r="G132" s="91" t="s">
-        <v>205</v>
-      </c>
-      <c r="H132" s="88" t="s">
-        <v>204</v>
-      </c>
-      <c r="I132" s="84" t="s">
-        <v>204</v>
-      </c>
-      <c r="J132" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="K132" s="96" t="s">
-        <v>229</v>
-      </c>
-      <c r="L132" s="94" t="s">
-        <v>229</v>
-      </c>
-      <c r="M132" s="10"/>
-      <c r="N132" s="97" t="s">
-        <v>176</v>
-      </c>
-      <c r="O132" s="80" t="s">
-        <v>211</v>
-      </c>
-      <c r="P132" s="101"/>
-      <c r="Q132" s="100" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="133" spans="1:17" s="85" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A133" s="26" t="s">
+    </row>
+    <row r="134" spans="1:17" s="85" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A134" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="B133" s="87"/>
-      <c r="C133" s="19" t="s">
+      <c r="B134" s="87"/>
+      <c r="C134" s="19" t="s">
         <v>213</v>
       </c>
-      <c r="D133" s="99"/>
-      <c r="E133" s="9"/>
-      <c r="F133" s="89" t="s">
+      <c r="D134" s="99"/>
+      <c r="E134" s="9"/>
+      <c r="F134" s="89" t="s">
         <v>171</v>
       </c>
-      <c r="G133" s="91" t="s">
+      <c r="G134" s="91" t="s">
         <v>188</v>
       </c>
-      <c r="H133" s="88" t="s">
+      <c r="H134" s="88" t="s">
+        <v>225</v>
+      </c>
+      <c r="I134" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="J134" s="93"/>
+      <c r="K134" s="113" t="s">
         <v>226</v>
       </c>
-      <c r="I133" s="84" t="s">
+      <c r="L134" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="J133" s="93"/>
-      <c r="K133" s="113" t="s">
-        <v>227</v>
-      </c>
-      <c r="L133" s="114" t="s">
-        <v>227</v>
-      </c>
-      <c r="M133" s="10"/>
-      <c r="N133" s="110" t="s">
+      <c r="M134" s="10"/>
+      <c r="N134" s="110" t="s">
         <v>212</v>
       </c>
-      <c r="O133" s="81" t="s">
+      <c r="O134" s="81" t="s">
         <v>212</v>
       </c>
-      <c r="P133" s="101"/>
-      <c r="Q133" s="100"/>
-    </row>
-    <row r="134" spans="1:17" s="85" customFormat="1" ht="80.400000000000006" thickTop="1" thickBot="1">
-      <c r="A134" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="B134" s="138" t="s">
-        <v>217</v>
-      </c>
-      <c r="C134" s="137" t="s">
-        <v>469</v>
-      </c>
-      <c r="D134" s="99"/>
-      <c r="E134" s="21" t="s">
-        <v>468</v>
-      </c>
-      <c r="F134" s="104" t="s">
-        <v>225</v>
-      </c>
-      <c r="G134" s="112" t="s">
-        <v>224</v>
-      </c>
-      <c r="H134" s="106" t="s">
-        <v>202</v>
-      </c>
-      <c r="I134" s="141" t="s">
-        <v>234</v>
-      </c>
-      <c r="J134" s="139" t="s">
-        <v>208</v>
-      </c>
-      <c r="K134" s="113" t="s">
-        <v>230</v>
-      </c>
-      <c r="L134" s="94"/>
-      <c r="M134" s="140" t="s">
-        <v>233</v>
-      </c>
-      <c r="N134" s="142" t="s">
-        <v>471</v>
-      </c>
-      <c r="O134" s="80"/>
       <c r="P134" s="101"/>
       <c r="Q134" s="100"/>
     </row>
-    <row r="135" spans="1:17" s="85" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+    <row r="135" spans="1:17" s="85" customFormat="1" ht="80.400000000000006" thickTop="1" thickBot="1">
       <c r="A135" s="26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B135" s="138" t="s">
-        <v>470</v>
-      </c>
-      <c r="C135" s="19"/>
+        <v>216</v>
+      </c>
+      <c r="C135" s="137" t="s">
+        <v>468</v>
+      </c>
       <c r="D135" s="99"/>
-      <c r="E135" s="21"/>
-      <c r="F135" s="89"/>
-      <c r="G135" s="112"/>
+      <c r="E135" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="F135" s="104" t="s">
+        <v>224</v>
+      </c>
+      <c r="G135" s="112" t="s">
+        <v>223</v>
+      </c>
       <c r="H135" s="106" t="s">
-        <v>203</v>
-      </c>
-      <c r="I135" s="84"/>
-      <c r="J135" s="93"/>
-      <c r="K135" s="96"/>
+        <v>202</v>
+      </c>
+      <c r="I135" s="141" t="s">
+        <v>233</v>
+      </c>
+      <c r="J135" s="139" t="s">
+        <v>208</v>
+      </c>
+      <c r="K135" s="113" t="s">
+        <v>229</v>
+      </c>
       <c r="L135" s="94"/>
       <c r="M135" s="140" t="s">
-        <v>235</v>
-      </c>
-      <c r="N135" s="97"/>
+        <v>232</v>
+      </c>
+      <c r="N135" s="142" t="s">
+        <v>470</v>
+      </c>
       <c r="O135" s="80"/>
       <c r="P135" s="101"/>
       <c r="Q135" s="100"/>
     </row>
-    <row r="137" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="139" spans="1:17" s="117" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A139" s="117" t="s">
-        <v>244</v>
-      </c>
-      <c r="B139" s="117" t="s">
+    <row r="136" spans="1:17" s="85" customFormat="1" ht="40.799999999999997" thickTop="1" thickBot="1">
+      <c r="A136" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="B136" s="138" t="s">
+        <v>469</v>
+      </c>
+      <c r="C136" s="19"/>
+      <c r="D136" s="99"/>
+      <c r="E136" s="21"/>
+      <c r="F136" s="89"/>
+      <c r="G136" s="112"/>
+      <c r="H136" s="106" t="s">
+        <v>203</v>
+      </c>
+      <c r="I136" s="84"/>
+      <c r="J136" s="93"/>
+      <c r="K136" s="96"/>
+      <c r="L136" s="94"/>
+      <c r="M136" s="140" t="s">
+        <v>234</v>
+      </c>
+      <c r="N136" s="97"/>
+      <c r="O136" s="80"/>
+      <c r="P136" s="101"/>
+      <c r="Q136" s="100"/>
+    </row>
+    <row r="138" spans="1:17" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="140" spans="1:17" s="117" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A140" s="117" t="s">
+        <v>243</v>
+      </c>
+      <c r="B140" s="117" t="s">
+        <v>247</v>
+      </c>
+      <c r="C140" s="117" t="s">
         <v>248</v>
       </c>
-      <c r="C139" s="117" t="s">
+      <c r="D140" s="117" t="s">
         <v>249</v>
       </c>
-      <c r="D139" s="117" t="s">
+      <c r="E140" s="117" t="s">
         <v>250</v>
       </c>
-      <c r="E139" s="117" t="s">
+      <c r="F140" s="117" t="s">
         <v>251</v>
       </c>
-      <c r="F139" s="117" t="s">
+      <c r="G140" s="117" t="s">
         <v>252</v>
       </c>
-      <c r="G139" s="117" t="s">
+      <c r="H140" s="117" t="s">
         <v>253</v>
       </c>
-      <c r="H139" s="117" t="s">
+      <c r="I140" s="117" t="s">
         <v>254</v>
       </c>
-      <c r="I139" s="117" t="s">
+      <c r="J140" s="117" t="s">
         <v>255</v>
       </c>
-      <c r="J139" s="117" t="s">
+      <c r="K140" s="117" t="s">
         <v>256</v>
       </c>
-      <c r="K139" s="117" t="s">
+      <c r="L140" s="117" t="s">
         <v>257</v>
       </c>
-      <c r="L139" s="117" t="s">
+    </row>
+    <row r="141" spans="1:17" s="116" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A141" s="116" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="140" spans="1:17" s="116" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A140" s="116" t="s">
-        <v>259</v>
-      </c>
-      <c r="B140" s="116" t="s">
-        <v>316</v>
-      </c>
-      <c r="C140" s="116" t="s">
-        <v>328</v>
-      </c>
-      <c r="D140" s="116" t="s">
-        <v>363</v>
-      </c>
-      <c r="E140" s="116" t="s">
-        <v>363</v>
-      </c>
-      <c r="F140" s="116" t="s">
-        <v>328</v>
-      </c>
-      <c r="G140" s="116" t="s">
-        <v>328</v>
-      </c>
-      <c r="H140" s="116" t="s">
+      <c r="B141" s="116" t="s">
+        <v>315</v>
+      </c>
+      <c r="C141" s="116" t="s">
+        <v>327</v>
+      </c>
+      <c r="D141" s="116" t="s">
+        <v>362</v>
+      </c>
+      <c r="E141" s="116" t="s">
+        <v>362</v>
+      </c>
+      <c r="F141" s="116" t="s">
+        <v>327</v>
+      </c>
+      <c r="G141" s="116" t="s">
+        <v>327</v>
+      </c>
+      <c r="H141" s="116" t="s">
+        <v>334</v>
+      </c>
+      <c r="I141" s="116" t="s">
+        <v>334</v>
+      </c>
+      <c r="J141" s="128" t="s">
+        <v>336</v>
+      </c>
+      <c r="K141" s="116" t="s">
         <v>335</v>
-      </c>
-      <c r="I140" s="116" t="s">
-        <v>335</v>
-      </c>
-      <c r="J140" s="128" t="s">
-        <v>337</v>
-      </c>
-      <c r="K140" s="116" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="141" spans="1:17" s="116" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A141" s="116" t="s">
-        <v>260</v>
-      </c>
-      <c r="B141" s="116" t="s">
-        <v>319</v>
-      </c>
-      <c r="C141" s="116" t="s">
-        <v>329</v>
-      </c>
-      <c r="D141" s="116" t="s">
-        <v>325</v>
-      </c>
-      <c r="E141" s="116" t="s">
-        <v>325</v>
-      </c>
-      <c r="J141" s="116" t="s">
-        <v>338</v>
-      </c>
-      <c r="K141" s="116" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="142" spans="1:17" s="116" customFormat="1" thickTop="1" thickBot="1">
       <c r="A142" s="116" t="s">
+        <v>259</v>
+      </c>
+      <c r="B142" s="116" t="s">
+        <v>318</v>
+      </c>
+      <c r="C142" s="116" t="s">
+        <v>328</v>
+      </c>
+      <c r="D142" s="116" t="s">
+        <v>324</v>
+      </c>
+      <c r="E142" s="116" t="s">
+        <v>324</v>
+      </c>
+      <c r="J142" s="116" t="s">
+        <v>337</v>
+      </c>
+      <c r="K142" s="116" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" s="116" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A143" s="116" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" s="115" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A144" s="115" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="143" spans="1:17" s="115" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A143" s="115" t="s">
+    <row r="146" spans="1:19" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="148" spans="1:19" s="60" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A148" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="B148" s="60" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="145" spans="1:19" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="147" spans="1:19" s="60" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A147" s="60" t="s">
-        <v>245</v>
-      </c>
-      <c r="B147" s="60" t="s">
+      <c r="C148" s="60" t="s">
         <v>263</v>
       </c>
-      <c r="C147" s="60" t="s">
+      <c r="D148" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="D147" s="60" t="s">
+      <c r="E148" s="60" t="s">
         <v>265</v>
       </c>
-      <c r="E147" s="60" t="s">
+      <c r="F148" s="60" t="s">
         <v>266</v>
       </c>
-      <c r="F147" s="60" t="s">
+      <c r="G148" s="60" t="s">
         <v>267</v>
       </c>
-      <c r="G147" s="60" t="s">
+      <c r="H148" s="60" t="s">
         <v>268</v>
       </c>
-      <c r="H147" s="60" t="s">
+      <c r="I148" s="60" t="s">
         <v>269</v>
       </c>
-      <c r="I147" s="60" t="s">
+      <c r="J148" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="J147" s="60" t="s">
+      <c r="K148" s="60" t="s">
         <v>271</v>
       </c>
-      <c r="K147" s="60" t="s">
+      <c r="L148" s="60" t="s">
         <v>272</v>
       </c>
-      <c r="L147" s="60" t="s">
+      <c r="M148" s="60" t="s">
         <v>273</v>
       </c>
-      <c r="M147" s="60" t="s">
+      <c r="N148" s="60" t="s">
         <v>274</v>
       </c>
-      <c r="N147" s="60" t="s">
+      <c r="P148" s="60" t="s">
         <v>275</v>
       </c>
-      <c r="P147" s="60" t="s">
+      <c r="Q148" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="Q147" s="60" t="s">
+      <c r="R148" s="60" t="s">
         <v>277</v>
       </c>
-      <c r="R147" s="60" t="s">
-        <v>278</v>
-      </c>
-      <c r="S147" s="60" t="s">
+      <c r="S148" s="60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="149" spans="1:19" s="61" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A149" s="61" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="148" spans="1:19" s="61" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A148" s="61" t="s">
-        <v>259</v>
-      </c>
-      <c r="B148" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="C148" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="D148" s="61" t="s">
-        <v>316</v>
-      </c>
-      <c r="E148" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="F148" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="G148" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="H148" s="61" t="s">
-        <v>324</v>
-      </c>
-      <c r="I148" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="J148" s="61" t="s">
-        <v>328</v>
-      </c>
-      <c r="K148" s="127" t="s">
-        <v>318</v>
-      </c>
-      <c r="L148" s="61" t="s">
+      <c r="B149" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="C149" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="D149" s="61" t="s">
+        <v>315</v>
+      </c>
+      <c r="E149" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="F149" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="G149" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="H149" s="61" t="s">
+        <v>323</v>
+      </c>
+      <c r="I149" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="J149" s="61" t="s">
+        <v>327</v>
+      </c>
+      <c r="K149" s="127" t="s">
+        <v>317</v>
+      </c>
+      <c r="L149" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="M149" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="N149" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="P149" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="M148" s="61" t="s">
+      <c r="Q149" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="N148" s="61" t="s">
+      <c r="R149" s="61" t="s">
         <v>335</v>
       </c>
-      <c r="P148" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q148" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="R148" s="61" t="s">
-        <v>336</v>
-      </c>
-      <c r="S148" s="61" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" s="61" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A149" s="61" t="s">
-        <v>260</v>
+      <c r="S149" s="61" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="150" spans="1:19" s="61" customFormat="1" thickTop="1" thickBot="1">
       <c r="A150" s="61" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="151" spans="1:19" s="61" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A151" s="61" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="152" spans="1:19" s="2" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A152" s="2" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="151" spans="1:19" s="2" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A151" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="155" spans="1:19" s="118" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A155" s="118" t="s">
-        <v>246</v>
-      </c>
-      <c r="B155" s="118" t="s">
+    <row r="154" spans="1:19" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="156" spans="1:19" s="118" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A156" s="118" t="s">
+        <v>245</v>
+      </c>
+      <c r="B156" s="118" t="s">
+        <v>278</v>
+      </c>
+      <c r="C156" s="118" t="s">
         <v>279</v>
       </c>
-      <c r="C155" s="118" t="s">
+      <c r="D156" s="118" t="s">
         <v>280</v>
       </c>
-      <c r="D155" s="118" t="s">
+      <c r="E156" s="118" t="s">
         <v>281</v>
       </c>
-      <c r="E155" s="118" t="s">
+      <c r="F156" s="118" t="s">
         <v>282</v>
       </c>
-      <c r="F155" s="118" t="s">
+      <c r="G156" s="118" t="s">
         <v>283</v>
       </c>
-      <c r="G155" s="118" t="s">
+      <c r="H156" s="118" t="s">
         <v>284</v>
       </c>
-      <c r="H155" s="118" t="s">
+      <c r="I156" s="118" t="s">
         <v>285</v>
       </c>
-      <c r="I155" s="118" t="s">
+      <c r="J156" s="118" t="s">
         <v>286</v>
       </c>
-      <c r="J155" s="118" t="s">
-        <v>287</v>
-      </c>
-      <c r="K155" s="118" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="156" spans="1:19" s="72" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A156" s="72" t="s">
-        <v>259</v>
-      </c>
-      <c r="B156" s="72" t="s">
-        <v>332</v>
-      </c>
-      <c r="C156" s="72" t="s">
-        <v>330</v>
-      </c>
-      <c r="D156" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="E156" s="72" t="s">
-        <v>331</v>
-      </c>
-      <c r="F156" s="72" t="s">
-        <v>328</v>
-      </c>
-      <c r="G156" s="72" t="s">
-        <v>328</v>
-      </c>
-      <c r="H156" s="72" t="s">
-        <v>335</v>
-      </c>
-      <c r="I156" s="72" t="s">
-        <v>335</v>
-      </c>
-      <c r="J156" s="72" t="s">
-        <v>324</v>
+      <c r="K156" s="118" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:19" s="72" customFormat="1" thickTop="1" thickBot="1">
       <c r="A157" s="72" t="s">
-        <v>260</v>
+        <v>258</v>
+      </c>
+      <c r="B157" s="72" t="s">
+        <v>331</v>
+      </c>
+      <c r="C157" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="D157" s="72" t="s">
+        <v>332</v>
+      </c>
+      <c r="E157" s="72" t="s">
+        <v>330</v>
       </c>
       <c r="F157" s="72" t="s">
+        <v>327</v>
+      </c>
+      <c r="G157" s="72" t="s">
+        <v>327</v>
+      </c>
+      <c r="H157" s="72" t="s">
+        <v>334</v>
+      </c>
+      <c r="I157" s="72" t="s">
+        <v>334</v>
+      </c>
+      <c r="J157" s="72" t="s">
         <v>323</v>
-      </c>
-      <c r="G157" s="72" t="s">
-        <v>342</v>
-      </c>
-      <c r="H157" s="72" t="s">
-        <v>343</v>
-      </c>
-      <c r="I157" s="72" t="s">
-        <v>319</v>
-      </c>
-      <c r="J157" s="72" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="158" spans="1:19" s="72" customFormat="1" thickTop="1" thickBot="1">
       <c r="A158" s="72" t="s">
-        <v>261</v>
+        <v>259</v>
+      </c>
+      <c r="F158" s="72" t="s">
+        <v>322</v>
+      </c>
+      <c r="G158" s="72" t="s">
+        <v>341</v>
+      </c>
+      <c r="H158" s="72" t="s">
+        <v>342</v>
+      </c>
+      <c r="I158" s="72" t="s">
+        <v>318</v>
       </c>
       <c r="J158" s="72" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="159" spans="1:19" s="119" customFormat="1" ht="54" thickTop="1" thickBot="1">
-      <c r="A159" s="119" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="159" spans="1:19" s="72" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A159" s="72" t="s">
+        <v>260</v>
+      </c>
+      <c r="J159" s="72" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="160" spans="1:19" s="119" customFormat="1" ht="54" thickTop="1" thickBot="1">
+      <c r="A160" s="119" t="s">
         <v>174</v>
       </c>
-      <c r="F159" s="143" t="s">
+      <c r="F160" s="143" t="s">
+        <v>364</v>
+      </c>
+      <c r="G160" s="143" t="s">
+        <v>364</v>
+      </c>
+      <c r="H160" s="133" t="s">
+        <v>300</v>
+      </c>
+      <c r="I160" s="133" t="s">
+        <v>301</v>
+      </c>
+      <c r="J160" s="133" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" s="119" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A161" s="119" t="s">
+        <v>363</v>
+      </c>
+      <c r="H161" s="143" t="s">
         <v>365</v>
       </c>
-      <c r="G159" s="143" t="s">
+      <c r="I161" s="143" t="s">
         <v>365</v>
       </c>
-      <c r="H159" s="133" t="s">
-        <v>301</v>
-      </c>
-      <c r="I159" s="133" t="s">
-        <v>302</v>
-      </c>
-      <c r="J159" s="133" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="160" spans="1:19" s="119" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A160" s="119" t="s">
-        <v>364</v>
-      </c>
-      <c r="H160" s="143" t="s">
-        <v>366</v>
-      </c>
-      <c r="I160" s="143" t="s">
-        <v>366</v>
-      </c>
-      <c r="J160" s="122"/>
-    </row>
-    <row r="162" spans="1:10" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="164" spans="1:10" s="121" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A164" s="121" t="s">
-        <v>247</v>
-      </c>
-      <c r="B164" s="121" t="s">
+      <c r="J161" s="122"/>
+    </row>
+    <row r="163" spans="1:10" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="165" spans="1:10" s="121" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A165" s="121" t="s">
+        <v>246</v>
+      </c>
+      <c r="B165" s="121" t="s">
+        <v>287</v>
+      </c>
+      <c r="C165" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="C164" s="121" t="s">
+      <c r="D165" s="121" t="s">
         <v>289</v>
       </c>
-      <c r="D164" s="121" t="s">
+      <c r="E165" s="121" t="s">
         <v>290</v>
       </c>
-      <c r="E164" s="121" t="s">
+      <c r="F165" s="121" t="s">
         <v>291</v>
       </c>
-      <c r="F164" s="121" t="s">
+      <c r="G165" s="121" t="s">
         <v>292</v>
       </c>
-      <c r="G164" s="121" t="s">
+      <c r="H165" s="121" t="s">
         <v>293</v>
       </c>
-      <c r="H164" s="121" t="s">
+      <c r="I165" s="121" t="s">
         <v>294</v>
       </c>
-      <c r="I164" s="121" t="s">
-        <v>295</v>
-      </c>
-      <c r="J164" s="121" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" s="120" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A165" s="120" t="s">
-        <v>259</v>
-      </c>
-      <c r="E165" s="120" t="s">
-        <v>324</v>
-      </c>
-      <c r="F165" s="120" t="s">
-        <v>336</v>
-      </c>
-      <c r="H165" s="120" t="s">
-        <v>336</v>
-      </c>
-      <c r="I165" s="120" t="s">
-        <v>316</v>
+      <c r="J165" s="121" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="166" spans="1:10" s="120" customFormat="1" thickTop="1" thickBot="1">
       <c r="A166" s="120" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E166" s="120" t="s">
-        <v>326</v>
+        <v>323</v>
+      </c>
+      <c r="F166" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="H166" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="I166" s="120" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="167" spans="1:10" s="120" customFormat="1" thickTop="1" thickBot="1">
       <c r="A167" s="120" t="s">
+        <v>259</v>
+      </c>
+      <c r="E167" s="120" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="120" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A168" s="120" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" s="6" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
+      <c r="A169" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="168" spans="1:10" s="6" customFormat="1" ht="27.6" thickTop="1" thickBot="1">
-      <c r="A168" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="D168" s="144" t="s">
-        <v>297</v>
-      </c>
-      <c r="E168" s="144" t="s">
+      <c r="D169" s="144" t="s">
         <v>296</v>
       </c>
-      <c r="G168" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="I168" s="144" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="172" spans="1:10" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="175" spans="1:10" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="176" spans="1:10" s="26" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A176" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" s="87" customFormat="1" thickTop="1" thickBot="1">
-      <c r="A177" s="26"/>
-    </row>
-    <row r="178" spans="1:1" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="179" spans="1:1" thickTop="1" thickBot="1">
-      <c r="A179" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
+      <c r="E169" s="144" t="s">
+        <v>295</v>
+      </c>
+      <c r="G169" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="I169" s="144" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="176" spans="1:10" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="177" spans="1:1" s="26" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A177" s="26" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" s="87" customFormat="1" thickTop="1" thickBot="1">
+      <c r="A178" s="26"/>
+    </row>
+    <row r="179" spans="1:1" s="17" customFormat="1" thickTop="1" thickBot="1"/>
     <row r="180" spans="1:1" thickTop="1" thickBot="1">
       <c r="A180" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" thickTop="1" thickBot="1">
+      <c r="A181" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" thickTop="1" thickBot="1">
-      <c r="A181" s="135" t="s">
+    <row r="182" spans="1:1" thickTop="1" thickBot="1">
+      <c r="A182" s="135" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="13.2">
-      <c r="A182" s="135" t="s">
+    <row r="183" spans="1:1" ht="13.2">
+      <c r="A183" s="135" t="s">
         <v>184</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" thickTop="1" thickBot="1">
-      <c r="A183" s="135" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="184" spans="1:1" thickTop="1" thickBot="1">
       <c r="A184" s="135" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="188" spans="1:1" ht="13.2">
-      <c r="A188" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" thickTop="1" thickBot="1">
+      <c r="A185" s="135" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" s="17" customFormat="1" thickTop="1" thickBot="1"/>
     <row r="189" spans="1:1" ht="13.2">
       <c r="A189" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="190" spans="1:1" ht="13.2">
       <c r="A190" s="1" t="s">
-        <v>416</v>
+        <v>298</v>
       </c>
     </row>
     <row r="191" spans="1:1" ht="13.2">
       <c r="A191" s="1" t="s">
-        <v>300</v>
+        <v>415</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="13.2">
       <c r="A192" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="13.2">
+      <c r="A193" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" thickTop="1" thickBot="1">
+      <c r="A194" s="1" t="s">
         <v>307</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" thickTop="1" thickBot="1">
-      <c r="A193" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" thickTop="1" thickBot="1">
-      <c r="A194" s="135" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="195" spans="1:3" thickTop="1" thickBot="1">
       <c r="A195" s="135" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="196" spans="1:3" thickTop="1" thickBot="1">
       <c r="A196" s="135" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="199" spans="1:3" s="17" customFormat="1" thickTop="1" thickBot="1"/>
-    <row r="200" spans="1:3" ht="13.2"/>
-    <row r="201" spans="1:3" ht="13.2">
-      <c r="A201" s="135" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" thickTop="1" thickBot="1">
+      <c r="A197" s="135" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" s="17" customFormat="1" thickTop="1" thickBot="1"/>
+    <row r="201" spans="1:3" ht="13.2"/>
+    <row r="202" spans="1:3" ht="13.2">
+      <c r="A202" s="135" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" thickTop="1" thickBot="1">
+      <c r="B203" s="1" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" thickTop="1" thickBot="1">
-      <c r="B202" s="1" t="s">
+      <c r="C203" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="205" spans="1:3" ht="13.2"/>
+    </row>
     <row r="206" spans="1:3" ht="13.2"/>
     <row r="207" spans="1:3" ht="13.2"/>
     <row r="208" spans="1:3" ht="13.2"/>
-    <row r="211" ht="13.2"/>
+    <row r="209" ht="13.2"/>
     <row r="212" ht="13.2"/>
     <row r="213" ht="13.2"/>
     <row r="214" ht="13.2"/>
     <row r="215" ht="13.2"/>
     <row r="216" ht="13.2"/>
     <row r="217" ht="13.2"/>
+    <row r="218" ht="13.2"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
